--- a/NBA-predict/test/data/data.xlsx
+++ b/NBA-predict/test/data/data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$247</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="468">
   <si>
     <t>Team</t>
   </si>
@@ -1395,6 +1395,42 @@
   </si>
   <si>
     <t>J.Stokes</t>
+  </si>
+  <si>
+    <t>D.Marble</t>
+  </si>
+  <si>
+    <t>J.R.Smith</t>
+  </si>
+  <si>
+    <t>M.Chalmers</t>
+  </si>
+  <si>
+    <t>D.Dukan</t>
+  </si>
+  <si>
+    <t>L.Nogueira</t>
+  </si>
+  <si>
+    <t>C.Alexander</t>
+  </si>
+  <si>
+    <t>A.Brown</t>
+  </si>
+  <si>
+    <t>B.Caboclo</t>
+  </si>
+  <si>
+    <t>J.Fredette</t>
+  </si>
+  <si>
+    <t>A.Afflalo</t>
+  </si>
+  <si>
+    <t>N.Cole</t>
+  </si>
+  <si>
+    <t>G.Henderson</t>
   </si>
 </sst>
 </file>
@@ -1722,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q149"/>
+  <dimension ref="A1:Q349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J346" sqref="J346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,7 +1998,7 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="G5" t="s">
         <v>51</v>
@@ -2886,7 +2922,7 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="G23" t="s">
         <v>51</v>
@@ -3860,7 +3896,7 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="G42" t="s">
         <v>51</v>
@@ -6536,7 +6572,7 @@
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="G93" t="s">
         <v>51</v>
@@ -9498,8 +9534,6507 @@
         <v>96</v>
       </c>
     </row>
+    <row r="150" spans="1:17">
+      <c r="A150" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" t="s">
+        <v>113</v>
+      </c>
+      <c r="E150" t="s">
+        <v>456</v>
+      </c>
+      <c r="F150" t="s">
+        <v>115</v>
+      </c>
+      <c r="G150" t="s">
+        <v>116</v>
+      </c>
+      <c r="H150" t="s">
+        <v>117</v>
+      </c>
+      <c r="I150" t="s">
+        <v>118</v>
+      </c>
+      <c r="J150" t="s">
+        <v>119</v>
+      </c>
+      <c r="K150" t="s">
+        <v>120</v>
+      </c>
+      <c r="L150" t="s">
+        <v>50</v>
+      </c>
+      <c r="M150" t="s">
+        <v>121</v>
+      </c>
+      <c r="N150" t="s">
+        <v>122</v>
+      </c>
+      <c r="O150" t="s">
+        <v>123</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B151" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C151" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" t="s">
+        <v>220</v>
+      </c>
+      <c r="E151" t="s">
+        <v>221</v>
+      </c>
+      <c r="F151" t="s">
+        <v>222</v>
+      </c>
+      <c r="G151" t="s">
+        <v>223</v>
+      </c>
+      <c r="H151" t="s">
+        <v>224</v>
+      </c>
+      <c r="I151" t="s">
+        <v>225</v>
+      </c>
+      <c r="J151" t="s">
+        <v>226</v>
+      </c>
+      <c r="K151" t="s">
+        <v>227</v>
+      </c>
+      <c r="L151" t="s">
+        <v>447</v>
+      </c>
+      <c r="M151" t="s">
+        <v>228</v>
+      </c>
+      <c r="N151" t="s">
+        <v>229</v>
+      </c>
+      <c r="O151" t="s">
+        <v>230</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C152" t="s">
+        <v>126</v>
+      </c>
+      <c r="D152" t="s">
+        <v>127</v>
+      </c>
+      <c r="E152" t="s">
+        <v>128</v>
+      </c>
+      <c r="F152" t="s">
+        <v>140</v>
+      </c>
+      <c r="G152" t="s">
+        <v>148</v>
+      </c>
+      <c r="H152" t="s">
+        <v>142</v>
+      </c>
+      <c r="I152" t="s">
+        <v>143</v>
+      </c>
+      <c r="J152" t="s">
+        <v>144</v>
+      </c>
+      <c r="K152" t="s">
+        <v>145</v>
+      </c>
+      <c r="L152" t="s">
+        <v>146</v>
+      </c>
+      <c r="M152" t="s">
+        <v>147</v>
+      </c>
+      <c r="N152" t="s">
+        <v>423</v>
+      </c>
+      <c r="O152" t="s">
+        <v>422</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B153" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C153" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" t="s">
+        <v>100</v>
+      </c>
+      <c r="E153" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" t="s">
+        <v>102</v>
+      </c>
+      <c r="G153" t="s">
+        <v>103</v>
+      </c>
+      <c r="H153" t="s">
+        <v>104</v>
+      </c>
+      <c r="I153" t="s">
+        <v>105</v>
+      </c>
+      <c r="J153" t="s">
+        <v>106</v>
+      </c>
+      <c r="K153" t="s">
+        <v>107</v>
+      </c>
+      <c r="L153" t="s">
+        <v>108</v>
+      </c>
+      <c r="M153" t="s">
+        <v>109</v>
+      </c>
+      <c r="N153" t="s">
+        <v>110</v>
+      </c>
+      <c r="O153" t="s">
+        <v>111</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" t="s">
+        <v>160</v>
+      </c>
+      <c r="G154" t="s">
+        <v>161</v>
+      </c>
+      <c r="H154" t="s">
+        <v>155</v>
+      </c>
+      <c r="I154" t="s">
+        <v>156</v>
+      </c>
+      <c r="J154" t="s">
+        <v>157</v>
+      </c>
+      <c r="K154" t="s">
+        <v>158</v>
+      </c>
+      <c r="L154" t="s">
+        <v>159</v>
+      </c>
+      <c r="M154" t="s">
+        <v>153</v>
+      </c>
+      <c r="N154" t="s">
+        <v>162</v>
+      </c>
+      <c r="O154" t="s">
+        <v>154</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" t="s">
+        <v>391</v>
+      </c>
+      <c r="B155" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C155" t="s">
+        <v>406</v>
+      </c>
+      <c r="D155" t="s">
+        <v>407</v>
+      </c>
+      <c r="E155" t="s">
+        <v>408</v>
+      </c>
+      <c r="F155" t="s">
+        <v>409</v>
+      </c>
+      <c r="G155" t="s">
+        <v>410</v>
+      </c>
+      <c r="H155" t="s">
+        <v>411</v>
+      </c>
+      <c r="I155" t="s">
+        <v>412</v>
+      </c>
+      <c r="J155" t="s">
+        <v>413</v>
+      </c>
+      <c r="K155" t="s">
+        <v>414</v>
+      </c>
+      <c r="L155" t="s">
+        <v>415</v>
+      </c>
+      <c r="M155" t="s">
+        <v>416</v>
+      </c>
+      <c r="N155" t="s">
+        <v>448</v>
+      </c>
+      <c r="O155" t="s">
+        <v>443</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C156" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" t="s">
+        <v>48</v>
+      </c>
+      <c r="E156" t="s">
+        <v>49</v>
+      </c>
+      <c r="F156" t="s">
+        <v>457</v>
+      </c>
+      <c r="G156" t="s">
+        <v>51</v>
+      </c>
+      <c r="H156" t="s">
+        <v>52</v>
+      </c>
+      <c r="I156" t="s">
+        <v>53</v>
+      </c>
+      <c r="J156" t="s">
+        <v>54</v>
+      </c>
+      <c r="K156" t="s">
+        <v>55</v>
+      </c>
+      <c r="L156" t="s">
+        <v>56</v>
+      </c>
+      <c r="M156" t="s">
+        <v>57</v>
+      </c>
+      <c r="N156" t="s">
+        <v>58</v>
+      </c>
+      <c r="O156" t="s">
+        <v>59</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C157" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" t="s">
+        <v>131</v>
+      </c>
+      <c r="F157" t="s">
+        <v>139</v>
+      </c>
+      <c r="G157" t="s">
+        <v>133</v>
+      </c>
+      <c r="H157" t="s">
+        <v>129</v>
+      </c>
+      <c r="I157" t="s">
+        <v>452</v>
+      </c>
+      <c r="J157" t="s">
+        <v>134</v>
+      </c>
+      <c r="K157" t="s">
+        <v>137</v>
+      </c>
+      <c r="L157" t="s">
+        <v>132</v>
+      </c>
+      <c r="M157" t="s">
+        <v>136</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" t="s">
+        <v>272</v>
+      </c>
+      <c r="B158" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C158" t="s">
+        <v>273</v>
+      </c>
+      <c r="D158" t="s">
+        <v>274</v>
+      </c>
+      <c r="E158" t="s">
+        <v>275</v>
+      </c>
+      <c r="F158" t="s">
+        <v>276</v>
+      </c>
+      <c r="G158" t="s">
+        <v>277</v>
+      </c>
+      <c r="H158" t="s">
+        <v>278</v>
+      </c>
+      <c r="I158" t="s">
+        <v>279</v>
+      </c>
+      <c r="J158" t="s">
+        <v>280</v>
+      </c>
+      <c r="K158" t="s">
+        <v>135</v>
+      </c>
+      <c r="L158" t="s">
+        <v>281</v>
+      </c>
+      <c r="M158" t="s">
+        <v>282</v>
+      </c>
+      <c r="N158" t="s">
+        <v>433</v>
+      </c>
+      <c r="O158" t="s">
+        <v>449</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" t="s">
+        <v>271</v>
+      </c>
+      <c r="B159" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C159" t="s">
+        <v>283</v>
+      </c>
+      <c r="D159" t="s">
+        <v>427</v>
+      </c>
+      <c r="E159" t="s">
+        <v>285</v>
+      </c>
+      <c r="F159" t="s">
+        <v>450</v>
+      </c>
+      <c r="G159" t="s">
+        <v>286</v>
+      </c>
+      <c r="H159" t="s">
+        <v>288</v>
+      </c>
+      <c r="I159" t="s">
+        <v>290</v>
+      </c>
+      <c r="J159" t="s">
+        <v>289</v>
+      </c>
+      <c r="K159" t="s">
+        <v>291</v>
+      </c>
+      <c r="L159" t="s">
+        <v>292</v>
+      </c>
+      <c r="M159" t="s">
+        <v>293</v>
+      </c>
+      <c r="N159" t="s">
+        <v>284</v>
+      </c>
+      <c r="O159" t="s">
+        <v>451</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" t="s">
+        <v>205</v>
+      </c>
+      <c r="B160" s="1">
+        <v>42314</v>
+      </c>
+      <c r="D160" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160" t="s">
+        <v>208</v>
+      </c>
+      <c r="F160" t="s">
+        <v>209</v>
+      </c>
+      <c r="G160" t="s">
+        <v>210</v>
+      </c>
+      <c r="H160" t="s">
+        <v>211</v>
+      </c>
+      <c r="I160" t="s">
+        <v>212</v>
+      </c>
+      <c r="J160" t="s">
+        <v>213</v>
+      </c>
+      <c r="K160" t="s">
+        <v>214</v>
+      </c>
+      <c r="L160" t="s">
+        <v>215</v>
+      </c>
+      <c r="M160" t="s">
+        <v>216</v>
+      </c>
+      <c r="N160" t="s">
+        <v>217</v>
+      </c>
+      <c r="O160" t="s">
+        <v>445</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C161" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" t="s">
+        <v>192</v>
+      </c>
+      <c r="E161" t="s">
+        <v>193</v>
+      </c>
+      <c r="F161" t="s">
+        <v>194</v>
+      </c>
+      <c r="G161" t="s">
+        <v>195</v>
+      </c>
+      <c r="H161" t="s">
+        <v>196</v>
+      </c>
+      <c r="I161" t="s">
+        <v>197</v>
+      </c>
+      <c r="J161" t="s">
+        <v>419</v>
+      </c>
+      <c r="K161" t="s">
+        <v>458</v>
+      </c>
+      <c r="L161" t="s">
+        <v>200</v>
+      </c>
+      <c r="M161" t="s">
+        <v>201</v>
+      </c>
+      <c r="N161" t="s">
+        <v>202</v>
+      </c>
+      <c r="O161" t="s">
+        <v>203</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C162" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" t="s">
+        <v>76</v>
+      </c>
+      <c r="E162" t="s">
+        <v>435</v>
+      </c>
+      <c r="F162" t="s">
+        <v>78</v>
+      </c>
+      <c r="G162" t="s">
+        <v>349</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162" t="s">
+        <v>81</v>
+      </c>
+      <c r="J162" t="s">
+        <v>82</v>
+      </c>
+      <c r="K162" t="s">
+        <v>83</v>
+      </c>
+      <c r="O162" t="s">
+        <v>436</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" t="s">
+        <v>425</v>
+      </c>
+      <c r="I163" t="s">
+        <v>34</v>
+      </c>
+      <c r="J163" t="s">
+        <v>35</v>
+      </c>
+      <c r="K163" t="s">
+        <v>36</v>
+      </c>
+      <c r="L163" t="s">
+        <v>37</v>
+      </c>
+      <c r="M163" t="s">
+        <v>38</v>
+      </c>
+      <c r="N163" t="s">
+        <v>43</v>
+      </c>
+      <c r="O163" t="s">
+        <v>44</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C164" t="s">
+        <v>336</v>
+      </c>
+      <c r="D164" t="s">
+        <v>337</v>
+      </c>
+      <c r="E164" t="s">
+        <v>338</v>
+      </c>
+      <c r="F164" t="s">
+        <v>339</v>
+      </c>
+      <c r="G164" t="s">
+        <v>340</v>
+      </c>
+      <c r="H164" t="s">
+        <v>341</v>
+      </c>
+      <c r="I164" t="s">
+        <v>342</v>
+      </c>
+      <c r="J164" t="s">
+        <v>344</v>
+      </c>
+      <c r="K164" t="s">
+        <v>345</v>
+      </c>
+      <c r="L164" t="s">
+        <v>343</v>
+      </c>
+      <c r="M164" t="s">
+        <v>346</v>
+      </c>
+      <c r="N164" t="s">
+        <v>438</v>
+      </c>
+      <c r="O164" t="s">
+        <v>347</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" t="s">
+        <v>26</v>
+      </c>
+      <c r="K165" t="s">
+        <v>42</v>
+      </c>
+      <c r="L165" t="s">
+        <v>39</v>
+      </c>
+      <c r="M165" t="s">
+        <v>40</v>
+      </c>
+      <c r="N165" t="s">
+        <v>41</v>
+      </c>
+      <c r="O165" t="s">
+        <v>176</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B166" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" t="s">
+        <v>85</v>
+      </c>
+      <c r="E166" t="s">
+        <v>91</v>
+      </c>
+      <c r="F166" t="s">
+        <v>87</v>
+      </c>
+      <c r="G166" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" t="s">
+        <v>89</v>
+      </c>
+      <c r="I166" t="s">
+        <v>90</v>
+      </c>
+      <c r="J166" t="s">
+        <v>430</v>
+      </c>
+      <c r="K166" t="s">
+        <v>92</v>
+      </c>
+      <c r="L166" t="s">
+        <v>93</v>
+      </c>
+      <c r="M166" t="s">
+        <v>94</v>
+      </c>
+      <c r="N166" t="s">
+        <v>95</v>
+      </c>
+      <c r="O166" t="s">
+        <v>96</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" t="s">
+        <v>232</v>
+      </c>
+      <c r="B167" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C167" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" t="s">
+        <v>234</v>
+      </c>
+      <c r="E167" t="s">
+        <v>245</v>
+      </c>
+      <c r="F167" t="s">
+        <v>236</v>
+      </c>
+      <c r="G167" t="s">
+        <v>237</v>
+      </c>
+      <c r="H167" t="s">
+        <v>238</v>
+      </c>
+      <c r="I167" t="s">
+        <v>239</v>
+      </c>
+      <c r="J167" t="s">
+        <v>240</v>
+      </c>
+      <c r="K167" t="s">
+        <v>241</v>
+      </c>
+      <c r="L167" t="s">
+        <v>454</v>
+      </c>
+      <c r="M167" t="s">
+        <v>243</v>
+      </c>
+      <c r="N167" t="s">
+        <v>242</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" t="s">
+        <v>363</v>
+      </c>
+      <c r="B168" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C168" t="s">
+        <v>378</v>
+      </c>
+      <c r="D168" t="s">
+        <v>389</v>
+      </c>
+      <c r="E168" t="s">
+        <v>380</v>
+      </c>
+      <c r="F168" t="s">
+        <v>381</v>
+      </c>
+      <c r="G168" t="s">
+        <v>382</v>
+      </c>
+      <c r="H168" t="s">
+        <v>383</v>
+      </c>
+      <c r="I168" t="s">
+        <v>384</v>
+      </c>
+      <c r="J168" t="s">
+        <v>385</v>
+      </c>
+      <c r="K168" t="s">
+        <v>386</v>
+      </c>
+      <c r="L168" t="s">
+        <v>387</v>
+      </c>
+      <c r="M168" t="s">
+        <v>388</v>
+      </c>
+      <c r="N168" t="s">
+        <v>431</v>
+      </c>
+      <c r="O168" t="s">
+        <v>390</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169" s="1">
+        <v>42314</v>
+      </c>
+      <c r="C169" t="s">
+        <v>246</v>
+      </c>
+      <c r="D169" t="s">
+        <v>257</v>
+      </c>
+      <c r="F169" t="s">
+        <v>249</v>
+      </c>
+      <c r="G169" t="s">
+        <v>250</v>
+      </c>
+      <c r="H169" t="s">
+        <v>251</v>
+      </c>
+      <c r="I169" t="s">
+        <v>252</v>
+      </c>
+      <c r="K169" t="s">
+        <v>254</v>
+      </c>
+      <c r="L169" t="s">
+        <v>255</v>
+      </c>
+      <c r="M169" t="s">
+        <v>256</v>
+      </c>
+      <c r="N169" t="s">
+        <v>440</v>
+      </c>
+      <c r="O169" t="s">
+        <v>248</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C170" t="s">
+        <v>60</v>
+      </c>
+      <c r="D170" t="s">
+        <v>61</v>
+      </c>
+      <c r="E170" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170" t="s">
+        <v>63</v>
+      </c>
+      <c r="G170" t="s">
+        <v>64</v>
+      </c>
+      <c r="H170" t="s">
+        <v>65</v>
+      </c>
+      <c r="I170" t="s">
+        <v>66</v>
+      </c>
+      <c r="J170" t="s">
+        <v>67</v>
+      </c>
+      <c r="K170" t="s">
+        <v>68</v>
+      </c>
+      <c r="L170" t="s">
+        <v>69</v>
+      </c>
+      <c r="M170" t="s">
+        <v>70</v>
+      </c>
+      <c r="N170" t="s">
+        <v>424</v>
+      </c>
+      <c r="O170" t="s">
+        <v>72</v>
+      </c>
+      <c r="P170">
+        <v>1</v>
+      </c>
+      <c r="Q170">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" t="s">
+        <v>392</v>
+      </c>
+      <c r="B171" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C171" t="s">
+        <v>393</v>
+      </c>
+      <c r="D171" t="s">
+        <v>394</v>
+      </c>
+      <c r="E171" t="s">
+        <v>395</v>
+      </c>
+      <c r="F171" t="s">
+        <v>396</v>
+      </c>
+      <c r="G171" t="s">
+        <v>397</v>
+      </c>
+      <c r="H171" t="s">
+        <v>398</v>
+      </c>
+      <c r="I171" t="s">
+        <v>247</v>
+      </c>
+      <c r="J171" t="s">
+        <v>400</v>
+      </c>
+      <c r="K171" t="s">
+        <v>401</v>
+      </c>
+      <c r="L171" t="s">
+        <v>402</v>
+      </c>
+      <c r="M171" t="s">
+        <v>403</v>
+      </c>
+      <c r="N171" t="s">
+        <v>404</v>
+      </c>
+      <c r="O171" t="s">
+        <v>405</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+      <c r="Q171">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C172" t="s">
+        <v>135</v>
+      </c>
+      <c r="D172" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172" t="s">
+        <v>131</v>
+      </c>
+      <c r="F172" t="s">
+        <v>139</v>
+      </c>
+      <c r="G172" t="s">
+        <v>133</v>
+      </c>
+      <c r="H172" t="s">
+        <v>129</v>
+      </c>
+      <c r="I172" t="s">
+        <v>452</v>
+      </c>
+      <c r="J172" t="s">
+        <v>134</v>
+      </c>
+      <c r="K172" t="s">
+        <v>137</v>
+      </c>
+      <c r="L172" t="s">
+        <v>132</v>
+      </c>
+      <c r="M172" t="s">
+        <v>136</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" t="s">
+        <v>97</v>
+      </c>
+      <c r="B173" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C173" t="s">
+        <v>112</v>
+      </c>
+      <c r="D173" t="s">
+        <v>113</v>
+      </c>
+      <c r="E173" t="s">
+        <v>456</v>
+      </c>
+      <c r="F173" t="s">
+        <v>115</v>
+      </c>
+      <c r="G173" t="s">
+        <v>116</v>
+      </c>
+      <c r="H173" t="s">
+        <v>117</v>
+      </c>
+      <c r="I173" t="s">
+        <v>118</v>
+      </c>
+      <c r="J173" t="s">
+        <v>119</v>
+      </c>
+      <c r="K173" t="s">
+        <v>120</v>
+      </c>
+      <c r="L173" t="s">
+        <v>50</v>
+      </c>
+      <c r="M173" t="s">
+        <v>121</v>
+      </c>
+      <c r="N173" t="s">
+        <v>122</v>
+      </c>
+      <c r="O173" t="s">
+        <v>123</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s">
+        <v>32</v>
+      </c>
+      <c r="H174" t="s">
+        <v>425</v>
+      </c>
+      <c r="I174" t="s">
+        <v>426</v>
+      </c>
+      <c r="J174" t="s">
+        <v>35</v>
+      </c>
+      <c r="K174" t="s">
+        <v>36</v>
+      </c>
+      <c r="L174" t="s">
+        <v>37</v>
+      </c>
+      <c r="M174" t="s">
+        <v>38</v>
+      </c>
+      <c r="N174" t="s">
+        <v>43</v>
+      </c>
+      <c r="O174" t="s">
+        <v>44</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B175" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C175" t="s">
+        <v>99</v>
+      </c>
+      <c r="D175" t="s">
+        <v>100</v>
+      </c>
+      <c r="E175" t="s">
+        <v>101</v>
+      </c>
+      <c r="F175" t="s">
+        <v>102</v>
+      </c>
+      <c r="G175" t="s">
+        <v>103</v>
+      </c>
+      <c r="H175" t="s">
+        <v>104</v>
+      </c>
+      <c r="I175" t="s">
+        <v>105</v>
+      </c>
+      <c r="J175" t="s">
+        <v>106</v>
+      </c>
+      <c r="K175" t="s">
+        <v>107</v>
+      </c>
+      <c r="L175" t="s">
+        <v>108</v>
+      </c>
+      <c r="M175" t="s">
+        <v>109</v>
+      </c>
+      <c r="N175" t="s">
+        <v>110</v>
+      </c>
+      <c r="O175" t="s">
+        <v>111</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" t="s">
+        <v>322</v>
+      </c>
+      <c r="B176" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C176" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" t="s">
+        <v>324</v>
+      </c>
+      <c r="E176" t="s">
+        <v>325</v>
+      </c>
+      <c r="F176" t="s">
+        <v>327</v>
+      </c>
+      <c r="G176" t="s">
+        <v>442</v>
+      </c>
+      <c r="H176" t="s">
+        <v>328</v>
+      </c>
+      <c r="I176" t="s">
+        <v>329</v>
+      </c>
+      <c r="J176" t="s">
+        <v>330</v>
+      </c>
+      <c r="K176" t="s">
+        <v>331</v>
+      </c>
+      <c r="L176" t="s">
+        <v>332</v>
+      </c>
+      <c r="M176" t="s">
+        <v>334</v>
+      </c>
+      <c r="N176" t="s">
+        <v>326</v>
+      </c>
+      <c r="O176" t="s">
+        <v>453</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" t="s">
+        <v>74</v>
+      </c>
+      <c r="B177" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C177" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" t="s">
+        <v>76</v>
+      </c>
+      <c r="E177" t="s">
+        <v>435</v>
+      </c>
+      <c r="F177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" t="s">
+        <v>80</v>
+      </c>
+      <c r="I177" t="s">
+        <v>81</v>
+      </c>
+      <c r="J177" t="s">
+        <v>82</v>
+      </c>
+      <c r="K177" t="s">
+        <v>83</v>
+      </c>
+      <c r="O177" t="s">
+        <v>436</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C178" t="s">
+        <v>283</v>
+      </c>
+      <c r="D178" t="s">
+        <v>427</v>
+      </c>
+      <c r="E178" t="s">
+        <v>285</v>
+      </c>
+      <c r="F178" t="s">
+        <v>450</v>
+      </c>
+      <c r="G178" t="s">
+        <v>286</v>
+      </c>
+      <c r="H178" t="s">
+        <v>288</v>
+      </c>
+      <c r="I178" t="s">
+        <v>290</v>
+      </c>
+      <c r="J178" t="s">
+        <v>289</v>
+      </c>
+      <c r="K178" t="s">
+        <v>291</v>
+      </c>
+      <c r="L178" t="s">
+        <v>292</v>
+      </c>
+      <c r="M178" t="s">
+        <v>293</v>
+      </c>
+      <c r="N178" t="s">
+        <v>284</v>
+      </c>
+      <c r="O178" t="s">
+        <v>451</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" t="s">
+        <v>149</v>
+      </c>
+      <c r="B179" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C179" t="s">
+        <v>150</v>
+      </c>
+      <c r="D179" t="s">
+        <v>151</v>
+      </c>
+      <c r="E179" t="s">
+        <v>152</v>
+      </c>
+      <c r="F179" t="s">
+        <v>160</v>
+      </c>
+      <c r="G179" t="s">
+        <v>161</v>
+      </c>
+      <c r="H179" t="s">
+        <v>155</v>
+      </c>
+      <c r="I179" t="s">
+        <v>156</v>
+      </c>
+      <c r="J179" t="s">
+        <v>157</v>
+      </c>
+      <c r="K179" t="s">
+        <v>158</v>
+      </c>
+      <c r="L179" t="s">
+        <v>159</v>
+      </c>
+      <c r="M179" t="s">
+        <v>153</v>
+      </c>
+      <c r="N179" t="s">
+        <v>162</v>
+      </c>
+      <c r="O179" t="s">
+        <v>154</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" t="s">
+        <v>295</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C180" t="s">
+        <v>296</v>
+      </c>
+      <c r="D180" t="s">
+        <v>297</v>
+      </c>
+      <c r="E180" t="s">
+        <v>298</v>
+      </c>
+      <c r="F180" t="s">
+        <v>85</v>
+      </c>
+      <c r="G180" t="s">
+        <v>299</v>
+      </c>
+      <c r="H180" t="s">
+        <v>300</v>
+      </c>
+      <c r="I180" t="s">
+        <v>301</v>
+      </c>
+      <c r="J180" t="s">
+        <v>302</v>
+      </c>
+      <c r="K180" t="s">
+        <v>303</v>
+      </c>
+      <c r="L180" t="s">
+        <v>304</v>
+      </c>
+      <c r="M180" t="s">
+        <v>428</v>
+      </c>
+      <c r="N180" t="s">
+        <v>306</v>
+      </c>
+      <c r="O180" t="s">
+        <v>307</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C181" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" t="s">
+        <v>180</v>
+      </c>
+      <c r="F181" t="s">
+        <v>181</v>
+      </c>
+      <c r="G181" t="s">
+        <v>182</v>
+      </c>
+      <c r="H181" t="s">
+        <v>183</v>
+      </c>
+      <c r="I181" t="s">
+        <v>184</v>
+      </c>
+      <c r="J181" t="s">
+        <v>185</v>
+      </c>
+      <c r="K181" t="s">
+        <v>186</v>
+      </c>
+      <c r="L181" t="s">
+        <v>187</v>
+      </c>
+      <c r="M181" t="s">
+        <v>188</v>
+      </c>
+      <c r="N181" t="s">
+        <v>439</v>
+      </c>
+      <c r="O181" t="s">
+        <v>190</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C182" t="s">
+        <v>164</v>
+      </c>
+      <c r="D182" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" t="s">
+        <v>166</v>
+      </c>
+      <c r="F182" t="s">
+        <v>167</v>
+      </c>
+      <c r="G182" t="s">
+        <v>168</v>
+      </c>
+      <c r="H182" t="s">
+        <v>169</v>
+      </c>
+      <c r="I182" t="s">
+        <v>170</v>
+      </c>
+      <c r="J182" t="s">
+        <v>171</v>
+      </c>
+      <c r="K182" t="s">
+        <v>172</v>
+      </c>
+      <c r="L182" t="s">
+        <v>173</v>
+      </c>
+      <c r="M182" t="s">
+        <v>174</v>
+      </c>
+      <c r="N182" t="s">
+        <v>175</v>
+      </c>
+      <c r="O182" t="s">
+        <v>421</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" t="s">
+        <v>258</v>
+      </c>
+      <c r="B183" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C183" t="s">
+        <v>437</v>
+      </c>
+      <c r="D183" t="s">
+        <v>260</v>
+      </c>
+      <c r="E183" t="s">
+        <v>261</v>
+      </c>
+      <c r="F183" t="s">
+        <v>262</v>
+      </c>
+      <c r="G183" t="s">
+        <v>263</v>
+      </c>
+      <c r="H183" t="s">
+        <v>264</v>
+      </c>
+      <c r="I183" t="s">
+        <v>265</v>
+      </c>
+      <c r="J183" t="s">
+        <v>266</v>
+      </c>
+      <c r="K183" t="s">
+        <v>267</v>
+      </c>
+      <c r="L183" t="s">
+        <v>259</v>
+      </c>
+      <c r="M183" t="s">
+        <v>455</v>
+      </c>
+      <c r="N183" t="s">
+        <v>269</v>
+      </c>
+      <c r="O183" t="s">
+        <v>270</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C184" t="s">
+        <v>378</v>
+      </c>
+      <c r="D184" t="s">
+        <v>389</v>
+      </c>
+      <c r="E184" t="s">
+        <v>380</v>
+      </c>
+      <c r="F184" t="s">
+        <v>381</v>
+      </c>
+      <c r="G184" t="s">
+        <v>382</v>
+      </c>
+      <c r="H184" t="s">
+        <v>383</v>
+      </c>
+      <c r="I184" t="s">
+        <v>384</v>
+      </c>
+      <c r="J184" t="s">
+        <v>385</v>
+      </c>
+      <c r="K184" t="s">
+        <v>459</v>
+      </c>
+      <c r="L184" t="s">
+        <v>387</v>
+      </c>
+      <c r="M184" t="s">
+        <v>388</v>
+      </c>
+      <c r="N184" t="s">
+        <v>431</v>
+      </c>
+      <c r="O184" t="s">
+        <v>390</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="A185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C185" t="s">
+        <v>84</v>
+      </c>
+      <c r="D185" t="s">
+        <v>85</v>
+      </c>
+      <c r="E185" t="s">
+        <v>91</v>
+      </c>
+      <c r="F185" t="s">
+        <v>87</v>
+      </c>
+      <c r="G185" t="s">
+        <v>88</v>
+      </c>
+      <c r="H185" t="s">
+        <v>89</v>
+      </c>
+      <c r="I185" t="s">
+        <v>90</v>
+      </c>
+      <c r="J185" t="s">
+        <v>430</v>
+      </c>
+      <c r="K185" t="s">
+        <v>92</v>
+      </c>
+      <c r="L185" t="s">
+        <v>93</v>
+      </c>
+      <c r="M185" t="s">
+        <v>94</v>
+      </c>
+      <c r="N185" t="s">
+        <v>95</v>
+      </c>
+      <c r="O185" t="s">
+        <v>96</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="A186" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C186" t="s">
+        <v>365</v>
+      </c>
+      <c r="D186" t="s">
+        <v>366</v>
+      </c>
+      <c r="E186" t="s">
+        <v>367</v>
+      </c>
+      <c r="F186" t="s">
+        <v>368</v>
+      </c>
+      <c r="H186" t="s">
+        <v>370</v>
+      </c>
+      <c r="I186" t="s">
+        <v>371</v>
+      </c>
+      <c r="J186" t="s">
+        <v>372</v>
+      </c>
+      <c r="K186" t="s">
+        <v>373</v>
+      </c>
+      <c r="L186" t="s">
+        <v>374</v>
+      </c>
+      <c r="M186" t="s">
+        <v>375</v>
+      </c>
+      <c r="N186" t="s">
+        <v>376</v>
+      </c>
+      <c r="O186" t="s">
+        <v>377</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="A187" t="s">
+        <v>231</v>
+      </c>
+      <c r="B187" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C187" t="s">
+        <v>246</v>
+      </c>
+      <c r="D187" t="s">
+        <v>257</v>
+      </c>
+      <c r="E187" t="s">
+        <v>429</v>
+      </c>
+      <c r="F187" t="s">
+        <v>249</v>
+      </c>
+      <c r="G187" t="s">
+        <v>250</v>
+      </c>
+      <c r="H187" t="s">
+        <v>251</v>
+      </c>
+      <c r="I187" t="s">
+        <v>252</v>
+      </c>
+      <c r="K187" t="s">
+        <v>254</v>
+      </c>
+      <c r="L187" t="s">
+        <v>255</v>
+      </c>
+      <c r="M187" t="s">
+        <v>256</v>
+      </c>
+      <c r="N187" t="s">
+        <v>440</v>
+      </c>
+      <c r="O187" t="s">
+        <v>248</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="A188" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C188" t="s">
+        <v>47</v>
+      </c>
+      <c r="D188" t="s">
+        <v>48</v>
+      </c>
+      <c r="E188" t="s">
+        <v>49</v>
+      </c>
+      <c r="F188" t="s">
+        <v>457</v>
+      </c>
+      <c r="G188" t="s">
+        <v>51</v>
+      </c>
+      <c r="H188" t="s">
+        <v>52</v>
+      </c>
+      <c r="I188" t="s">
+        <v>53</v>
+      </c>
+      <c r="J188" t="s">
+        <v>54</v>
+      </c>
+      <c r="K188" t="s">
+        <v>55</v>
+      </c>
+      <c r="L188" t="s">
+        <v>56</v>
+      </c>
+      <c r="M188" t="s">
+        <v>57</v>
+      </c>
+      <c r="N188" t="s">
+        <v>58</v>
+      </c>
+      <c r="O188" t="s">
+        <v>59</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" t="s">
+        <v>205</v>
+      </c>
+      <c r="B189" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C189" t="s">
+        <v>212</v>
+      </c>
+      <c r="D189" t="s">
+        <v>207</v>
+      </c>
+      <c r="E189" t="s">
+        <v>208</v>
+      </c>
+      <c r="F189" t="s">
+        <v>209</v>
+      </c>
+      <c r="G189" t="s">
+        <v>210</v>
+      </c>
+      <c r="H189" t="s">
+        <v>211</v>
+      </c>
+      <c r="I189" t="s">
+        <v>206</v>
+      </c>
+      <c r="J189" t="s">
+        <v>213</v>
+      </c>
+      <c r="K189" t="s">
+        <v>214</v>
+      </c>
+      <c r="L189" t="s">
+        <v>215</v>
+      </c>
+      <c r="M189" t="s">
+        <v>216</v>
+      </c>
+      <c r="N189" t="s">
+        <v>217</v>
+      </c>
+      <c r="O189" t="s">
+        <v>445</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="A190" t="s">
+        <v>272</v>
+      </c>
+      <c r="B190" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C190" t="s">
+        <v>273</v>
+      </c>
+      <c r="D190" t="s">
+        <v>274</v>
+      </c>
+      <c r="E190" t="s">
+        <v>275</v>
+      </c>
+      <c r="F190" t="s">
+        <v>276</v>
+      </c>
+      <c r="G190" t="s">
+        <v>277</v>
+      </c>
+      <c r="H190" t="s">
+        <v>278</v>
+      </c>
+      <c r="I190" t="s">
+        <v>279</v>
+      </c>
+      <c r="J190" t="s">
+        <v>280</v>
+      </c>
+      <c r="K190" t="s">
+        <v>135</v>
+      </c>
+      <c r="L190" t="s">
+        <v>281</v>
+      </c>
+      <c r="M190" t="s">
+        <v>282</v>
+      </c>
+      <c r="N190" t="s">
+        <v>433</v>
+      </c>
+      <c r="O190" t="s">
+        <v>449</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C191" t="s">
+        <v>406</v>
+      </c>
+      <c r="D191" t="s">
+        <v>407</v>
+      </c>
+      <c r="E191" t="s">
+        <v>408</v>
+      </c>
+      <c r="F191" t="s">
+        <v>409</v>
+      </c>
+      <c r="G191" t="s">
+        <v>410</v>
+      </c>
+      <c r="H191" t="s">
+        <v>411</v>
+      </c>
+      <c r="I191" t="s">
+        <v>412</v>
+      </c>
+      <c r="J191" t="s">
+        <v>413</v>
+      </c>
+      <c r="K191" t="s">
+        <v>414</v>
+      </c>
+      <c r="L191" t="s">
+        <v>415</v>
+      </c>
+      <c r="M191" t="s">
+        <v>416</v>
+      </c>
+      <c r="N191" t="s">
+        <v>448</v>
+      </c>
+      <c r="O191" t="s">
+        <v>443</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="A192" t="s">
+        <v>177</v>
+      </c>
+      <c r="B192" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C192" t="s">
+        <v>191</v>
+      </c>
+      <c r="D192" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" t="s">
+        <v>193</v>
+      </c>
+      <c r="F192" t="s">
+        <v>194</v>
+      </c>
+      <c r="G192" t="s">
+        <v>195</v>
+      </c>
+      <c r="H192" t="s">
+        <v>196</v>
+      </c>
+      <c r="I192" t="s">
+        <v>197</v>
+      </c>
+      <c r="J192" t="s">
+        <v>419</v>
+      </c>
+      <c r="K192" t="s">
+        <v>458</v>
+      </c>
+      <c r="L192" t="s">
+        <v>200</v>
+      </c>
+      <c r="M192" t="s">
+        <v>201</v>
+      </c>
+      <c r="N192" t="s">
+        <v>202</v>
+      </c>
+      <c r="O192" t="s">
+        <v>203</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C193" t="s">
+        <v>447</v>
+      </c>
+      <c r="D193" t="s">
+        <v>220</v>
+      </c>
+      <c r="E193" t="s">
+        <v>221</v>
+      </c>
+      <c r="F193" t="s">
+        <v>222</v>
+      </c>
+      <c r="G193" t="s">
+        <v>223</v>
+      </c>
+      <c r="H193" t="s">
+        <v>224</v>
+      </c>
+      <c r="I193" t="s">
+        <v>225</v>
+      </c>
+      <c r="J193" t="s">
+        <v>226</v>
+      </c>
+      <c r="K193" t="s">
+        <v>227</v>
+      </c>
+      <c r="L193" t="s">
+        <v>460</v>
+      </c>
+      <c r="M193" t="s">
+        <v>228</v>
+      </c>
+      <c r="N193" t="s">
+        <v>229</v>
+      </c>
+      <c r="O193" t="s">
+        <v>230</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" t="s">
+        <v>294</v>
+      </c>
+      <c r="B194" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C194" t="s">
+        <v>308</v>
+      </c>
+      <c r="D194" t="s">
+        <v>309</v>
+      </c>
+      <c r="E194" t="s">
+        <v>310</v>
+      </c>
+      <c r="F194" t="s">
+        <v>311</v>
+      </c>
+      <c r="G194" t="s">
+        <v>312</v>
+      </c>
+      <c r="H194" t="s">
+        <v>313</v>
+      </c>
+      <c r="I194" t="s">
+        <v>314</v>
+      </c>
+      <c r="J194" t="s">
+        <v>315</v>
+      </c>
+      <c r="K194" t="s">
+        <v>316</v>
+      </c>
+      <c r="L194" t="s">
+        <v>317</v>
+      </c>
+      <c r="M194" t="s">
+        <v>318</v>
+      </c>
+      <c r="N194" t="s">
+        <v>441</v>
+      </c>
+      <c r="O194" t="s">
+        <v>320</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" t="s">
+        <v>321</v>
+      </c>
+      <c r="B195" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C195" t="s">
+        <v>336</v>
+      </c>
+      <c r="D195" t="s">
+        <v>337</v>
+      </c>
+      <c r="E195" t="s">
+        <v>338</v>
+      </c>
+      <c r="F195" t="s">
+        <v>339</v>
+      </c>
+      <c r="G195" t="s">
+        <v>340</v>
+      </c>
+      <c r="H195" t="s">
+        <v>341</v>
+      </c>
+      <c r="I195" t="s">
+        <v>342</v>
+      </c>
+      <c r="J195" t="s">
+        <v>344</v>
+      </c>
+      <c r="K195" t="s">
+        <v>345</v>
+      </c>
+      <c r="L195" t="s">
+        <v>343</v>
+      </c>
+      <c r="M195" t="s">
+        <v>346</v>
+      </c>
+      <c r="N195" t="s">
+        <v>438</v>
+      </c>
+      <c r="O195" t="s">
+        <v>347</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" t="s">
+        <v>348</v>
+      </c>
+      <c r="B196" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C196" t="s">
+        <v>350</v>
+      </c>
+      <c r="D196" t="s">
+        <v>351</v>
+      </c>
+      <c r="E196" t="s">
+        <v>352</v>
+      </c>
+      <c r="F196" t="s">
+        <v>353</v>
+      </c>
+      <c r="G196" t="s">
+        <v>354</v>
+      </c>
+      <c r="H196" t="s">
+        <v>355</v>
+      </c>
+      <c r="I196" t="s">
+        <v>356</v>
+      </c>
+      <c r="J196" t="s">
+        <v>357</v>
+      </c>
+      <c r="K196" t="s">
+        <v>358</v>
+      </c>
+      <c r="L196" t="s">
+        <v>359</v>
+      </c>
+      <c r="M196" t="s">
+        <v>360</v>
+      </c>
+      <c r="N196" t="s">
+        <v>361</v>
+      </c>
+      <c r="O196" t="s">
+        <v>461</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="1">
+        <v>42316</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" t="s">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>23</v>
+      </c>
+      <c r="H197" t="s">
+        <v>24</v>
+      </c>
+      <c r="I197" t="s">
+        <v>25</v>
+      </c>
+      <c r="J197" t="s">
+        <v>26</v>
+      </c>
+      <c r="K197" t="s">
+        <v>42</v>
+      </c>
+      <c r="L197" t="s">
+        <v>39</v>
+      </c>
+      <c r="M197" t="s">
+        <v>40</v>
+      </c>
+      <c r="N197" t="s">
+        <v>41</v>
+      </c>
+      <c r="O197" t="s">
+        <v>176</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C198" t="s">
+        <v>206</v>
+      </c>
+      <c r="D198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E198" t="s">
+        <v>208</v>
+      </c>
+      <c r="F198" t="s">
+        <v>209</v>
+      </c>
+      <c r="G198" t="s">
+        <v>210</v>
+      </c>
+      <c r="H198" t="s">
+        <v>211</v>
+      </c>
+      <c r="I198" t="s">
+        <v>212</v>
+      </c>
+      <c r="J198" t="s">
+        <v>213</v>
+      </c>
+      <c r="K198" t="s">
+        <v>214</v>
+      </c>
+      <c r="L198" t="s">
+        <v>215</v>
+      </c>
+      <c r="M198" t="s">
+        <v>216</v>
+      </c>
+      <c r="N198" t="s">
+        <v>217</v>
+      </c>
+      <c r="O198" t="s">
+        <v>445</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="A199" t="s">
+        <v>97</v>
+      </c>
+      <c r="B199" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C199" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" t="s">
+        <v>113</v>
+      </c>
+      <c r="E199" t="s">
+        <v>456</v>
+      </c>
+      <c r="F199" t="s">
+        <v>115</v>
+      </c>
+      <c r="G199" t="s">
+        <v>116</v>
+      </c>
+      <c r="H199" t="s">
+        <v>117</v>
+      </c>
+      <c r="I199" t="s">
+        <v>118</v>
+      </c>
+      <c r="J199" t="s">
+        <v>119</v>
+      </c>
+      <c r="K199" t="s">
+        <v>120</v>
+      </c>
+      <c r="L199" t="s">
+        <v>50</v>
+      </c>
+      <c r="M199" t="s">
+        <v>121</v>
+      </c>
+      <c r="N199" t="s">
+        <v>122</v>
+      </c>
+      <c r="O199" t="s">
+        <v>123</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" t="s">
+        <v>125</v>
+      </c>
+      <c r="B200" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C200" t="s">
+        <v>135</v>
+      </c>
+      <c r="E200" t="s">
+        <v>131</v>
+      </c>
+      <c r="F200" t="s">
+        <v>139</v>
+      </c>
+      <c r="G200" t="s">
+        <v>133</v>
+      </c>
+      <c r="H200" t="s">
+        <v>129</v>
+      </c>
+      <c r="I200" t="s">
+        <v>452</v>
+      </c>
+      <c r="J200" t="s">
+        <v>134</v>
+      </c>
+      <c r="K200" t="s">
+        <v>137</v>
+      </c>
+      <c r="L200" t="s">
+        <v>132</v>
+      </c>
+      <c r="M200" t="s">
+        <v>136</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
+      <c r="A201" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C201" t="s">
+        <v>60</v>
+      </c>
+      <c r="D201" t="s">
+        <v>61</v>
+      </c>
+      <c r="E201" t="s">
+        <v>62</v>
+      </c>
+      <c r="F201" t="s">
+        <v>63</v>
+      </c>
+      <c r="G201" t="s">
+        <v>64</v>
+      </c>
+      <c r="H201" t="s">
+        <v>65</v>
+      </c>
+      <c r="I201" t="s">
+        <v>66</v>
+      </c>
+      <c r="J201" t="s">
+        <v>67</v>
+      </c>
+      <c r="K201" t="s">
+        <v>68</v>
+      </c>
+      <c r="L201" t="s">
+        <v>69</v>
+      </c>
+      <c r="M201" t="s">
+        <v>70</v>
+      </c>
+      <c r="N201" t="s">
+        <v>424</v>
+      </c>
+      <c r="O201" t="s">
+        <v>72</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F202" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s">
+        <v>32</v>
+      </c>
+      <c r="H202" t="s">
+        <v>34</v>
+      </c>
+      <c r="I202" t="s">
+        <v>33</v>
+      </c>
+      <c r="J202" t="s">
+        <v>35</v>
+      </c>
+      <c r="K202" t="s">
+        <v>36</v>
+      </c>
+      <c r="L202" t="s">
+        <v>37</v>
+      </c>
+      <c r="M202" t="s">
+        <v>38</v>
+      </c>
+      <c r="N202" t="s">
+        <v>43</v>
+      </c>
+      <c r="O202" t="s">
+        <v>44</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
+      <c r="A203" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C203" t="s">
+        <v>393</v>
+      </c>
+      <c r="D203" t="s">
+        <v>394</v>
+      </c>
+      <c r="E203" t="s">
+        <v>395</v>
+      </c>
+      <c r="F203" t="s">
+        <v>396</v>
+      </c>
+      <c r="G203" t="s">
+        <v>397</v>
+      </c>
+      <c r="H203" t="s">
+        <v>398</v>
+      </c>
+      <c r="I203" t="s">
+        <v>399</v>
+      </c>
+      <c r="J203" t="s">
+        <v>400</v>
+      </c>
+      <c r="K203" t="s">
+        <v>401</v>
+      </c>
+      <c r="L203" t="s">
+        <v>402</v>
+      </c>
+      <c r="M203" t="s">
+        <v>403</v>
+      </c>
+      <c r="N203" t="s">
+        <v>404</v>
+      </c>
+      <c r="O203" t="s">
+        <v>405</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
+      <c r="A204" t="s">
+        <v>232</v>
+      </c>
+      <c r="B204" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C204" t="s">
+        <v>233</v>
+      </c>
+      <c r="D204" t="s">
+        <v>234</v>
+      </c>
+      <c r="E204" t="s">
+        <v>245</v>
+      </c>
+      <c r="F204" t="s">
+        <v>236</v>
+      </c>
+      <c r="G204" t="s">
+        <v>237</v>
+      </c>
+      <c r="H204" t="s">
+        <v>242</v>
+      </c>
+      <c r="I204" t="s">
+        <v>239</v>
+      </c>
+      <c r="J204" t="s">
+        <v>240</v>
+      </c>
+      <c r="K204" t="s">
+        <v>241</v>
+      </c>
+      <c r="L204" t="s">
+        <v>454</v>
+      </c>
+      <c r="M204" t="s">
+        <v>243</v>
+      </c>
+      <c r="O204" t="s">
+        <v>235</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
+      <c r="A205" t="s">
+        <v>348</v>
+      </c>
+      <c r="B205" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C205" t="s">
+        <v>350</v>
+      </c>
+      <c r="D205" t="s">
+        <v>351</v>
+      </c>
+      <c r="E205" t="s">
+        <v>352</v>
+      </c>
+      <c r="F205" t="s">
+        <v>353</v>
+      </c>
+      <c r="G205" t="s">
+        <v>354</v>
+      </c>
+      <c r="H205" t="s">
+        <v>355</v>
+      </c>
+      <c r="I205" t="s">
+        <v>356</v>
+      </c>
+      <c r="J205" t="s">
+        <v>357</v>
+      </c>
+      <c r="K205" t="s">
+        <v>358</v>
+      </c>
+      <c r="L205" t="s">
+        <v>359</v>
+      </c>
+      <c r="M205" t="s">
+        <v>360</v>
+      </c>
+      <c r="N205" t="s">
+        <v>361</v>
+      </c>
+      <c r="O205" t="s">
+        <v>461</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="A206" t="s">
+        <v>363</v>
+      </c>
+      <c r="B206" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C206" t="s">
+        <v>378</v>
+      </c>
+      <c r="D206" t="s">
+        <v>389</v>
+      </c>
+      <c r="E206" t="s">
+        <v>380</v>
+      </c>
+      <c r="F206" t="s">
+        <v>381</v>
+      </c>
+      <c r="G206" t="s">
+        <v>382</v>
+      </c>
+      <c r="H206" t="s">
+        <v>383</v>
+      </c>
+      <c r="I206" t="s">
+        <v>384</v>
+      </c>
+      <c r="J206" t="s">
+        <v>385</v>
+      </c>
+      <c r="K206" t="s">
+        <v>459</v>
+      </c>
+      <c r="L206" t="s">
+        <v>387</v>
+      </c>
+      <c r="M206" t="s">
+        <v>388</v>
+      </c>
+      <c r="N206" t="s">
+        <v>431</v>
+      </c>
+      <c r="O206" t="s">
+        <v>379</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
+      <c r="A207" t="s">
+        <v>295</v>
+      </c>
+      <c r="B207" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C207" t="s">
+        <v>296</v>
+      </c>
+      <c r="D207" t="s">
+        <v>297</v>
+      </c>
+      <c r="E207" t="s">
+        <v>298</v>
+      </c>
+      <c r="F207" t="s">
+        <v>85</v>
+      </c>
+      <c r="G207" t="s">
+        <v>299</v>
+      </c>
+      <c r="H207" t="s">
+        <v>300</v>
+      </c>
+      <c r="I207" t="s">
+        <v>301</v>
+      </c>
+      <c r="J207" t="s">
+        <v>302</v>
+      </c>
+      <c r="K207" t="s">
+        <v>303</v>
+      </c>
+      <c r="L207" t="s">
+        <v>304</v>
+      </c>
+      <c r="M207" t="s">
+        <v>428</v>
+      </c>
+      <c r="N207" t="s">
+        <v>306</v>
+      </c>
+      <c r="O207" t="s">
+        <v>307</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
+      <c r="A208" t="s">
+        <v>73</v>
+      </c>
+      <c r="B208" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C208" t="s">
+        <v>84</v>
+      </c>
+      <c r="D208" t="s">
+        <v>85</v>
+      </c>
+      <c r="E208" t="s">
+        <v>91</v>
+      </c>
+      <c r="F208" t="s">
+        <v>87</v>
+      </c>
+      <c r="G208" t="s">
+        <v>88</v>
+      </c>
+      <c r="H208" t="s">
+        <v>89</v>
+      </c>
+      <c r="I208" t="s">
+        <v>90</v>
+      </c>
+      <c r="J208" t="s">
+        <v>86</v>
+      </c>
+      <c r="K208" t="s">
+        <v>92</v>
+      </c>
+      <c r="L208" t="s">
+        <v>93</v>
+      </c>
+      <c r="M208" t="s">
+        <v>94</v>
+      </c>
+      <c r="N208" t="s">
+        <v>95</v>
+      </c>
+      <c r="O208" t="s">
+        <v>96</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
+      <c r="A209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>23</v>
+      </c>
+      <c r="H209" t="s">
+        <v>24</v>
+      </c>
+      <c r="I209" t="s">
+        <v>25</v>
+      </c>
+      <c r="J209" t="s">
+        <v>26</v>
+      </c>
+      <c r="K209" t="s">
+        <v>42</v>
+      </c>
+      <c r="L209" t="s">
+        <v>39</v>
+      </c>
+      <c r="M209" t="s">
+        <v>40</v>
+      </c>
+      <c r="N209" t="s">
+        <v>41</v>
+      </c>
+      <c r="O209" t="s">
+        <v>176</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="A210" t="s">
+        <v>364</v>
+      </c>
+      <c r="B210" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C210" t="s">
+        <v>365</v>
+      </c>
+      <c r="D210" t="s">
+        <v>366</v>
+      </c>
+      <c r="E210" t="s">
+        <v>367</v>
+      </c>
+      <c r="F210" t="s">
+        <v>368</v>
+      </c>
+      <c r="G210" t="s">
+        <v>369</v>
+      </c>
+      <c r="H210" t="s">
+        <v>370</v>
+      </c>
+      <c r="I210" t="s">
+        <v>371</v>
+      </c>
+      <c r="J210" t="s">
+        <v>372</v>
+      </c>
+      <c r="K210" t="s">
+        <v>373</v>
+      </c>
+      <c r="L210" t="s">
+        <v>374</v>
+      </c>
+      <c r="M210" t="s">
+        <v>375</v>
+      </c>
+      <c r="N210" t="s">
+        <v>376</v>
+      </c>
+      <c r="O210" t="s">
+        <v>377</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
+      <c r="A211" t="s">
+        <v>258</v>
+      </c>
+      <c r="B211" s="1">
+        <v>42317</v>
+      </c>
+      <c r="C211" t="s">
+        <v>437</v>
+      </c>
+      <c r="D211" t="s">
+        <v>260</v>
+      </c>
+      <c r="E211" t="s">
+        <v>261</v>
+      </c>
+      <c r="F211" t="s">
+        <v>262</v>
+      </c>
+      <c r="G211" t="s">
+        <v>263</v>
+      </c>
+      <c r="H211" t="s">
+        <v>264</v>
+      </c>
+      <c r="I211" t="s">
+        <v>265</v>
+      </c>
+      <c r="J211" t="s">
+        <v>266</v>
+      </c>
+      <c r="K211" t="s">
+        <v>267</v>
+      </c>
+      <c r="L211" t="s">
+        <v>259</v>
+      </c>
+      <c r="M211" t="s">
+        <v>455</v>
+      </c>
+      <c r="N211" t="s">
+        <v>269</v>
+      </c>
+      <c r="O211" t="s">
+        <v>270</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="A212" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C212" t="s">
+        <v>47</v>
+      </c>
+      <c r="D212" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" t="s">
+        <v>49</v>
+      </c>
+      <c r="F212" t="s">
+        <v>457</v>
+      </c>
+      <c r="G212" t="s">
+        <v>51</v>
+      </c>
+      <c r="H212" t="s">
+        <v>52</v>
+      </c>
+      <c r="I212" t="s">
+        <v>53</v>
+      </c>
+      <c r="J212" t="s">
+        <v>54</v>
+      </c>
+      <c r="K212" t="s">
+        <v>55</v>
+      </c>
+      <c r="L212" t="s">
+        <v>56</v>
+      </c>
+      <c r="M212" t="s">
+        <v>57</v>
+      </c>
+      <c r="N212" t="s">
+        <v>58</v>
+      </c>
+      <c r="O212" t="s">
+        <v>59</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="A213" t="s">
+        <v>163</v>
+      </c>
+      <c r="B213" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C213" t="s">
+        <v>164</v>
+      </c>
+      <c r="D213" t="s">
+        <v>165</v>
+      </c>
+      <c r="E213" t="s">
+        <v>166</v>
+      </c>
+      <c r="F213" t="s">
+        <v>167</v>
+      </c>
+      <c r="G213" t="s">
+        <v>168</v>
+      </c>
+      <c r="H213" t="s">
+        <v>169</v>
+      </c>
+      <c r="I213" t="s">
+        <v>170</v>
+      </c>
+      <c r="J213" t="s">
+        <v>171</v>
+      </c>
+      <c r="K213" t="s">
+        <v>172</v>
+      </c>
+      <c r="L213" t="s">
+        <v>173</v>
+      </c>
+      <c r="M213" t="s">
+        <v>174</v>
+      </c>
+      <c r="N213" t="s">
+        <v>175</v>
+      </c>
+      <c r="O213" t="s">
+        <v>421</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="A214" t="s">
+        <v>98</v>
+      </c>
+      <c r="B214" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C214" t="s">
+        <v>99</v>
+      </c>
+      <c r="D214" t="s">
+        <v>100</v>
+      </c>
+      <c r="E214" t="s">
+        <v>101</v>
+      </c>
+      <c r="G214" t="s">
+        <v>103</v>
+      </c>
+      <c r="H214" t="s">
+        <v>104</v>
+      </c>
+      <c r="I214" t="s">
+        <v>105</v>
+      </c>
+      <c r="K214" t="s">
+        <v>107</v>
+      </c>
+      <c r="L214" t="s">
+        <v>108</v>
+      </c>
+      <c r="M214" t="s">
+        <v>109</v>
+      </c>
+      <c r="N214" t="s">
+        <v>110</v>
+      </c>
+      <c r="O214" t="s">
+        <v>111</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
+      <c r="A215" t="s">
+        <v>294</v>
+      </c>
+      <c r="B215" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C215" t="s">
+        <v>308</v>
+      </c>
+      <c r="D215" t="s">
+        <v>309</v>
+      </c>
+      <c r="E215" t="s">
+        <v>310</v>
+      </c>
+      <c r="F215" t="s">
+        <v>311</v>
+      </c>
+      <c r="G215" t="s">
+        <v>312</v>
+      </c>
+      <c r="H215" t="s">
+        <v>313</v>
+      </c>
+      <c r="I215" t="s">
+        <v>314</v>
+      </c>
+      <c r="J215" t="s">
+        <v>315</v>
+      </c>
+      <c r="K215" t="s">
+        <v>316</v>
+      </c>
+      <c r="L215" t="s">
+        <v>317</v>
+      </c>
+      <c r="M215" t="s">
+        <v>318</v>
+      </c>
+      <c r="N215" t="s">
+        <v>441</v>
+      </c>
+      <c r="O215" t="s">
+        <v>320</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
+      <c r="A216" t="s">
+        <v>177</v>
+      </c>
+      <c r="B216" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C216" t="s">
+        <v>191</v>
+      </c>
+      <c r="D216" t="s">
+        <v>192</v>
+      </c>
+      <c r="E216" t="s">
+        <v>193</v>
+      </c>
+      <c r="F216" t="s">
+        <v>194</v>
+      </c>
+      <c r="G216" t="s">
+        <v>195</v>
+      </c>
+      <c r="H216" t="s">
+        <v>196</v>
+      </c>
+      <c r="I216" t="s">
+        <v>197</v>
+      </c>
+      <c r="J216" t="s">
+        <v>419</v>
+      </c>
+      <c r="K216" t="s">
+        <v>458</v>
+      </c>
+      <c r="L216" t="s">
+        <v>200</v>
+      </c>
+      <c r="M216" t="s">
+        <v>201</v>
+      </c>
+      <c r="N216" t="s">
+        <v>202</v>
+      </c>
+      <c r="O216" t="s">
+        <v>203</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
+      <c r="A217" t="s">
+        <v>391</v>
+      </c>
+      <c r="B217" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C217" t="s">
+        <v>462</v>
+      </c>
+      <c r="D217" t="s">
+        <v>407</v>
+      </c>
+      <c r="E217" t="s">
+        <v>408</v>
+      </c>
+      <c r="F217" t="s">
+        <v>409</v>
+      </c>
+      <c r="G217" t="s">
+        <v>410</v>
+      </c>
+      <c r="H217" t="s">
+        <v>411</v>
+      </c>
+      <c r="I217" t="s">
+        <v>412</v>
+      </c>
+      <c r="J217" t="s">
+        <v>413</v>
+      </c>
+      <c r="K217" t="s">
+        <v>414</v>
+      </c>
+      <c r="L217" t="s">
+        <v>415</v>
+      </c>
+      <c r="M217" t="s">
+        <v>416</v>
+      </c>
+      <c r="N217" t="s">
+        <v>448</v>
+      </c>
+      <c r="O217" t="s">
+        <v>443</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="A218" t="s">
+        <v>204</v>
+      </c>
+      <c r="B218" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C218" t="s">
+        <v>447</v>
+      </c>
+      <c r="D218" t="s">
+        <v>220</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+      <c r="F218" t="s">
+        <v>222</v>
+      </c>
+      <c r="G218" t="s">
+        <v>223</v>
+      </c>
+      <c r="H218" t="s">
+        <v>224</v>
+      </c>
+      <c r="I218" t="s">
+        <v>225</v>
+      </c>
+      <c r="J218" t="s">
+        <v>463</v>
+      </c>
+      <c r="K218" t="s">
+        <v>227</v>
+      </c>
+      <c r="L218" t="s">
+        <v>460</v>
+      </c>
+      <c r="M218" t="s">
+        <v>228</v>
+      </c>
+      <c r="N218" t="s">
+        <v>229</v>
+      </c>
+      <c r="O218" t="s">
+        <v>230</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="A219" t="s">
+        <v>272</v>
+      </c>
+      <c r="B219" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C219" t="s">
+        <v>273</v>
+      </c>
+      <c r="D219" t="s">
+        <v>274</v>
+      </c>
+      <c r="E219" t="s">
+        <v>275</v>
+      </c>
+      <c r="F219" t="s">
+        <v>276</v>
+      </c>
+      <c r="G219" t="s">
+        <v>277</v>
+      </c>
+      <c r="H219" t="s">
+        <v>278</v>
+      </c>
+      <c r="I219" t="s">
+        <v>279</v>
+      </c>
+      <c r="J219" t="s">
+        <v>280</v>
+      </c>
+      <c r="K219" t="s">
+        <v>135</v>
+      </c>
+      <c r="L219" t="s">
+        <v>281</v>
+      </c>
+      <c r="M219" t="s">
+        <v>282</v>
+      </c>
+      <c r="N219" t="s">
+        <v>433</v>
+      </c>
+      <c r="O219" t="s">
+        <v>449</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="A220" t="s">
+        <v>271</v>
+      </c>
+      <c r="B220" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C220" t="s">
+        <v>283</v>
+      </c>
+      <c r="D220" t="s">
+        <v>427</v>
+      </c>
+      <c r="E220" t="s">
+        <v>285</v>
+      </c>
+      <c r="F220" t="s">
+        <v>450</v>
+      </c>
+      <c r="G220" t="s">
+        <v>286</v>
+      </c>
+      <c r="H220" t="s">
+        <v>288</v>
+      </c>
+      <c r="I220" t="s">
+        <v>290</v>
+      </c>
+      <c r="J220" t="s">
+        <v>289</v>
+      </c>
+      <c r="K220" t="s">
+        <v>291</v>
+      </c>
+      <c r="L220" t="s">
+        <v>292</v>
+      </c>
+      <c r="M220" t="s">
+        <v>293</v>
+      </c>
+      <c r="N220" t="s">
+        <v>284</v>
+      </c>
+      <c r="O220" t="s">
+        <v>451</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="A221" t="s">
+        <v>124</v>
+      </c>
+      <c r="B221" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C221" t="s">
+        <v>126</v>
+      </c>
+      <c r="D221" t="s">
+        <v>127</v>
+      </c>
+      <c r="E221" t="s">
+        <v>128</v>
+      </c>
+      <c r="F221" t="s">
+        <v>140</v>
+      </c>
+      <c r="G221" t="s">
+        <v>215</v>
+      </c>
+      <c r="H221" t="s">
+        <v>142</v>
+      </c>
+      <c r="I221" t="s">
+        <v>143</v>
+      </c>
+      <c r="J221" t="s">
+        <v>144</v>
+      </c>
+      <c r="K221" t="s">
+        <v>145</v>
+      </c>
+      <c r="L221" t="s">
+        <v>146</v>
+      </c>
+      <c r="M221" t="s">
+        <v>147</v>
+      </c>
+      <c r="N221" t="s">
+        <v>423</v>
+      </c>
+      <c r="O221" t="s">
+        <v>422</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
+      <c r="A222" t="s">
+        <v>392</v>
+      </c>
+      <c r="B222" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C222" t="s">
+        <v>393</v>
+      </c>
+      <c r="E222" t="s">
+        <v>395</v>
+      </c>
+      <c r="F222" t="s">
+        <v>247</v>
+      </c>
+      <c r="H222" t="s">
+        <v>398</v>
+      </c>
+      <c r="I222" t="s">
+        <v>399</v>
+      </c>
+      <c r="J222" t="s">
+        <v>400</v>
+      </c>
+      <c r="K222" t="s">
+        <v>401</v>
+      </c>
+      <c r="L222" t="s">
+        <v>402</v>
+      </c>
+      <c r="M222" t="s">
+        <v>403</v>
+      </c>
+      <c r="N222" t="s">
+        <v>404</v>
+      </c>
+      <c r="O222" t="s">
+        <v>405</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="A223" t="s">
+        <v>178</v>
+      </c>
+      <c r="B223" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C223" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" t="s">
+        <v>180</v>
+      </c>
+      <c r="F223" t="s">
+        <v>181</v>
+      </c>
+      <c r="G223" t="s">
+        <v>182</v>
+      </c>
+      <c r="H223" t="s">
+        <v>183</v>
+      </c>
+      <c r="I223" t="s">
+        <v>184</v>
+      </c>
+      <c r="J223" t="s">
+        <v>185</v>
+      </c>
+      <c r="K223" t="s">
+        <v>186</v>
+      </c>
+      <c r="L223" t="s">
+        <v>187</v>
+      </c>
+      <c r="M223" t="s">
+        <v>188</v>
+      </c>
+      <c r="N223" t="s">
+        <v>439</v>
+      </c>
+      <c r="O223" t="s">
+        <v>190</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C224" t="s">
+        <v>75</v>
+      </c>
+      <c r="D224" t="s">
+        <v>76</v>
+      </c>
+      <c r="E224" t="s">
+        <v>435</v>
+      </c>
+      <c r="F224" t="s">
+        <v>78</v>
+      </c>
+      <c r="G224" t="s">
+        <v>349</v>
+      </c>
+      <c r="H224" t="s">
+        <v>80</v>
+      </c>
+      <c r="I224" t="s">
+        <v>81</v>
+      </c>
+      <c r="J224" t="s">
+        <v>82</v>
+      </c>
+      <c r="K224" t="s">
+        <v>83</v>
+      </c>
+      <c r="L224" t="s">
+        <v>464</v>
+      </c>
+      <c r="M224" t="s">
+        <v>434</v>
+      </c>
+      <c r="O224" t="s">
+        <v>436</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
+      <c r="A225" t="s">
+        <v>322</v>
+      </c>
+      <c r="B225" s="1">
+        <v>42318</v>
+      </c>
+      <c r="C225" t="s">
+        <v>323</v>
+      </c>
+      <c r="D225" t="s">
+        <v>324</v>
+      </c>
+      <c r="E225" t="s">
+        <v>325</v>
+      </c>
+      <c r="F225" t="s">
+        <v>327</v>
+      </c>
+      <c r="G225" t="s">
+        <v>442</v>
+      </c>
+      <c r="H225" t="s">
+        <v>328</v>
+      </c>
+      <c r="I225" t="s">
+        <v>329</v>
+      </c>
+      <c r="J225" t="s">
+        <v>330</v>
+      </c>
+      <c r="K225" t="s">
+        <v>331</v>
+      </c>
+      <c r="L225" t="s">
+        <v>332</v>
+      </c>
+      <c r="M225" t="s">
+        <v>334</v>
+      </c>
+      <c r="N225" t="s">
+        <v>326</v>
+      </c>
+      <c r="O225" t="s">
+        <v>335</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
+      <c r="A226" t="s">
+        <v>178</v>
+      </c>
+      <c r="B226" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C226" t="s">
+        <v>179</v>
+      </c>
+      <c r="D226" t="s">
+        <v>51</v>
+      </c>
+      <c r="E226" t="s">
+        <v>180</v>
+      </c>
+      <c r="F226" t="s">
+        <v>181</v>
+      </c>
+      <c r="G226" t="s">
+        <v>182</v>
+      </c>
+      <c r="H226" t="s">
+        <v>183</v>
+      </c>
+      <c r="I226" t="s">
+        <v>184</v>
+      </c>
+      <c r="J226" t="s">
+        <v>185</v>
+      </c>
+      <c r="K226" t="s">
+        <v>186</v>
+      </c>
+      <c r="L226" t="s">
+        <v>187</v>
+      </c>
+      <c r="M226" t="s">
+        <v>188</v>
+      </c>
+      <c r="N226" t="s">
+        <v>439</v>
+      </c>
+      <c r="O226" t="s">
+        <v>190</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
+      <c r="A227" t="s">
+        <v>272</v>
+      </c>
+      <c r="B227" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C227" t="s">
+        <v>273</v>
+      </c>
+      <c r="D227" t="s">
+        <v>274</v>
+      </c>
+      <c r="E227" t="s">
+        <v>275</v>
+      </c>
+      <c r="F227" t="s">
+        <v>465</v>
+      </c>
+      <c r="G227" t="s">
+        <v>277</v>
+      </c>
+      <c r="H227" t="s">
+        <v>278</v>
+      </c>
+      <c r="I227" t="s">
+        <v>279</v>
+      </c>
+      <c r="J227" t="s">
+        <v>280</v>
+      </c>
+      <c r="K227" t="s">
+        <v>135</v>
+      </c>
+      <c r="L227" t="s">
+        <v>281</v>
+      </c>
+      <c r="M227" t="s">
+        <v>276</v>
+      </c>
+      <c r="N227" t="s">
+        <v>433</v>
+      </c>
+      <c r="O227" t="s">
+        <v>449</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
+      <c r="A228" t="s">
+        <v>97</v>
+      </c>
+      <c r="B228" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C228" t="s">
+        <v>112</v>
+      </c>
+      <c r="D228" t="s">
+        <v>113</v>
+      </c>
+      <c r="E228" t="s">
+        <v>456</v>
+      </c>
+      <c r="F228" t="s">
+        <v>115</v>
+      </c>
+      <c r="G228" t="s">
+        <v>116</v>
+      </c>
+      <c r="H228" t="s">
+        <v>117</v>
+      </c>
+      <c r="J228" t="s">
+        <v>119</v>
+      </c>
+      <c r="K228" t="s">
+        <v>120</v>
+      </c>
+      <c r="L228" t="s">
+        <v>114</v>
+      </c>
+      <c r="M228" t="s">
+        <v>121</v>
+      </c>
+      <c r="N228" t="s">
+        <v>122</v>
+      </c>
+      <c r="O228" t="s">
+        <v>123</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
+      <c r="A229" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C229" t="s">
+        <v>462</v>
+      </c>
+      <c r="D229" t="s">
+        <v>407</v>
+      </c>
+      <c r="E229" t="s">
+        <v>408</v>
+      </c>
+      <c r="F229" t="s">
+        <v>409</v>
+      </c>
+      <c r="G229" t="s">
+        <v>410</v>
+      </c>
+      <c r="H229" t="s">
+        <v>411</v>
+      </c>
+      <c r="I229" t="s">
+        <v>412</v>
+      </c>
+      <c r="J229" t="s">
+        <v>413</v>
+      </c>
+      <c r="K229" t="s">
+        <v>414</v>
+      </c>
+      <c r="L229" t="s">
+        <v>415</v>
+      </c>
+      <c r="M229" t="s">
+        <v>416</v>
+      </c>
+      <c r="N229" t="s">
+        <v>448</v>
+      </c>
+      <c r="O229" t="s">
+        <v>443</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="A230" t="s">
+        <v>125</v>
+      </c>
+      <c r="B230" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C230" t="s">
+        <v>135</v>
+      </c>
+      <c r="E230" t="s">
+        <v>131</v>
+      </c>
+      <c r="F230" t="s">
+        <v>139</v>
+      </c>
+      <c r="G230" t="s">
+        <v>133</v>
+      </c>
+      <c r="H230" t="s">
+        <v>129</v>
+      </c>
+      <c r="I230" t="s">
+        <v>452</v>
+      </c>
+      <c r="J230" t="s">
+        <v>134</v>
+      </c>
+      <c r="L230" t="s">
+        <v>132</v>
+      </c>
+      <c r="M230" t="s">
+        <v>136</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
+      <c r="A231" t="s">
+        <v>204</v>
+      </c>
+      <c r="B231" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C231" t="s">
+        <v>447</v>
+      </c>
+      <c r="D231" t="s">
+        <v>220</v>
+      </c>
+      <c r="E231" t="s">
+        <v>221</v>
+      </c>
+      <c r="F231" t="s">
+        <v>222</v>
+      </c>
+      <c r="G231" t="s">
+        <v>223</v>
+      </c>
+      <c r="H231" t="s">
+        <v>224</v>
+      </c>
+      <c r="I231" t="s">
+        <v>225</v>
+      </c>
+      <c r="J231" t="s">
+        <v>463</v>
+      </c>
+      <c r="K231" t="s">
+        <v>227</v>
+      </c>
+      <c r="L231" t="s">
+        <v>460</v>
+      </c>
+      <c r="M231" t="s">
+        <v>228</v>
+      </c>
+      <c r="N231" t="s">
+        <v>229</v>
+      </c>
+      <c r="O231" t="s">
+        <v>230</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="A232" t="s">
+        <v>124</v>
+      </c>
+      <c r="B232" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C232" t="s">
+        <v>126</v>
+      </c>
+      <c r="D232" t="s">
+        <v>127</v>
+      </c>
+      <c r="E232" t="s">
+        <v>128</v>
+      </c>
+      <c r="F232" t="s">
+        <v>141</v>
+      </c>
+      <c r="G232" t="s">
+        <v>215</v>
+      </c>
+      <c r="H232" t="s">
+        <v>142</v>
+      </c>
+      <c r="I232" t="s">
+        <v>143</v>
+      </c>
+      <c r="J232" t="s">
+        <v>144</v>
+      </c>
+      <c r="K232" t="s">
+        <v>145</v>
+      </c>
+      <c r="L232" t="s">
+        <v>146</v>
+      </c>
+      <c r="M232" t="s">
+        <v>147</v>
+      </c>
+      <c r="N232" t="s">
+        <v>423</v>
+      </c>
+      <c r="O232" t="s">
+        <v>422</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
+      <c r="A233" t="s">
+        <v>205</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C233" t="s">
+        <v>206</v>
+      </c>
+      <c r="D233" t="s">
+        <v>207</v>
+      </c>
+      <c r="E233" t="s">
+        <v>208</v>
+      </c>
+      <c r="F233" t="s">
+        <v>209</v>
+      </c>
+      <c r="G233" t="s">
+        <v>210</v>
+      </c>
+      <c r="I233" t="s">
+        <v>212</v>
+      </c>
+      <c r="J233" t="s">
+        <v>213</v>
+      </c>
+      <c r="K233" t="s">
+        <v>214</v>
+      </c>
+      <c r="L233" t="s">
+        <v>215</v>
+      </c>
+      <c r="M233" t="s">
+        <v>216</v>
+      </c>
+      <c r="N233" t="s">
+        <v>217</v>
+      </c>
+      <c r="O233" t="s">
+        <v>445</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>29</v>
+      </c>
+      <c r="E234" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234" t="s">
+        <v>31</v>
+      </c>
+      <c r="G234" t="s">
+        <v>32</v>
+      </c>
+      <c r="H234" t="s">
+        <v>34</v>
+      </c>
+      <c r="I234" t="s">
+        <v>33</v>
+      </c>
+      <c r="J234" t="s">
+        <v>35</v>
+      </c>
+      <c r="K234" t="s">
+        <v>36</v>
+      </c>
+      <c r="L234" t="s">
+        <v>37</v>
+      </c>
+      <c r="M234" t="s">
+        <v>38</v>
+      </c>
+      <c r="N234" t="s">
+        <v>43</v>
+      </c>
+      <c r="O234" t="s">
+        <v>44</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="A235" t="s">
+        <v>74</v>
+      </c>
+      <c r="B235" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C235" t="s">
+        <v>75</v>
+      </c>
+      <c r="E235" t="s">
+        <v>435</v>
+      </c>
+      <c r="F235" t="s">
+        <v>78</v>
+      </c>
+      <c r="H235" t="s">
+        <v>80</v>
+      </c>
+      <c r="I235" t="s">
+        <v>81</v>
+      </c>
+      <c r="J235" t="s">
+        <v>82</v>
+      </c>
+      <c r="K235" t="s">
+        <v>83</v>
+      </c>
+      <c r="L235" t="s">
+        <v>464</v>
+      </c>
+      <c r="M235" t="s">
+        <v>434</v>
+      </c>
+      <c r="N235" t="s">
+        <v>466</v>
+      </c>
+      <c r="O235" t="s">
+        <v>436</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="A236" t="s">
+        <v>322</v>
+      </c>
+      <c r="B236" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C236" t="s">
+        <v>323</v>
+      </c>
+      <c r="D236" t="s">
+        <v>324</v>
+      </c>
+      <c r="E236" t="s">
+        <v>325</v>
+      </c>
+      <c r="F236" t="s">
+        <v>327</v>
+      </c>
+      <c r="G236" t="s">
+        <v>453</v>
+      </c>
+      <c r="H236" t="s">
+        <v>328</v>
+      </c>
+      <c r="I236" t="s">
+        <v>329</v>
+      </c>
+      <c r="J236" t="s">
+        <v>330</v>
+      </c>
+      <c r="K236" t="s">
+        <v>331</v>
+      </c>
+      <c r="L236" t="s">
+        <v>332</v>
+      </c>
+      <c r="M236" t="s">
+        <v>334</v>
+      </c>
+      <c r="N236" t="s">
+        <v>326</v>
+      </c>
+      <c r="O236" t="s">
+        <v>335</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
+      <c r="A237" t="s">
+        <v>364</v>
+      </c>
+      <c r="B237" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C237" t="s">
+        <v>365</v>
+      </c>
+      <c r="D237" t="s">
+        <v>366</v>
+      </c>
+      <c r="E237" t="s">
+        <v>367</v>
+      </c>
+      <c r="F237" t="s">
+        <v>368</v>
+      </c>
+      <c r="G237" t="s">
+        <v>369</v>
+      </c>
+      <c r="H237" t="s">
+        <v>370</v>
+      </c>
+      <c r="I237" t="s">
+        <v>371</v>
+      </c>
+      <c r="J237" t="s">
+        <v>372</v>
+      </c>
+      <c r="K237" t="s">
+        <v>373</v>
+      </c>
+      <c r="L237" t="s">
+        <v>374</v>
+      </c>
+      <c r="M237" t="s">
+        <v>375</v>
+      </c>
+      <c r="N237" t="s">
+        <v>376</v>
+      </c>
+      <c r="O237" t="s">
+        <v>377</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="A238" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C238" t="s">
+        <v>246</v>
+      </c>
+      <c r="D238" t="s">
+        <v>257</v>
+      </c>
+      <c r="E238" t="s">
+        <v>429</v>
+      </c>
+      <c r="F238" t="s">
+        <v>249</v>
+      </c>
+      <c r="G238" t="s">
+        <v>250</v>
+      </c>
+      <c r="H238" t="s">
+        <v>251</v>
+      </c>
+      <c r="I238" t="s">
+        <v>252</v>
+      </c>
+      <c r="J238" t="s">
+        <v>253</v>
+      </c>
+      <c r="K238" t="s">
+        <v>254</v>
+      </c>
+      <c r="L238" t="s">
+        <v>255</v>
+      </c>
+      <c r="N238" t="s">
+        <v>440</v>
+      </c>
+      <c r="O238" t="s">
+        <v>248</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
+      <c r="A239" t="s">
+        <v>149</v>
+      </c>
+      <c r="B239" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C239" t="s">
+        <v>150</v>
+      </c>
+      <c r="D239" t="s">
+        <v>151</v>
+      </c>
+      <c r="E239" t="s">
+        <v>152</v>
+      </c>
+      <c r="F239" t="s">
+        <v>160</v>
+      </c>
+      <c r="G239" t="s">
+        <v>161</v>
+      </c>
+      <c r="H239" t="s">
+        <v>155</v>
+      </c>
+      <c r="I239" t="s">
+        <v>156</v>
+      </c>
+      <c r="J239" t="s">
+        <v>157</v>
+      </c>
+      <c r="K239" t="s">
+        <v>158</v>
+      </c>
+      <c r="L239" t="s">
+        <v>159</v>
+      </c>
+      <c r="M239" t="s">
+        <v>153</v>
+      </c>
+      <c r="N239" t="s">
+        <v>162</v>
+      </c>
+      <c r="O239" t="s">
+        <v>154</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
+      <c r="A240" t="s">
+        <v>258</v>
+      </c>
+      <c r="B240" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C240" t="s">
+        <v>437</v>
+      </c>
+      <c r="D240" t="s">
+        <v>260</v>
+      </c>
+      <c r="E240" t="s">
+        <v>261</v>
+      </c>
+      <c r="F240" t="s">
+        <v>262</v>
+      </c>
+      <c r="G240" t="s">
+        <v>263</v>
+      </c>
+      <c r="H240" t="s">
+        <v>264</v>
+      </c>
+      <c r="J240" t="s">
+        <v>266</v>
+      </c>
+      <c r="L240" t="s">
+        <v>259</v>
+      </c>
+      <c r="N240" t="s">
+        <v>269</v>
+      </c>
+      <c r="O240" t="s">
+        <v>270</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="A241" t="s">
+        <v>73</v>
+      </c>
+      <c r="B241" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C241" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" t="s">
+        <v>85</v>
+      </c>
+      <c r="E241" t="s">
+        <v>91</v>
+      </c>
+      <c r="F241" t="s">
+        <v>87</v>
+      </c>
+      <c r="G241" t="s">
+        <v>88</v>
+      </c>
+      <c r="H241" t="s">
+        <v>89</v>
+      </c>
+      <c r="I241" t="s">
+        <v>90</v>
+      </c>
+      <c r="J241" t="s">
+        <v>86</v>
+      </c>
+      <c r="K241" t="s">
+        <v>92</v>
+      </c>
+      <c r="L241" t="s">
+        <v>93</v>
+      </c>
+      <c r="M241" t="s">
+        <v>94</v>
+      </c>
+      <c r="N241" t="s">
+        <v>430</v>
+      </c>
+      <c r="O241" t="s">
+        <v>96</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="A242" t="s">
+        <v>232</v>
+      </c>
+      <c r="B242" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C242" t="s">
+        <v>233</v>
+      </c>
+      <c r="D242" t="s">
+        <v>234</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+      <c r="F242" t="s">
+        <v>236</v>
+      </c>
+      <c r="G242" t="s">
+        <v>237</v>
+      </c>
+      <c r="H242" t="s">
+        <v>242</v>
+      </c>
+      <c r="I242" t="s">
+        <v>239</v>
+      </c>
+      <c r="J242" t="s">
+        <v>240</v>
+      </c>
+      <c r="K242" t="s">
+        <v>241</v>
+      </c>
+      <c r="L242" t="s">
+        <v>454</v>
+      </c>
+      <c r="M242" t="s">
+        <v>243</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="A243" t="s">
+        <v>271</v>
+      </c>
+      <c r="B243" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C243" t="s">
+        <v>283</v>
+      </c>
+      <c r="D243" t="s">
+        <v>427</v>
+      </c>
+      <c r="E243" t="s">
+        <v>285</v>
+      </c>
+      <c r="G243" t="s">
+        <v>286</v>
+      </c>
+      <c r="H243" t="s">
+        <v>288</v>
+      </c>
+      <c r="I243" t="s">
+        <v>290</v>
+      </c>
+      <c r="J243" t="s">
+        <v>289</v>
+      </c>
+      <c r="K243" t="s">
+        <v>291</v>
+      </c>
+      <c r="L243" t="s">
+        <v>292</v>
+      </c>
+      <c r="M243" t="s">
+        <v>293</v>
+      </c>
+      <c r="N243" t="s">
+        <v>284</v>
+      </c>
+      <c r="O243" t="s">
+        <v>451</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="A244" t="s">
+        <v>363</v>
+      </c>
+      <c r="B244" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C244" t="s">
+        <v>378</v>
+      </c>
+      <c r="D244" t="s">
+        <v>389</v>
+      </c>
+      <c r="E244" t="s">
+        <v>380</v>
+      </c>
+      <c r="F244" t="s">
+        <v>381</v>
+      </c>
+      <c r="G244" t="s">
+        <v>382</v>
+      </c>
+      <c r="H244" t="s">
+        <v>383</v>
+      </c>
+      <c r="I244" t="s">
+        <v>384</v>
+      </c>
+      <c r="J244" t="s">
+        <v>385</v>
+      </c>
+      <c r="K244" t="s">
+        <v>459</v>
+      </c>
+      <c r="L244" t="s">
+        <v>387</v>
+      </c>
+      <c r="M244" t="s">
+        <v>388</v>
+      </c>
+      <c r="N244" t="s">
+        <v>431</v>
+      </c>
+      <c r="O244" t="s">
+        <v>379</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="A245" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" t="s">
+        <v>23</v>
+      </c>
+      <c r="H245" t="s">
+        <v>24</v>
+      </c>
+      <c r="I245" t="s">
+        <v>25</v>
+      </c>
+      <c r="J245" t="s">
+        <v>26</v>
+      </c>
+      <c r="K245" t="s">
+        <v>42</v>
+      </c>
+      <c r="L245" t="s">
+        <v>39</v>
+      </c>
+      <c r="M245" t="s">
+        <v>40</v>
+      </c>
+      <c r="N245" t="s">
+        <v>41</v>
+      </c>
+      <c r="O245" t="s">
+        <v>176</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="A246" t="s">
+        <v>348</v>
+      </c>
+      <c r="B246" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C246" t="s">
+        <v>350</v>
+      </c>
+      <c r="D246" t="s">
+        <v>351</v>
+      </c>
+      <c r="E246" t="s">
+        <v>352</v>
+      </c>
+      <c r="F246" t="s">
+        <v>353</v>
+      </c>
+      <c r="G246" t="s">
+        <v>354</v>
+      </c>
+      <c r="H246" t="s">
+        <v>355</v>
+      </c>
+      <c r="I246" t="s">
+        <v>356</v>
+      </c>
+      <c r="J246" t="s">
+        <v>357</v>
+      </c>
+      <c r="K246" t="s">
+        <v>358</v>
+      </c>
+      <c r="L246" t="s">
+        <v>359</v>
+      </c>
+      <c r="M246" t="s">
+        <v>360</v>
+      </c>
+      <c r="N246" t="s">
+        <v>467</v>
+      </c>
+      <c r="O246" t="s">
+        <v>361</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="A247" t="s">
+        <v>295</v>
+      </c>
+      <c r="B247" s="1">
+        <v>42319</v>
+      </c>
+      <c r="C247" t="s">
+        <v>296</v>
+      </c>
+      <c r="D247" t="s">
+        <v>297</v>
+      </c>
+      <c r="E247" t="s">
+        <v>298</v>
+      </c>
+      <c r="F247" t="s">
+        <v>85</v>
+      </c>
+      <c r="G247" t="s">
+        <v>299</v>
+      </c>
+      <c r="H247" t="s">
+        <v>300</v>
+      </c>
+      <c r="I247" t="s">
+        <v>301</v>
+      </c>
+      <c r="J247" t="s">
+        <v>302</v>
+      </c>
+      <c r="K247" t="s">
+        <v>303</v>
+      </c>
+      <c r="L247" t="s">
+        <v>304</v>
+      </c>
+      <c r="M247" t="s">
+        <v>305</v>
+      </c>
+      <c r="N247" t="s">
+        <v>306</v>
+      </c>
+      <c r="O247" t="s">
+        <v>307</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" t="s">
+        <v>177</v>
+      </c>
+      <c r="B248" s="1">
+        <v>42320</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="A249" t="s">
+        <v>163</v>
+      </c>
+      <c r="B249" s="1">
+        <v>42320</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="A250" t="s">
+        <v>392</v>
+      </c>
+      <c r="B250" s="1">
+        <v>42320</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" t="s">
+        <v>73</v>
+      </c>
+      <c r="B251" s="1">
+        <v>42320</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" t="s">
+        <v>321</v>
+      </c>
+      <c r="B252" s="1">
+        <v>42320</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" t="s">
+        <v>364</v>
+      </c>
+      <c r="B253" s="1">
+        <v>42320</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="A254" t="s">
+        <v>205</v>
+      </c>
+      <c r="B254" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="A255" t="s">
+        <v>392</v>
+      </c>
+      <c r="B255" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="A256" t="s">
+        <v>97</v>
+      </c>
+      <c r="B256" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="A257" t="s">
+        <v>163</v>
+      </c>
+      <c r="B257" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="A258" t="s">
+        <v>124</v>
+      </c>
+      <c r="B258" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="A260" t="s">
+        <v>272</v>
+      </c>
+      <c r="B260" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
+      <c r="A261" t="s">
+        <v>46</v>
+      </c>
+      <c r="B261" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
+      <c r="A262" t="s">
+        <v>204</v>
+      </c>
+      <c r="B262" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="A263" t="s">
+        <v>74</v>
+      </c>
+      <c r="B263" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="A264" t="s">
+        <v>45</v>
+      </c>
+      <c r="B264" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" t="s">
+        <v>178</v>
+      </c>
+      <c r="B265" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="A266" t="s">
+        <v>258</v>
+      </c>
+      <c r="B266" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="A267" t="s">
+        <v>348</v>
+      </c>
+      <c r="B267" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="A268" t="s">
+        <v>294</v>
+      </c>
+      <c r="B268" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="A269" t="s">
+        <v>125</v>
+      </c>
+      <c r="B269" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
+      <c r="A270" t="s">
+        <v>322</v>
+      </c>
+      <c r="B270" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="A271" t="s">
+        <v>391</v>
+      </c>
+      <c r="B271" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="A272" t="s">
+        <v>232</v>
+      </c>
+      <c r="B272" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
+      <c r="A273" t="s">
+        <v>231</v>
+      </c>
+      <c r="B273" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
+      <c r="A274" t="s">
+        <v>363</v>
+      </c>
+      <c r="B274" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
+      <c r="A275" t="s">
+        <v>149</v>
+      </c>
+      <c r="B275" s="1">
+        <v>42321</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
+      <c r="A276" t="s">
+        <v>364</v>
+      </c>
+      <c r="B276" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
+      <c r="A278" t="s">
+        <v>98</v>
+      </c>
+      <c r="B278" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
+      <c r="A279" t="s">
+        <v>97</v>
+      </c>
+      <c r="B279" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
+      <c r="A280" t="s">
+        <v>231</v>
+      </c>
+      <c r="B280" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
+      <c r="A281" t="s">
+        <v>322</v>
+      </c>
+      <c r="B281" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17">
+      <c r="A282" t="s">
+        <v>271</v>
+      </c>
+      <c r="B282" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P282">
+        <v>2</v>
+      </c>
+      <c r="Q282">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17">
+      <c r="A283" t="s">
+        <v>46</v>
+      </c>
+      <c r="B283" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P283">
+        <v>2</v>
+      </c>
+      <c r="Q283">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17">
+      <c r="A284" t="s">
+        <v>295</v>
+      </c>
+      <c r="B284" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+      <c r="Q284">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
+      <c r="A285" t="s">
+        <v>125</v>
+      </c>
+      <c r="B285" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+      <c r="Q285">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17">
+      <c r="A286" t="s">
+        <v>321</v>
+      </c>
+      <c r="B286" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+      <c r="Q286">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17">
+      <c r="A287" t="s">
+        <v>232</v>
+      </c>
+      <c r="B287" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+      <c r="Q287">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17">
+      <c r="A288" t="s">
+        <v>73</v>
+      </c>
+      <c r="B288" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P288">
+        <v>1</v>
+      </c>
+      <c r="Q288">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
+      <c r="A289" t="s">
+        <v>149</v>
+      </c>
+      <c r="B289" s="1">
+        <v>42322</v>
+      </c>
+      <c r="P289">
+        <v>1</v>
+      </c>
+      <c r="Q289">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17">
+      <c r="A290" t="s">
+        <v>272</v>
+      </c>
+      <c r="B290" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17">
+      <c r="A291" t="s">
+        <v>74</v>
+      </c>
+      <c r="B291" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+      <c r="Q291">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17">
+      <c r="A292" t="s">
+        <v>392</v>
+      </c>
+      <c r="B292" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17">
+      <c r="A293" t="s">
+        <v>258</v>
+      </c>
+      <c r="B293" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P293">
+        <v>0</v>
+      </c>
+      <c r="Q293">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
+      <c r="A294" t="s">
+        <v>178</v>
+      </c>
+      <c r="B294" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17">
+      <c r="A295" t="s">
+        <v>348</v>
+      </c>
+      <c r="B295" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+      <c r="Q295">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
+      <c r="A296" t="s">
+        <v>17</v>
+      </c>
+      <c r="B296" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17">
+      <c r="A297" t="s">
+        <v>163</v>
+      </c>
+      <c r="B297" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17">
+      <c r="A298" t="s">
+        <v>294</v>
+      </c>
+      <c r="B298" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17">
+      <c r="A299" t="s">
+        <v>124</v>
+      </c>
+      <c r="B299" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+      <c r="Q299">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17">
+      <c r="A300" t="s">
+        <v>363</v>
+      </c>
+      <c r="B300" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17">
+      <c r="A301" t="s">
+        <v>204</v>
+      </c>
+      <c r="B301" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17">
+      <c r="A302" t="s">
+        <v>391</v>
+      </c>
+      <c r="B302" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303" s="1">
+        <v>42323</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17">
+      <c r="A304" t="s">
+        <v>125</v>
+      </c>
+      <c r="B304" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
+      <c r="A305" t="s">
+        <v>322</v>
+      </c>
+      <c r="B305" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+      <c r="Q305">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
+      <c r="A306" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
+      <c r="A307" t="s">
+        <v>205</v>
+      </c>
+      <c r="B307" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
+      <c r="A308" t="s">
+        <v>231</v>
+      </c>
+      <c r="B308" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P308">
+        <v>0</v>
+      </c>
+      <c r="Q308">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
+      <c r="A309" t="s">
+        <v>124</v>
+      </c>
+      <c r="B309" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P309">
+        <v>0</v>
+      </c>
+      <c r="Q309">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
+      <c r="A310" t="s">
+        <v>258</v>
+      </c>
+      <c r="B310" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+      <c r="Q310">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
+      <c r="A311" t="s">
+        <v>294</v>
+      </c>
+      <c r="B311" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
+      <c r="A312" t="s">
+        <v>295</v>
+      </c>
+      <c r="B312" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P312">
+        <v>0</v>
+      </c>
+      <c r="Q312">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
+      <c r="A313" t="s">
+        <v>348</v>
+      </c>
+      <c r="B313" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
+      <c r="A314" t="s">
+        <v>321</v>
+      </c>
+      <c r="B314" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
+      <c r="A315" t="s">
+        <v>391</v>
+      </c>
+      <c r="B315" s="1">
+        <v>42324</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+      <c r="Q315">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
+      <c r="A316" t="s">
+        <v>98</v>
+      </c>
+      <c r="B316" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P316">
+        <v>0</v>
+      </c>
+      <c r="Q316">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
+      <c r="A317" t="s">
+        <v>271</v>
+      </c>
+      <c r="B317" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+      <c r="Q317">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
+      <c r="A318" t="s">
+        <v>149</v>
+      </c>
+      <c r="B318" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+      <c r="Q318">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17">
+      <c r="A319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+      <c r="Q319">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
+      <c r="A320" t="s">
+        <v>18</v>
+      </c>
+      <c r="B320" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+      <c r="Q320">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17">
+      <c r="A321" t="s">
+        <v>46</v>
+      </c>
+      <c r="B321" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P321">
+        <v>0</v>
+      </c>
+      <c r="Q321">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
+      <c r="A322" t="s">
+        <v>177</v>
+      </c>
+      <c r="B322" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P322">
+        <v>0</v>
+      </c>
+      <c r="Q322">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17">
+      <c r="A323" t="s">
+        <v>392</v>
+      </c>
+      <c r="B323" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+      <c r="Q323">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17">
+      <c r="A324" t="s">
+        <v>272</v>
+      </c>
+      <c r="B324" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17">
+      <c r="A325" t="s">
+        <v>178</v>
+      </c>
+      <c r="B325" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+      <c r="Q325">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17">
+      <c r="A326" t="s">
+        <v>74</v>
+      </c>
+      <c r="B326" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P326">
+        <v>0</v>
+      </c>
+      <c r="Q326">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17">
+      <c r="A327" t="s">
+        <v>232</v>
+      </c>
+      <c r="B327" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P327">
+        <v>0</v>
+      </c>
+      <c r="Q327">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17">
+      <c r="A328" t="s">
+        <v>73</v>
+      </c>
+      <c r="B328" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P328">
+        <v>0</v>
+      </c>
+      <c r="Q328">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17">
+      <c r="A329" t="s">
+        <v>204</v>
+      </c>
+      <c r="B329" s="1">
+        <v>42325</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+      <c r="Q329">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17">
+      <c r="A330" t="s">
+        <v>178</v>
+      </c>
+      <c r="B330" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P330">
+        <v>0</v>
+      </c>
+      <c r="Q330">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17">
+      <c r="A331" t="s">
+        <v>149</v>
+      </c>
+      <c r="B331" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P331">
+        <v>0</v>
+      </c>
+      <c r="Q331">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17">
+      <c r="A332" t="s">
+        <v>97</v>
+      </c>
+      <c r="B332" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P332">
+        <v>1</v>
+      </c>
+      <c r="Q332">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17">
+      <c r="A333" t="s">
+        <v>392</v>
+      </c>
+      <c r="B333" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P333">
+        <v>1</v>
+      </c>
+      <c r="Q333">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17">
+      <c r="A334" t="s">
+        <v>125</v>
+      </c>
+      <c r="B334" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P334">
+        <v>0</v>
+      </c>
+      <c r="Q334">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17">
+      <c r="A335" t="s">
+        <v>205</v>
+      </c>
+      <c r="B335" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P335">
+        <v>0</v>
+      </c>
+      <c r="Q335">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17">
+      <c r="A336" t="s">
+        <v>124</v>
+      </c>
+      <c r="B336" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P336">
+        <v>0</v>
+      </c>
+      <c r="Q336">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17">
+      <c r="A337" t="s">
+        <v>322</v>
+      </c>
+      <c r="B337" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P337">
+        <v>0</v>
+      </c>
+      <c r="Q337">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17">
+      <c r="A338" t="s">
+        <v>17</v>
+      </c>
+      <c r="B338" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+      <c r="Q338">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17">
+      <c r="A339" t="s">
+        <v>363</v>
+      </c>
+      <c r="B339" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
+      <c r="Q339">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17">
+      <c r="A340" t="s">
+        <v>231</v>
+      </c>
+      <c r="B340" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P340">
+        <v>1</v>
+      </c>
+      <c r="Q340">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17">
+      <c r="A341" t="s">
+        <v>348</v>
+      </c>
+      <c r="B341" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P341">
+        <v>1</v>
+      </c>
+      <c r="Q341">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17">
+      <c r="A342" t="s">
+        <v>294</v>
+      </c>
+      <c r="B342" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P342">
+        <v>0</v>
+      </c>
+      <c r="Q342">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17">
+      <c r="A343" t="s">
+        <v>74</v>
+      </c>
+      <c r="B343" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P343">
+        <v>0</v>
+      </c>
+      <c r="Q343">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17">
+      <c r="A344" t="s">
+        <v>295</v>
+      </c>
+      <c r="B344" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P344">
+        <v>0</v>
+      </c>
+      <c r="Q344">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17">
+      <c r="A345" t="s">
+        <v>232</v>
+      </c>
+      <c r="B345" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P345">
+        <v>0</v>
+      </c>
+      <c r="Q345">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17">
+      <c r="A346" t="s">
+        <v>163</v>
+      </c>
+      <c r="B346" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P346">
+        <v>0</v>
+      </c>
+      <c r="Q346">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17">
+      <c r="A347" t="s">
+        <v>204</v>
+      </c>
+      <c r="B347" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P347">
+        <v>0</v>
+      </c>
+      <c r="Q347">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17">
+      <c r="A348" t="s">
+        <v>321</v>
+      </c>
+      <c r="B348" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+      <c r="Q348">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17">
+      <c r="A349" t="s">
+        <v>45</v>
+      </c>
+      <c r="B349" s="1">
+        <v>42326</v>
+      </c>
+      <c r="P349">
+        <v>0</v>
+      </c>
+      <c r="Q349">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q119"/>
+  <autoFilter ref="A1:Q247"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NBA-predict/test/data/data.xlsx
+++ b/NBA-predict/test/data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="468">
   <si>
     <t>Team</t>
   </si>
@@ -1758,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q349"/>
+  <dimension ref="A1:Q523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J346" sqref="J346"/>
+    <sheetView tabSelected="1" topLeftCell="A509" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L514" sqref="L514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16033,6 +16033,2442 @@
         <v>103</v>
       </c>
     </row>
+    <row r="350" spans="1:17">
+      <c r="A350" t="s">
+        <v>177</v>
+      </c>
+      <c r="B350" s="1">
+        <v>42327</v>
+      </c>
+      <c r="P350">
+        <v>0</v>
+      </c>
+      <c r="Q350">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17">
+      <c r="A351" t="s">
+        <v>363</v>
+      </c>
+      <c r="B351" s="1">
+        <v>42327</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+      <c r="Q351">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17">
+      <c r="A352" t="s">
+        <v>46</v>
+      </c>
+      <c r="B352" s="1">
+        <v>42327</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17">
+      <c r="A353" t="s">
+        <v>271</v>
+      </c>
+      <c r="B353" s="1">
+        <v>42327</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17">
+      <c r="A354" t="s">
+        <v>364</v>
+      </c>
+      <c r="B354" s="1">
+        <v>42327</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17">
+      <c r="A355" t="s">
+        <v>73</v>
+      </c>
+      <c r="B355" s="1">
+        <v>42327</v>
+      </c>
+      <c r="P355">
+        <v>0</v>
+      </c>
+      <c r="Q355">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17">
+      <c r="A356" t="s">
+        <v>178</v>
+      </c>
+      <c r="B356" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P356">
+        <v>0</v>
+      </c>
+      <c r="Q356">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17">
+      <c r="A357" t="s">
+        <v>125</v>
+      </c>
+      <c r="B357" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+      <c r="Q357">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17">
+      <c r="A358" t="s">
+        <v>124</v>
+      </c>
+      <c r="B358" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17">
+      <c r="A359" t="s">
+        <v>149</v>
+      </c>
+      <c r="B359" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P359">
+        <v>0</v>
+      </c>
+      <c r="Q359">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17">
+      <c r="A360" t="s">
+        <v>258</v>
+      </c>
+      <c r="B360" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P360">
+        <v>0</v>
+      </c>
+      <c r="Q360">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17">
+      <c r="A361" t="s">
+        <v>231</v>
+      </c>
+      <c r="B361" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P361">
+        <v>0</v>
+      </c>
+      <c r="Q361">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17">
+      <c r="A362" t="s">
+        <v>392</v>
+      </c>
+      <c r="B362" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17">
+      <c r="A363" t="s">
+        <v>18</v>
+      </c>
+      <c r="B363" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P363">
+        <v>0</v>
+      </c>
+      <c r="Q363">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17">
+      <c r="A364" t="s">
+        <v>74</v>
+      </c>
+      <c r="B364" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P364">
+        <v>0</v>
+      </c>
+      <c r="Q364">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17">
+      <c r="A365" t="s">
+        <v>295</v>
+      </c>
+      <c r="B365" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P365">
+        <v>0</v>
+      </c>
+      <c r="Q365">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17">
+      <c r="A366" t="s">
+        <v>294</v>
+      </c>
+      <c r="B366" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="Q366">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17">
+      <c r="A367" t="s">
+        <v>272</v>
+      </c>
+      <c r="B367" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P367">
+        <v>0</v>
+      </c>
+      <c r="Q367">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17">
+      <c r="A368" t="s">
+        <v>322</v>
+      </c>
+      <c r="B368" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P368">
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17">
+      <c r="A369" t="s">
+        <v>163</v>
+      </c>
+      <c r="B369" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17">
+      <c r="A370" t="s">
+        <v>232</v>
+      </c>
+      <c r="B370" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P370">
+        <v>0</v>
+      </c>
+      <c r="Q370">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17">
+      <c r="A371" t="s">
+        <v>321</v>
+      </c>
+      <c r="B371" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P371">
+        <v>0</v>
+      </c>
+      <c r="Q371">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17">
+      <c r="A372" t="s">
+        <v>348</v>
+      </c>
+      <c r="B372" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P372">
+        <v>0</v>
+      </c>
+      <c r="Q372">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17">
+      <c r="A373" t="s">
+        <v>364</v>
+      </c>
+      <c r="B373" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P373">
+        <v>0</v>
+      </c>
+      <c r="Q373">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17">
+      <c r="A374" t="s">
+        <v>73</v>
+      </c>
+      <c r="B374" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P374">
+        <v>0</v>
+      </c>
+      <c r="Q374">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17">
+      <c r="A375" t="s">
+        <v>45</v>
+      </c>
+      <c r="B375" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P375">
+        <v>0</v>
+      </c>
+      <c r="Q375">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17">
+      <c r="A376" t="s">
+        <v>391</v>
+      </c>
+      <c r="B376" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P376">
+        <v>0</v>
+      </c>
+      <c r="Q376">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17">
+      <c r="A377" t="s">
+        <v>204</v>
+      </c>
+      <c r="B377" s="1">
+        <v>42328</v>
+      </c>
+      <c r="P377">
+        <v>0</v>
+      </c>
+      <c r="Q377">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17">
+      <c r="A378" t="s">
+        <v>97</v>
+      </c>
+      <c r="B378" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P378">
+        <v>0</v>
+      </c>
+      <c r="Q378">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17">
+      <c r="A379" t="s">
+        <v>363</v>
+      </c>
+      <c r="B379" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P379">
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17">
+      <c r="A380" t="s">
+        <v>205</v>
+      </c>
+      <c r="B380" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P380">
+        <v>0</v>
+      </c>
+      <c r="Q380">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
+      <c r="A381" t="s">
+        <v>271</v>
+      </c>
+      <c r="B381" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P381">
+        <v>0</v>
+      </c>
+      <c r="Q381">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17">
+      <c r="A382" t="s">
+        <v>46</v>
+      </c>
+      <c r="B382" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P382">
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17">
+      <c r="A383" t="s">
+        <v>17</v>
+      </c>
+      <c r="B383" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P383">
+        <v>0</v>
+      </c>
+      <c r="Q383">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17">
+      <c r="A384" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P384">
+        <v>0</v>
+      </c>
+      <c r="Q384">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17">
+      <c r="A385" t="s">
+        <v>98</v>
+      </c>
+      <c r="B385" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P385">
+        <v>0</v>
+      </c>
+      <c r="Q385">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17">
+      <c r="A386" t="s">
+        <v>177</v>
+      </c>
+      <c r="B386" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P386">
+        <v>0</v>
+      </c>
+      <c r="Q386">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17">
+      <c r="A387" t="s">
+        <v>125</v>
+      </c>
+      <c r="B387" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P387">
+        <v>0</v>
+      </c>
+      <c r="Q387">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17">
+      <c r="A388" t="s">
+        <v>231</v>
+      </c>
+      <c r="B388" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P388">
+        <v>0</v>
+      </c>
+      <c r="Q388">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17">
+      <c r="A389" t="s">
+        <v>272</v>
+      </c>
+      <c r="B389" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P389">
+        <v>0</v>
+      </c>
+      <c r="Q389">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17">
+      <c r="A390" t="s">
+        <v>295</v>
+      </c>
+      <c r="B390" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P390">
+        <v>0</v>
+      </c>
+      <c r="Q390">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17">
+      <c r="A391" t="s">
+        <v>258</v>
+      </c>
+      <c r="B391" s="1">
+        <v>42329</v>
+      </c>
+      <c r="P391">
+        <v>0</v>
+      </c>
+      <c r="Q391">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17">
+      <c r="A392" t="s">
+        <v>364</v>
+      </c>
+      <c r="B392" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P392">
+        <v>0</v>
+      </c>
+      <c r="Q392">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17">
+      <c r="A393" t="s">
+        <v>204</v>
+      </c>
+      <c r="B393" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P393">
+        <v>0</v>
+      </c>
+      <c r="Q393">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17">
+      <c r="A394" t="s">
+        <v>149</v>
+      </c>
+      <c r="B394" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P394">
+        <v>0</v>
+      </c>
+      <c r="Q394">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17">
+      <c r="A395" t="s">
+        <v>124</v>
+      </c>
+      <c r="B395" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P395">
+        <v>0</v>
+      </c>
+      <c r="Q395">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17">
+      <c r="A396" t="s">
+        <v>74</v>
+      </c>
+      <c r="B396" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P396">
+        <v>0</v>
+      </c>
+      <c r="Q396">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17">
+      <c r="A397" t="s">
+        <v>321</v>
+      </c>
+      <c r="B397" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P397">
+        <v>0</v>
+      </c>
+      <c r="Q397">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17">
+      <c r="A398" t="s">
+        <v>294</v>
+      </c>
+      <c r="B398" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P398">
+        <v>0</v>
+      </c>
+      <c r="Q398">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17">
+      <c r="A399" t="s">
+        <v>322</v>
+      </c>
+      <c r="B399" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P399">
+        <v>0</v>
+      </c>
+      <c r="Q399">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17">
+      <c r="A400" t="s">
+        <v>232</v>
+      </c>
+      <c r="B400" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P400">
+        <v>0</v>
+      </c>
+      <c r="Q400">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17">
+      <c r="A401" t="s">
+        <v>73</v>
+      </c>
+      <c r="B401" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P401">
+        <v>0</v>
+      </c>
+      <c r="Q401">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17">
+      <c r="A402" t="s">
+        <v>391</v>
+      </c>
+      <c r="B402" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P402">
+        <v>0</v>
+      </c>
+      <c r="Q402">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17">
+      <c r="A403" t="s">
+        <v>348</v>
+      </c>
+      <c r="B403" s="1">
+        <v>42330</v>
+      </c>
+      <c r="P403">
+        <v>0</v>
+      </c>
+      <c r="Q403">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17">
+      <c r="A404" t="s">
+        <v>178</v>
+      </c>
+      <c r="B404" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P404">
+        <v>1</v>
+      </c>
+      <c r="Q404">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17">
+      <c r="A405" t="s">
+        <v>363</v>
+      </c>
+      <c r="B405" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P405">
+        <v>1</v>
+      </c>
+      <c r="Q405">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17">
+      <c r="A406" t="s">
+        <v>46</v>
+      </c>
+      <c r="B406" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P406">
+        <v>0</v>
+      </c>
+      <c r="Q406">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17">
+      <c r="A407" t="s">
+        <v>97</v>
+      </c>
+      <c r="B407" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P407">
+        <v>0</v>
+      </c>
+      <c r="Q407">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17">
+      <c r="A408" t="s">
+        <v>177</v>
+      </c>
+      <c r="B408" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P408">
+        <v>0</v>
+      </c>
+      <c r="Q408">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17">
+      <c r="A409" t="s">
+        <v>272</v>
+      </c>
+      <c r="B409" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P409">
+        <v>0</v>
+      </c>
+      <c r="Q409">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17">
+      <c r="A410" t="s">
+        <v>271</v>
+      </c>
+      <c r="B410" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P410">
+        <v>0</v>
+      </c>
+      <c r="Q410">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17">
+      <c r="A411" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P411">
+        <v>0</v>
+      </c>
+      <c r="Q411">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17">
+      <c r="A412" t="s">
+        <v>392</v>
+      </c>
+      <c r="B412" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P412">
+        <v>0</v>
+      </c>
+      <c r="Q412">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17">
+      <c r="A413" t="s">
+        <v>125</v>
+      </c>
+      <c r="B413" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P413">
+        <v>0</v>
+      </c>
+      <c r="Q413">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17">
+      <c r="A414" t="s">
+        <v>295</v>
+      </c>
+      <c r="B414" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P414">
+        <v>0</v>
+      </c>
+      <c r="Q414">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17">
+      <c r="A415" t="s">
+        <v>321</v>
+      </c>
+      <c r="B415" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P415">
+        <v>0</v>
+      </c>
+      <c r="Q415">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17">
+      <c r="A416" t="s">
+        <v>163</v>
+      </c>
+      <c r="B416" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P416">
+        <v>0</v>
+      </c>
+      <c r="Q416">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17">
+      <c r="A417" t="s">
+        <v>294</v>
+      </c>
+      <c r="B417" s="1">
+        <v>42331</v>
+      </c>
+      <c r="P417">
+        <v>0</v>
+      </c>
+      <c r="Q417">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17">
+      <c r="A418" t="s">
+        <v>98</v>
+      </c>
+      <c r="B418" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P418">
+        <v>0</v>
+      </c>
+      <c r="Q418">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17">
+      <c r="A419" t="s">
+        <v>205</v>
+      </c>
+      <c r="B419" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P419">
+        <v>0</v>
+      </c>
+      <c r="Q419">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17">
+      <c r="A420" t="s">
+        <v>17</v>
+      </c>
+      <c r="B420" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P420">
+        <v>0</v>
+      </c>
+      <c r="Q420">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17">
+      <c r="A421" t="s">
+        <v>124</v>
+      </c>
+      <c r="B421" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P421">
+        <v>0</v>
+      </c>
+      <c r="Q421">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17">
+      <c r="A422" t="s">
+        <v>258</v>
+      </c>
+      <c r="B422" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P422">
+        <v>0</v>
+      </c>
+      <c r="Q422">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17">
+      <c r="A423" t="s">
+        <v>322</v>
+      </c>
+      <c r="B423" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P423">
+        <v>0</v>
+      </c>
+      <c r="Q423">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17">
+      <c r="A424" t="s">
+        <v>232</v>
+      </c>
+      <c r="B424" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P424">
+        <v>0</v>
+      </c>
+      <c r="Q424">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17">
+      <c r="A425" t="s">
+        <v>364</v>
+      </c>
+      <c r="B425" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P425">
+        <v>0</v>
+      </c>
+      <c r="Q425">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17">
+      <c r="A426" t="s">
+        <v>348</v>
+      </c>
+      <c r="B426" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P426">
+        <v>0</v>
+      </c>
+      <c r="Q426">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17">
+      <c r="A427" t="s">
+        <v>45</v>
+      </c>
+      <c r="B427" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P427">
+        <v>0</v>
+      </c>
+      <c r="Q427">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17">
+      <c r="A428" t="s">
+        <v>73</v>
+      </c>
+      <c r="B428" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P428">
+        <v>0</v>
+      </c>
+      <c r="Q428">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17">
+      <c r="A429" t="s">
+        <v>391</v>
+      </c>
+      <c r="B429" s="1">
+        <v>42332</v>
+      </c>
+      <c r="P429">
+        <v>0</v>
+      </c>
+      <c r="Q429">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17">
+      <c r="A430" t="s">
+        <v>178</v>
+      </c>
+      <c r="B430" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P430">
+        <v>0</v>
+      </c>
+      <c r="Q430">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17">
+      <c r="A431" t="s">
+        <v>98</v>
+      </c>
+      <c r="B431" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P431">
+        <v>0</v>
+      </c>
+      <c r="Q431">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17">
+      <c r="A432" t="s">
+        <v>97</v>
+      </c>
+      <c r="B432" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P432">
+        <v>0</v>
+      </c>
+      <c r="Q432">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17">
+      <c r="A433" t="s">
+        <v>272</v>
+      </c>
+      <c r="B433" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P433">
+        <v>0</v>
+      </c>
+      <c r="Q433">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17">
+      <c r="A434" t="s">
+        <v>124</v>
+      </c>
+      <c r="B434" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P434">
+        <v>0</v>
+      </c>
+      <c r="Q434">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17">
+      <c r="A435" t="s">
+        <v>125</v>
+      </c>
+      <c r="B435" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P435">
+        <v>0</v>
+      </c>
+      <c r="Q435">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17">
+      <c r="A436" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P436">
+        <v>0</v>
+      </c>
+      <c r="Q436">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17">
+      <c r="A437" t="s">
+        <v>177</v>
+      </c>
+      <c r="B437" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P437">
+        <v>0</v>
+      </c>
+      <c r="Q437">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17">
+      <c r="A438" t="s">
+        <v>204</v>
+      </c>
+      <c r="B438" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P438">
+        <v>0</v>
+      </c>
+      <c r="Q438">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17">
+      <c r="A439" t="s">
+        <v>46</v>
+      </c>
+      <c r="B439" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P439">
+        <v>0</v>
+      </c>
+      <c r="Q439">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17">
+      <c r="A440" t="s">
+        <v>231</v>
+      </c>
+      <c r="B440" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P440">
+        <v>0</v>
+      </c>
+      <c r="Q440">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17">
+      <c r="A441" t="s">
+        <v>258</v>
+      </c>
+      <c r="B441" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P441">
+        <v>0</v>
+      </c>
+      <c r="Q441">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17">
+      <c r="A442" t="s">
+        <v>271</v>
+      </c>
+      <c r="B442" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P442">
+        <v>0</v>
+      </c>
+      <c r="Q442">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17">
+      <c r="A443" t="s">
+        <v>363</v>
+      </c>
+      <c r="B443" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P443">
+        <v>0</v>
+      </c>
+      <c r="Q443">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17">
+      <c r="A444" t="s">
+        <v>392</v>
+      </c>
+      <c r="B444" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P444">
+        <v>0</v>
+      </c>
+      <c r="Q444">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17">
+      <c r="A445" t="s">
+        <v>17</v>
+      </c>
+      <c r="B445" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P445">
+        <v>0</v>
+      </c>
+      <c r="Q445">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17">
+      <c r="A446" t="s">
+        <v>294</v>
+      </c>
+      <c r="B446" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P446">
+        <v>0</v>
+      </c>
+      <c r="Q446">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17">
+      <c r="A447" t="s">
+        <v>149</v>
+      </c>
+      <c r="B447" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P447">
+        <v>0</v>
+      </c>
+      <c r="Q447">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17">
+      <c r="A448" t="s">
+        <v>295</v>
+      </c>
+      <c r="B448" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P448">
+        <v>0</v>
+      </c>
+      <c r="Q448">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17">
+      <c r="A449" t="s">
+        <v>322</v>
+      </c>
+      <c r="B449" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P449">
+        <v>0</v>
+      </c>
+      <c r="Q449">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17">
+      <c r="A450" t="s">
+        <v>321</v>
+      </c>
+      <c r="B450" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P450">
+        <v>0</v>
+      </c>
+      <c r="Q450">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17">
+      <c r="A451" t="s">
+        <v>74</v>
+      </c>
+      <c r="B451" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P451">
+        <v>0</v>
+      </c>
+      <c r="Q451">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17">
+      <c r="A452" t="s">
+        <v>364</v>
+      </c>
+      <c r="B452" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P452">
+        <v>0</v>
+      </c>
+      <c r="Q452">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17">
+      <c r="A453" t="s">
+        <v>163</v>
+      </c>
+      <c r="B453" s="1">
+        <v>42333</v>
+      </c>
+      <c r="P453">
+        <v>0</v>
+      </c>
+      <c r="Q453">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="454" spans="1:17">
+      <c r="A454" t="s">
+        <v>178</v>
+      </c>
+      <c r="B454" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P454">
+        <v>0</v>
+      </c>
+      <c r="Q454">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="455" spans="1:17">
+      <c r="A455" t="s">
+        <v>46</v>
+      </c>
+      <c r="B455" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P455">
+        <v>0</v>
+      </c>
+      <c r="Q455">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="456" spans="1:17">
+      <c r="A456" t="s">
+        <v>97</v>
+      </c>
+      <c r="B456" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P456">
+        <v>0</v>
+      </c>
+      <c r="Q456">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="457" spans="1:17">
+      <c r="A457" t="s">
+        <v>271</v>
+      </c>
+      <c r="B457" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P457">
+        <v>0</v>
+      </c>
+      <c r="Q457">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17">
+      <c r="A458" t="s">
+        <v>124</v>
+      </c>
+      <c r="B458" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P458">
+        <v>0</v>
+      </c>
+      <c r="Q458">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="459" spans="1:17">
+      <c r="A459" t="s">
+        <v>98</v>
+      </c>
+      <c r="B459" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P459">
+        <v>0</v>
+      </c>
+      <c r="Q459">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="460" spans="1:17">
+      <c r="A460" t="s">
+        <v>272</v>
+      </c>
+      <c r="B460" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P460">
+        <v>0</v>
+      </c>
+      <c r="Q460">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="461" spans="1:17">
+      <c r="A461" t="s">
+        <v>177</v>
+      </c>
+      <c r="B461" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P461">
+        <v>0</v>
+      </c>
+      <c r="Q461">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="462" spans="1:17">
+      <c r="A462" t="s">
+        <v>205</v>
+      </c>
+      <c r="B462" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P462">
+        <v>0</v>
+      </c>
+      <c r="Q462">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="463" spans="1:17">
+      <c r="A463" t="s">
+        <v>45</v>
+      </c>
+      <c r="B463" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P463">
+        <v>0</v>
+      </c>
+      <c r="Q463">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="464" spans="1:17">
+      <c r="A464" t="s">
+        <v>231</v>
+      </c>
+      <c r="B464" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P464">
+        <v>0</v>
+      </c>
+      <c r="Q464">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="465" spans="1:17">
+      <c r="A465" t="s">
+        <v>125</v>
+      </c>
+      <c r="B465" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P465">
+        <v>0</v>
+      </c>
+      <c r="Q465">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17">
+      <c r="A466" t="s">
+        <v>258</v>
+      </c>
+      <c r="B466" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P466">
+        <v>0</v>
+      </c>
+      <c r="Q466">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17">
+      <c r="A467" t="s">
+        <v>17</v>
+      </c>
+      <c r="B467" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P467">
+        <v>0</v>
+      </c>
+      <c r="Q467">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17">
+      <c r="A468" t="s">
+        <v>294</v>
+      </c>
+      <c r="B468" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P468">
+        <v>0</v>
+      </c>
+      <c r="Q468">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17">
+      <c r="A469" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P469">
+        <v>0</v>
+      </c>
+      <c r="Q469">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17">
+      <c r="A470" t="s">
+        <v>232</v>
+      </c>
+      <c r="B470" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P470">
+        <v>0</v>
+      </c>
+      <c r="Q470">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17">
+      <c r="A471" t="s">
+        <v>295</v>
+      </c>
+      <c r="B471" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P471">
+        <v>0</v>
+      </c>
+      <c r="Q471">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17">
+      <c r="A472" t="s">
+        <v>321</v>
+      </c>
+      <c r="B472" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P472">
+        <v>0</v>
+      </c>
+      <c r="Q472">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17">
+      <c r="A473" t="s">
+        <v>73</v>
+      </c>
+      <c r="B473" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P473">
+        <v>0</v>
+      </c>
+      <c r="Q473">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17">
+      <c r="A474" t="s">
+        <v>363</v>
+      </c>
+      <c r="B474" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P474">
+        <v>0</v>
+      </c>
+      <c r="Q474">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17">
+      <c r="A475" t="s">
+        <v>392</v>
+      </c>
+      <c r="B475" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P475">
+        <v>0</v>
+      </c>
+      <c r="Q475">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17">
+      <c r="A476" t="s">
+        <v>364</v>
+      </c>
+      <c r="B476" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P476">
+        <v>0</v>
+      </c>
+      <c r="Q476">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17">
+      <c r="A477" t="s">
+        <v>74</v>
+      </c>
+      <c r="B477" s="1">
+        <v>42335</v>
+      </c>
+      <c r="P477">
+        <v>0</v>
+      </c>
+      <c r="Q477">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17">
+      <c r="A478" t="s">
+        <v>98</v>
+      </c>
+      <c r="B478" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P478">
+        <v>0</v>
+      </c>
+      <c r="Q478">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="479" spans="1:17">
+      <c r="A479" t="s">
+        <v>204</v>
+      </c>
+      <c r="B479" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P479">
+        <v>0</v>
+      </c>
+      <c r="Q479">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17">
+      <c r="A480" t="s">
+        <v>46</v>
+      </c>
+      <c r="B480" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P480">
+        <v>0</v>
+      </c>
+      <c r="Q480">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17">
+      <c r="A481" t="s">
+        <v>149</v>
+      </c>
+      <c r="B481" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P481">
+        <v>0</v>
+      </c>
+      <c r="Q481">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17">
+      <c r="A482" t="s">
+        <v>322</v>
+      </c>
+      <c r="B482" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P482">
+        <v>0</v>
+      </c>
+      <c r="Q482">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17">
+      <c r="A483" t="s">
+        <v>232</v>
+      </c>
+      <c r="B483" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P483">
+        <v>0</v>
+      </c>
+      <c r="Q483">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17">
+      <c r="A484" t="s">
+        <v>295</v>
+      </c>
+      <c r="B484" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P484">
+        <v>0</v>
+      </c>
+      <c r="Q484">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17">
+      <c r="A485" t="s">
+        <v>17</v>
+      </c>
+      <c r="B485" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P485">
+        <v>0</v>
+      </c>
+      <c r="Q485">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17">
+      <c r="A486" t="s">
+        <v>163</v>
+      </c>
+      <c r="B486" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P486">
+        <v>0</v>
+      </c>
+      <c r="Q486">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17">
+      <c r="A487" t="s">
+        <v>74</v>
+      </c>
+      <c r="B487" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P487">
+        <v>0</v>
+      </c>
+      <c r="Q487">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17">
+      <c r="A488" t="s">
+        <v>348</v>
+      </c>
+      <c r="B488" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P488">
+        <v>0</v>
+      </c>
+      <c r="Q488">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17">
+      <c r="A489" t="s">
+        <v>391</v>
+      </c>
+      <c r="B489" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P489">
+        <v>0</v>
+      </c>
+      <c r="Q489">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17">
+      <c r="A490" t="s">
+        <v>73</v>
+      </c>
+      <c r="B490" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P490">
+        <v>0</v>
+      </c>
+      <c r="Q490">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17">
+      <c r="A491" t="s">
+        <v>363</v>
+      </c>
+      <c r="B491" s="1">
+        <v>42336</v>
+      </c>
+      <c r="P491">
+        <v>0</v>
+      </c>
+      <c r="Q491">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17">
+      <c r="A492" t="s">
+        <v>178</v>
+      </c>
+      <c r="B492" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P492">
+        <v>0</v>
+      </c>
+      <c r="Q492">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17">
+      <c r="A493" t="s">
+        <v>271</v>
+      </c>
+      <c r="B493" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P493">
+        <v>0</v>
+      </c>
+      <c r="Q493">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17">
+      <c r="A494" t="s">
+        <v>364</v>
+      </c>
+      <c r="B494" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P494">
+        <v>0</v>
+      </c>
+      <c r="Q494">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17">
+      <c r="A495" t="s">
+        <v>392</v>
+      </c>
+      <c r="B495" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P495">
+        <v>0</v>
+      </c>
+      <c r="Q495">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17">
+      <c r="A496" t="s">
+        <v>149</v>
+      </c>
+      <c r="B496" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P496">
+        <v>0</v>
+      </c>
+      <c r="Q496">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="497" spans="1:17">
+      <c r="A497" t="s">
+        <v>18</v>
+      </c>
+      <c r="B497" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P497">
+        <v>0</v>
+      </c>
+      <c r="Q497">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="498" spans="1:17">
+      <c r="A498" t="s">
+        <v>97</v>
+      </c>
+      <c r="B498" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P498">
+        <v>0</v>
+      </c>
+      <c r="Q498">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="499" spans="1:17">
+      <c r="A499" t="s">
+        <v>124</v>
+      </c>
+      <c r="B499" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P499">
+        <v>0</v>
+      </c>
+      <c r="Q499">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17">
+      <c r="A500" t="s">
+        <v>204</v>
+      </c>
+      <c r="B500" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P500">
+        <v>0</v>
+      </c>
+      <c r="Q500">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17">
+      <c r="A501" t="s">
+        <v>321</v>
+      </c>
+      <c r="B501" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P501">
+        <v>0</v>
+      </c>
+      <c r="Q501">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17">
+      <c r="A502" t="s">
+        <v>258</v>
+      </c>
+      <c r="B502" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P502">
+        <v>0</v>
+      </c>
+      <c r="Q502">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17">
+      <c r="A503" t="s">
+        <v>125</v>
+      </c>
+      <c r="B503" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P503">
+        <v>0</v>
+      </c>
+      <c r="Q503">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17">
+      <c r="A504" t="s">
+        <v>272</v>
+      </c>
+      <c r="B504" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P504">
+        <v>1</v>
+      </c>
+      <c r="Q504">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17">
+      <c r="A505" t="s">
+        <v>231</v>
+      </c>
+      <c r="B505" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P505">
+        <v>1</v>
+      </c>
+      <c r="Q505">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="506" spans="1:17">
+      <c r="A506" t="s">
+        <v>391</v>
+      </c>
+      <c r="B506" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P506">
+        <v>0</v>
+      </c>
+      <c r="Q506">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="507" spans="1:17">
+      <c r="A507" t="s">
+        <v>205</v>
+      </c>
+      <c r="B507" s="1">
+        <v>42337</v>
+      </c>
+      <c r="P507">
+        <v>0</v>
+      </c>
+      <c r="Q507">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="508" spans="1:17">
+      <c r="A508" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P508">
+        <v>0</v>
+      </c>
+      <c r="Q508">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="509" spans="1:17">
+      <c r="A509" t="s">
+        <v>231</v>
+      </c>
+      <c r="B509" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P509">
+        <v>0</v>
+      </c>
+      <c r="Q509">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="510" spans="1:17">
+      <c r="A510" t="s">
+        <v>177</v>
+      </c>
+      <c r="B510" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P510">
+        <v>0</v>
+      </c>
+      <c r="Q510">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="511" spans="1:17">
+      <c r="A511" t="s">
+        <v>124</v>
+      </c>
+      <c r="B511" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P511">
+        <v>0</v>
+      </c>
+      <c r="Q511">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="512" spans="1:17">
+      <c r="A512" t="s">
+        <v>17</v>
+      </c>
+      <c r="B512" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P512">
+        <v>0</v>
+      </c>
+      <c r="Q512">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="513" spans="1:17">
+      <c r="A513" t="s">
+        <v>294</v>
+      </c>
+      <c r="B513" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P513">
+        <v>0</v>
+      </c>
+      <c r="Q513">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="514" spans="1:17">
+      <c r="A514" t="s">
+        <v>45</v>
+      </c>
+      <c r="B514" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P514">
+        <v>0</v>
+      </c>
+      <c r="Q514">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="515" spans="1:17">
+      <c r="A515" t="s">
+        <v>295</v>
+      </c>
+      <c r="B515" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P515">
+        <v>0</v>
+      </c>
+      <c r="Q515">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="516" spans="1:17">
+      <c r="A516" t="s">
+        <v>271</v>
+      </c>
+      <c r="B516" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P516">
+        <v>0</v>
+      </c>
+      <c r="Q516">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="517" spans="1:17">
+      <c r="A517" t="s">
+        <v>232</v>
+      </c>
+      <c r="B517" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P517">
+        <v>0</v>
+      </c>
+      <c r="Q517">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="518" spans="1:17">
+      <c r="A518" t="s">
+        <v>163</v>
+      </c>
+      <c r="B518" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P518">
+        <v>0</v>
+      </c>
+      <c r="Q518">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="519" spans="1:17">
+      <c r="A519" t="s">
+        <v>73</v>
+      </c>
+      <c r="B519" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P519">
+        <v>0</v>
+      </c>
+      <c r="Q519">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17">
+      <c r="A520" t="s">
+        <v>363</v>
+      </c>
+      <c r="B520" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P520">
+        <v>0</v>
+      </c>
+      <c r="Q520">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17">
+      <c r="A521" t="s">
+        <v>322</v>
+      </c>
+      <c r="B521" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P521">
+        <v>0</v>
+      </c>
+      <c r="Q521">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17">
+      <c r="A522" t="s">
+        <v>364</v>
+      </c>
+      <c r="B522" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P522">
+        <v>0</v>
+      </c>
+      <c r="Q522">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17">
+      <c r="A523" t="s">
+        <v>348</v>
+      </c>
+      <c r="B523" s="1">
+        <v>42338</v>
+      </c>
+      <c r="P523">
+        <v>0</v>
+      </c>
+      <c r="Q523">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q247"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NBA-predict/test/data/data.xlsx
+++ b/NBA-predict/test/data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="468">
   <si>
     <t>Team</t>
   </si>
@@ -1758,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q523"/>
+  <dimension ref="A1:Q741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L514" sqref="L514"/>
+    <sheetView tabSelected="1" topLeftCell="A730" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P733" sqref="P733:P741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18469,6 +18469,3058 @@
         <v>87</v>
       </c>
     </row>
+    <row r="524" spans="1:17">
+      <c r="A524" t="s">
+        <v>46</v>
+      </c>
+      <c r="B524" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P524">
+        <v>0</v>
+      </c>
+      <c r="Q524">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17">
+      <c r="A525" t="s">
+        <v>98</v>
+      </c>
+      <c r="B525" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P525">
+        <v>0</v>
+      </c>
+      <c r="Q525">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17">
+      <c r="A526" t="s">
+        <v>125</v>
+      </c>
+      <c r="B526" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P526">
+        <v>0</v>
+      </c>
+      <c r="Q526">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17">
+      <c r="A527" t="s">
+        <v>391</v>
+      </c>
+      <c r="B527" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P527">
+        <v>0</v>
+      </c>
+      <c r="Q527">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17">
+      <c r="A528" t="s">
+        <v>149</v>
+      </c>
+      <c r="B528" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P528">
+        <v>0</v>
+      </c>
+      <c r="Q528">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="529" spans="1:17">
+      <c r="A529" t="s">
+        <v>321</v>
+      </c>
+      <c r="B529" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P529">
+        <v>0</v>
+      </c>
+      <c r="Q529">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="530" spans="1:17">
+      <c r="A530" t="s">
+        <v>392</v>
+      </c>
+      <c r="B530" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P530">
+        <v>0</v>
+      </c>
+      <c r="Q530">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="531" spans="1:17">
+      <c r="A531" t="s">
+        <v>97</v>
+      </c>
+      <c r="B531" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P531">
+        <v>0</v>
+      </c>
+      <c r="Q531">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="532" spans="1:17">
+      <c r="A532" t="s">
+        <v>74</v>
+      </c>
+      <c r="B532" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P532">
+        <v>0</v>
+      </c>
+      <c r="Q532">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="533" spans="1:17">
+      <c r="A533" t="s">
+        <v>258</v>
+      </c>
+      <c r="B533" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P533">
+        <v>0</v>
+      </c>
+      <c r="Q533">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="534" spans="1:17">
+      <c r="A534" t="s">
+        <v>348</v>
+      </c>
+      <c r="B534" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P534">
+        <v>1</v>
+      </c>
+      <c r="Q534">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="535" spans="1:17">
+      <c r="A535" t="s">
+        <v>322</v>
+      </c>
+      <c r="B535" s="1">
+        <v>42339</v>
+      </c>
+      <c r="P535">
+        <v>1</v>
+      </c>
+      <c r="Q535">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="536" spans="1:17">
+      <c r="A536" t="s">
+        <v>178</v>
+      </c>
+      <c r="B536" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P536">
+        <v>0</v>
+      </c>
+      <c r="Q536">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="537" spans="1:17">
+      <c r="A537" t="s">
+        <v>73</v>
+      </c>
+      <c r="B537" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P537">
+        <v>0</v>
+      </c>
+      <c r="Q537">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="538" spans="1:17">
+      <c r="A538" t="s">
+        <v>98</v>
+      </c>
+      <c r="B538" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P538">
+        <v>0</v>
+      </c>
+      <c r="Q538">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="539" spans="1:17">
+      <c r="A539" t="s">
+        <v>391</v>
+      </c>
+      <c r="B539" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P539">
+        <v>0</v>
+      </c>
+      <c r="Q539">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17">
+      <c r="A540" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P540">
+        <v>1</v>
+      </c>
+      <c r="Q540">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17">
+      <c r="A541" t="s">
+        <v>321</v>
+      </c>
+      <c r="B541" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P541">
+        <v>1</v>
+      </c>
+      <c r="Q541">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17">
+      <c r="A542" t="s">
+        <v>272</v>
+      </c>
+      <c r="B542" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P542">
+        <v>0</v>
+      </c>
+      <c r="Q542">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="543" spans="1:17">
+      <c r="A543" t="s">
+        <v>125</v>
+      </c>
+      <c r="B543" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P543">
+        <v>0</v>
+      </c>
+      <c r="Q543">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="544" spans="1:17">
+      <c r="A544" t="s">
+        <v>17</v>
+      </c>
+      <c r="B544" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P544">
+        <v>0</v>
+      </c>
+      <c r="Q544">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17">
+      <c r="A545" t="s">
+        <v>204</v>
+      </c>
+      <c r="B545" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P545">
+        <v>0</v>
+      </c>
+      <c r="Q545">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17">
+      <c r="A546" t="s">
+        <v>45</v>
+      </c>
+      <c r="B546" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P546">
+        <v>0</v>
+      </c>
+      <c r="Q546">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17">
+      <c r="A547" t="s">
+        <v>232</v>
+      </c>
+      <c r="B547" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P547">
+        <v>0</v>
+      </c>
+      <c r="Q547">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17">
+      <c r="A548" t="s">
+        <v>231</v>
+      </c>
+      <c r="B548" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P548">
+        <v>0</v>
+      </c>
+      <c r="Q548">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17">
+      <c r="A549" t="s">
+        <v>74</v>
+      </c>
+      <c r="B549" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P549">
+        <v>0</v>
+      </c>
+      <c r="Q549">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17">
+      <c r="A550" t="s">
+        <v>295</v>
+      </c>
+      <c r="B550" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P550">
+        <v>0</v>
+      </c>
+      <c r="Q550">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17">
+      <c r="A551" t="s">
+        <v>271</v>
+      </c>
+      <c r="B551" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P551">
+        <v>0</v>
+      </c>
+      <c r="Q551">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17">
+      <c r="A552" t="s">
+        <v>364</v>
+      </c>
+      <c r="B552" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P552">
+        <v>0</v>
+      </c>
+      <c r="Q552">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17">
+      <c r="A553" t="s">
+        <v>205</v>
+      </c>
+      <c r="B553" s="1">
+        <v>42340</v>
+      </c>
+      <c r="P553">
+        <v>0</v>
+      </c>
+      <c r="Q553">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17">
+      <c r="A554" t="s">
+        <v>177</v>
+      </c>
+      <c r="B554" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P554">
+        <v>0</v>
+      </c>
+      <c r="Q554">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17">
+      <c r="A555" t="s">
+        <v>294</v>
+      </c>
+      <c r="B555" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P555">
+        <v>0</v>
+      </c>
+      <c r="Q555">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17">
+      <c r="A556" t="s">
+        <v>204</v>
+      </c>
+      <c r="B556" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P556">
+        <v>0</v>
+      </c>
+      <c r="Q556">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17">
+      <c r="A557" t="s">
+        <v>232</v>
+      </c>
+      <c r="B557" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P557">
+        <v>0</v>
+      </c>
+      <c r="Q557">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17">
+      <c r="A558" t="s">
+        <v>163</v>
+      </c>
+      <c r="B558" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P558">
+        <v>0</v>
+      </c>
+      <c r="Q558">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17">
+      <c r="A559" t="s">
+        <v>97</v>
+      </c>
+      <c r="B559" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P559">
+        <v>0</v>
+      </c>
+      <c r="Q559">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17">
+      <c r="A560" t="s">
+        <v>258</v>
+      </c>
+      <c r="B560" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P560">
+        <v>0</v>
+      </c>
+      <c r="Q560">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17">
+      <c r="A561" t="s">
+        <v>295</v>
+      </c>
+      <c r="B561" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P561">
+        <v>0</v>
+      </c>
+      <c r="Q561">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17">
+      <c r="A562" t="s">
+        <v>348</v>
+      </c>
+      <c r="B562" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P562">
+        <v>0</v>
+      </c>
+      <c r="Q562">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17">
+      <c r="A563" t="s">
+        <v>205</v>
+      </c>
+      <c r="B563" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P563">
+        <v>0</v>
+      </c>
+      <c r="Q563">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17">
+      <c r="A564" t="s">
+        <v>363</v>
+      </c>
+      <c r="B564" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P564">
+        <v>0</v>
+      </c>
+      <c r="Q564">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17">
+      <c r="A565" t="s">
+        <v>124</v>
+      </c>
+      <c r="B565" s="1">
+        <v>42341</v>
+      </c>
+      <c r="P565">
+        <v>0</v>
+      </c>
+      <c r="Q565">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17">
+      <c r="A566" t="s">
+        <v>272</v>
+      </c>
+      <c r="B566" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P566">
+        <v>0</v>
+      </c>
+      <c r="Q566">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17">
+      <c r="A567" t="s">
+        <v>149</v>
+      </c>
+      <c r="B567" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P567">
+        <v>0</v>
+      </c>
+      <c r="Q567">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17">
+      <c r="A568" t="s">
+        <v>98</v>
+      </c>
+      <c r="B568" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P568">
+        <v>0</v>
+      </c>
+      <c r="Q568">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17">
+      <c r="A569" t="s">
+        <v>321</v>
+      </c>
+      <c r="B569" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P569">
+        <v>0</v>
+      </c>
+      <c r="Q569">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17">
+      <c r="A570" t="s">
+        <v>18</v>
+      </c>
+      <c r="B570" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P570">
+        <v>0</v>
+      </c>
+      <c r="Q570">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17">
+      <c r="A571" t="s">
+        <v>271</v>
+      </c>
+      <c r="B571" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P571">
+        <v>0</v>
+      </c>
+      <c r="Q571">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17">
+      <c r="A572" t="s">
+        <v>17</v>
+      </c>
+      <c r="B572" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P572">
+        <v>0</v>
+      </c>
+      <c r="Q572">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17">
+      <c r="A573" t="s">
+        <v>391</v>
+      </c>
+      <c r="B573" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P573">
+        <v>0</v>
+      </c>
+      <c r="Q573">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="574" spans="1:17">
+      <c r="A574" t="s">
+        <v>322</v>
+      </c>
+      <c r="B574" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P574">
+        <v>0</v>
+      </c>
+      <c r="Q574">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="575" spans="1:17">
+      <c r="A575" t="s">
+        <v>231</v>
+      </c>
+      <c r="B575" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P575">
+        <v>0</v>
+      </c>
+      <c r="Q575">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="576" spans="1:17">
+      <c r="A576" t="s">
+        <v>74</v>
+      </c>
+      <c r="B576" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P576">
+        <v>1</v>
+      </c>
+      <c r="Q576">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="577" spans="1:17">
+      <c r="A577" t="s">
+        <v>46</v>
+      </c>
+      <c r="B577" s="1">
+        <v>42342</v>
+      </c>
+      <c r="P577">
+        <v>1</v>
+      </c>
+      <c r="Q577">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="578" spans="1:17">
+      <c r="A578" t="s">
+        <v>125</v>
+      </c>
+      <c r="B578" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P578">
+        <v>0</v>
+      </c>
+      <c r="Q578">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="579" spans="1:17">
+      <c r="A579" t="s">
+        <v>232</v>
+      </c>
+      <c r="B579" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P579">
+        <v>0</v>
+      </c>
+      <c r="Q579">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="580" spans="1:17">
+      <c r="A580" t="s">
+        <v>204</v>
+      </c>
+      <c r="B580" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P580">
+        <v>0</v>
+      </c>
+      <c r="Q580">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17">
+      <c r="A581" t="s">
+        <v>73</v>
+      </c>
+      <c r="B581" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P581">
+        <v>0</v>
+      </c>
+      <c r="Q581">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17">
+      <c r="A582" t="s">
+        <v>177</v>
+      </c>
+      <c r="B582" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P582">
+        <v>0</v>
+      </c>
+      <c r="Q582">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="583" spans="1:17">
+      <c r="A583" t="s">
+        <v>46</v>
+      </c>
+      <c r="B583" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P583">
+        <v>0</v>
+      </c>
+      <c r="Q583">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="584" spans="1:17">
+      <c r="A584" t="s">
+        <v>45</v>
+      </c>
+      <c r="B584" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P584">
+        <v>0</v>
+      </c>
+      <c r="Q584">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="585" spans="1:17">
+      <c r="A585" t="s">
+        <v>178</v>
+      </c>
+      <c r="B585" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P585">
+        <v>0</v>
+      </c>
+      <c r="Q585">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="586" spans="1:17">
+      <c r="A586" t="s">
+        <v>231</v>
+      </c>
+      <c r="B586" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P586">
+        <v>0</v>
+      </c>
+      <c r="Q586">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="587" spans="1:17">
+      <c r="A587" t="s">
+        <v>363</v>
+      </c>
+      <c r="B587" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P587">
+        <v>0</v>
+      </c>
+      <c r="Q587">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="588" spans="1:17">
+      <c r="A588" t="s">
+        <v>392</v>
+      </c>
+      <c r="B588" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P588">
+        <v>0</v>
+      </c>
+      <c r="Q588">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="589" spans="1:17">
+      <c r="A589" t="s">
+        <v>348</v>
+      </c>
+      <c r="B589" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P589">
+        <v>0</v>
+      </c>
+      <c r="Q589">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="590" spans="1:17">
+      <c r="A590" t="s">
+        <v>271</v>
+      </c>
+      <c r="B590" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P590">
+        <v>0</v>
+      </c>
+      <c r="Q590">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="591" spans="1:17">
+      <c r="A591" t="s">
+        <v>272</v>
+      </c>
+      <c r="B591" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P591">
+        <v>0</v>
+      </c>
+      <c r="Q591">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="592" spans="1:17">
+      <c r="A592" t="s">
+        <v>295</v>
+      </c>
+      <c r="B592" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P592">
+        <v>0</v>
+      </c>
+      <c r="Q592">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="593" spans="1:17">
+      <c r="A593" t="s">
+        <v>124</v>
+      </c>
+      <c r="B593" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P593">
+        <v>0</v>
+      </c>
+      <c r="Q593">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="594" spans="1:17">
+      <c r="A594" t="s">
+        <v>163</v>
+      </c>
+      <c r="B594" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P594">
+        <v>1</v>
+      </c>
+      <c r="Q594">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17">
+      <c r="A595" t="s">
+        <v>205</v>
+      </c>
+      <c r="B595" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P595">
+        <v>1</v>
+      </c>
+      <c r="Q595">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17">
+      <c r="A596" t="s">
+        <v>364</v>
+      </c>
+      <c r="B596" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P596">
+        <v>0</v>
+      </c>
+      <c r="Q596">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="597" spans="1:17">
+      <c r="A597" t="s">
+        <v>97</v>
+      </c>
+      <c r="B597" s="1">
+        <v>42343</v>
+      </c>
+      <c r="P597">
+        <v>0</v>
+      </c>
+      <c r="Q597">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="598" spans="1:17">
+      <c r="A598" t="s">
+        <v>258</v>
+      </c>
+      <c r="B598" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P598">
+        <v>0</v>
+      </c>
+      <c r="Q598">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="599" spans="1:17">
+      <c r="A599" t="s">
+        <v>321</v>
+      </c>
+      <c r="B599" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P599">
+        <v>0</v>
+      </c>
+      <c r="Q599">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="600" spans="1:17">
+      <c r="A600" t="s">
+        <v>149</v>
+      </c>
+      <c r="B600" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P600">
+        <v>0</v>
+      </c>
+      <c r="Q600">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="601" spans="1:17">
+      <c r="A601" t="s">
+        <v>73</v>
+      </c>
+      <c r="B601" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P601">
+        <v>0</v>
+      </c>
+      <c r="Q601">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="602" spans="1:17">
+      <c r="A602" t="s">
+        <v>18</v>
+      </c>
+      <c r="B602" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P602">
+        <v>0</v>
+      </c>
+      <c r="Q602">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="603" spans="1:17">
+      <c r="A603" t="s">
+        <v>391</v>
+      </c>
+      <c r="B603" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P603">
+        <v>0</v>
+      </c>
+      <c r="Q603">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="604" spans="1:17">
+      <c r="A604" t="s">
+        <v>98</v>
+      </c>
+      <c r="B604" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P604">
+        <v>0</v>
+      </c>
+      <c r="Q604">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="605" spans="1:17">
+      <c r="A605" t="s">
+        <v>322</v>
+      </c>
+      <c r="B605" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P605">
+        <v>0</v>
+      </c>
+      <c r="Q605">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="606" spans="1:17">
+      <c r="A606" t="s">
+        <v>294</v>
+      </c>
+      <c r="B606" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P606">
+        <v>0</v>
+      </c>
+      <c r="Q606">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="607" spans="1:17">
+      <c r="A607" t="s">
+        <v>363</v>
+      </c>
+      <c r="B607" s="1">
+        <v>42344</v>
+      </c>
+      <c r="P607">
+        <v>0</v>
+      </c>
+      <c r="Q607">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="608" spans="1:17">
+      <c r="A608" t="s">
+        <v>178</v>
+      </c>
+      <c r="B608" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P608">
+        <v>0</v>
+      </c>
+      <c r="Q608">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17">
+      <c r="A609" t="s">
+        <v>18</v>
+      </c>
+      <c r="B609" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P609">
+        <v>0</v>
+      </c>
+      <c r="Q609">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17">
+      <c r="A610" t="s">
+        <v>125</v>
+      </c>
+      <c r="B610" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P610">
+        <v>0</v>
+      </c>
+      <c r="Q610">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17">
+      <c r="A611" t="s">
+        <v>295</v>
+      </c>
+      <c r="B611" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P611">
+        <v>0</v>
+      </c>
+      <c r="Q611">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17">
+      <c r="A612" t="s">
+        <v>177</v>
+      </c>
+      <c r="B612" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P612">
+        <v>0</v>
+      </c>
+      <c r="Q612">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17">
+      <c r="A613" t="s">
+        <v>98</v>
+      </c>
+      <c r="B613" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P613">
+        <v>0</v>
+      </c>
+      <c r="Q613">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17">
+      <c r="A614" t="s">
+        <v>272</v>
+      </c>
+      <c r="B614" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P614">
+        <v>0</v>
+      </c>
+      <c r="Q614">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17">
+      <c r="A615" t="s">
+        <v>322</v>
+      </c>
+      <c r="B615" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P615">
+        <v>0</v>
+      </c>
+      <c r="Q615">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17">
+      <c r="A616" t="s">
+        <v>204</v>
+      </c>
+      <c r="B616" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P616">
+        <v>0</v>
+      </c>
+      <c r="Q616">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17">
+      <c r="A617" t="s">
+        <v>391</v>
+      </c>
+      <c r="B617" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P617">
+        <v>0</v>
+      </c>
+      <c r="Q617">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="618" spans="1:17">
+      <c r="A618" t="s">
+        <v>45</v>
+      </c>
+      <c r="B618" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P618">
+        <v>0</v>
+      </c>
+      <c r="Q618">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="619" spans="1:17">
+      <c r="A619" t="s">
+        <v>321</v>
+      </c>
+      <c r="B619" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P619">
+        <v>0</v>
+      </c>
+      <c r="Q619">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17">
+      <c r="A620" t="s">
+        <v>271</v>
+      </c>
+      <c r="B620" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P620">
+        <v>0</v>
+      </c>
+      <c r="Q620">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17">
+      <c r="A621" t="s">
+        <v>348</v>
+      </c>
+      <c r="B621" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P621">
+        <v>0</v>
+      </c>
+      <c r="Q621">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17">
+      <c r="A622" t="s">
+        <v>392</v>
+      </c>
+      <c r="B622" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P622">
+        <v>0</v>
+      </c>
+      <c r="Q622">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17">
+      <c r="A623" t="s">
+        <v>364</v>
+      </c>
+      <c r="B623" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P623">
+        <v>0</v>
+      </c>
+      <c r="Q623">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17">
+      <c r="A624" t="s">
+        <v>74</v>
+      </c>
+      <c r="B624" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P624">
+        <v>0</v>
+      </c>
+      <c r="Q624">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="625" spans="1:17">
+      <c r="A625" t="s">
+        <v>124</v>
+      </c>
+      <c r="B625" s="1">
+        <v>42345</v>
+      </c>
+      <c r="P625">
+        <v>0</v>
+      </c>
+      <c r="Q625">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="626" spans="1:17">
+      <c r="A626" t="s">
+        <v>46</v>
+      </c>
+      <c r="B626" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P626">
+        <v>0</v>
+      </c>
+      <c r="Q626">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17">
+      <c r="A627" t="s">
+        <v>348</v>
+      </c>
+      <c r="B627" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P627">
+        <v>0</v>
+      </c>
+      <c r="Q627">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17">
+      <c r="A628" t="s">
+        <v>205</v>
+      </c>
+      <c r="B628" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P628">
+        <v>0</v>
+      </c>
+      <c r="Q628">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17">
+      <c r="A629" t="s">
+        <v>73</v>
+      </c>
+      <c r="B629" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P629">
+        <v>0</v>
+      </c>
+      <c r="Q629">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17">
+      <c r="A630" t="s">
+        <v>149</v>
+      </c>
+      <c r="B630" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P630">
+        <v>0</v>
+      </c>
+      <c r="Q630">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="631" spans="1:17">
+      <c r="A631" t="s">
+        <v>231</v>
+      </c>
+      <c r="B631" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P631">
+        <v>0</v>
+      </c>
+      <c r="Q631">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="632" spans="1:17">
+      <c r="A632" t="s">
+        <v>258</v>
+      </c>
+      <c r="B632" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P632">
+        <v>0</v>
+      </c>
+      <c r="Q632">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="633" spans="1:17">
+      <c r="A633" t="s">
+        <v>294</v>
+      </c>
+      <c r="B633" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P633">
+        <v>0</v>
+      </c>
+      <c r="Q633">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="634" spans="1:17">
+      <c r="A634" t="s">
+        <v>232</v>
+      </c>
+      <c r="B634" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P634">
+        <v>0</v>
+      </c>
+      <c r="Q634">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="635" spans="1:17">
+      <c r="A635" t="s">
+        <v>97</v>
+      </c>
+      <c r="B635" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P635">
+        <v>0</v>
+      </c>
+      <c r="Q635">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="636" spans="1:17">
+      <c r="A636" t="s">
+        <v>363</v>
+      </c>
+      <c r="B636" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P636">
+        <v>0</v>
+      </c>
+      <c r="Q636">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="637" spans="1:17">
+      <c r="A637" t="s">
+        <v>163</v>
+      </c>
+      <c r="B637" s="1">
+        <v>42346</v>
+      </c>
+      <c r="P637">
+        <v>0</v>
+      </c>
+      <c r="Q637">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="638" spans="1:17">
+      <c r="A638" t="s">
+        <v>124</v>
+      </c>
+      <c r="B638" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P638">
+        <v>0</v>
+      </c>
+      <c r="Q638">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="639" spans="1:17">
+      <c r="A639" t="s">
+        <v>45</v>
+      </c>
+      <c r="B639" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P639">
+        <v>0</v>
+      </c>
+      <c r="Q639">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="640" spans="1:17">
+      <c r="A640" t="s">
+        <v>178</v>
+      </c>
+      <c r="B640" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P640">
+        <v>0</v>
+      </c>
+      <c r="Q640">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="641" spans="1:17">
+      <c r="A641" t="s">
+        <v>177</v>
+      </c>
+      <c r="B641" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P641">
+        <v>0</v>
+      </c>
+      <c r="Q641">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="642" spans="1:17">
+      <c r="A642" t="s">
+        <v>98</v>
+      </c>
+      <c r="B642" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P642">
+        <v>0</v>
+      </c>
+      <c r="Q642">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="643" spans="1:17">
+      <c r="A643" t="s">
+        <v>231</v>
+      </c>
+      <c r="B643" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P643">
+        <v>0</v>
+      </c>
+      <c r="Q643">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="644" spans="1:17">
+      <c r="A644" t="s">
+        <v>18</v>
+      </c>
+      <c r="B644" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P644">
+        <v>0</v>
+      </c>
+      <c r="Q644">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="645" spans="1:17">
+      <c r="A645" t="s">
+        <v>258</v>
+      </c>
+      <c r="B645" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P645">
+        <v>0</v>
+      </c>
+      <c r="Q645">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="646" spans="1:17">
+      <c r="A646" t="s">
+        <v>204</v>
+      </c>
+      <c r="B646" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P646">
+        <v>0</v>
+      </c>
+      <c r="Q646">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="647" spans="1:17">
+      <c r="A647" t="s">
+        <v>295</v>
+      </c>
+      <c r="B647" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P647">
+        <v>0</v>
+      </c>
+      <c r="Q647">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="648" spans="1:17">
+      <c r="A648" t="s">
+        <v>271</v>
+      </c>
+      <c r="B648" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P648">
+        <v>0</v>
+      </c>
+      <c r="Q648">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="649" spans="1:17">
+      <c r="A649" t="s">
+        <v>364</v>
+      </c>
+      <c r="B649" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P649">
+        <v>0</v>
+      </c>
+      <c r="Q649">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="650" spans="1:17">
+      <c r="A650" t="s">
+        <v>392</v>
+      </c>
+      <c r="B650" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P650">
+        <v>1</v>
+      </c>
+      <c r="Q650">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="651" spans="1:17">
+      <c r="A651" t="s">
+        <v>391</v>
+      </c>
+      <c r="B651" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P651">
+        <v>1</v>
+      </c>
+      <c r="Q651">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="652" spans="1:17">
+      <c r="A652" t="s">
+        <v>321</v>
+      </c>
+      <c r="B652" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P652">
+        <v>0</v>
+      </c>
+      <c r="Q652">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="653" spans="1:17">
+      <c r="A653" t="s">
+        <v>97</v>
+      </c>
+      <c r="B653" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P653">
+        <v>0</v>
+      </c>
+      <c r="Q653">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="654" spans="1:17">
+      <c r="A654" t="s">
+        <v>163</v>
+      </c>
+      <c r="B654" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P654">
+        <v>0</v>
+      </c>
+      <c r="Q654">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="655" spans="1:17">
+      <c r="A655" t="s">
+        <v>272</v>
+      </c>
+      <c r="B655" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P655">
+        <v>0</v>
+      </c>
+      <c r="Q655">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="656" spans="1:17">
+      <c r="A656" t="s">
+        <v>322</v>
+      </c>
+      <c r="B656" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P656">
+        <v>0</v>
+      </c>
+      <c r="Q656">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="657" spans="1:17">
+      <c r="A657" t="s">
+        <v>17</v>
+      </c>
+      <c r="B657" s="1">
+        <v>42347</v>
+      </c>
+      <c r="P657">
+        <v>0</v>
+      </c>
+      <c r="Q657">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="658" spans="1:17">
+      <c r="A658" t="s">
+        <v>149</v>
+      </c>
+      <c r="B658" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P658">
+        <v>0</v>
+      </c>
+      <c r="Q658">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="659" spans="1:17">
+      <c r="A659" t="s">
+        <v>125</v>
+      </c>
+      <c r="B659" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P659">
+        <v>0</v>
+      </c>
+      <c r="Q659">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="660" spans="1:17">
+      <c r="A660" t="s">
+        <v>45</v>
+      </c>
+      <c r="B660" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P660">
+        <v>0</v>
+      </c>
+      <c r="Q660">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="661" spans="1:17">
+      <c r="A661" t="s">
+        <v>364</v>
+      </c>
+      <c r="B661" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P661">
+        <v>0</v>
+      </c>
+      <c r="Q661">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="662" spans="1:17">
+      <c r="A662" t="s">
+        <v>294</v>
+      </c>
+      <c r="B662" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P662">
+        <v>0</v>
+      </c>
+      <c r="Q662">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="663" spans="1:17">
+      <c r="A663" t="s">
+        <v>17</v>
+      </c>
+      <c r="B663" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P663">
+        <v>0</v>
+      </c>
+      <c r="Q663">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="664" spans="1:17">
+      <c r="A664" t="s">
+        <v>363</v>
+      </c>
+      <c r="B664" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P664">
+        <v>0</v>
+      </c>
+      <c r="Q664">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="665" spans="1:17">
+      <c r="A665" t="s">
+        <v>272</v>
+      </c>
+      <c r="B665" s="1">
+        <v>42348</v>
+      </c>
+      <c r="P665">
+        <v>0</v>
+      </c>
+      <c r="Q665">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="666" spans="1:17">
+      <c r="A666" t="s">
+        <v>205</v>
+      </c>
+      <c r="B666" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P666">
+        <v>0</v>
+      </c>
+      <c r="Q666">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="667" spans="1:17">
+      <c r="A667" t="s">
+        <v>177</v>
+      </c>
+      <c r="B667" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P667">
+        <v>0</v>
+      </c>
+      <c r="Q667">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="668" spans="1:17">
+      <c r="A668" t="s">
+        <v>97</v>
+      </c>
+      <c r="B668" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P668">
+        <v>0</v>
+      </c>
+      <c r="Q668">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="669" spans="1:17">
+      <c r="A669" t="s">
+        <v>46</v>
+      </c>
+      <c r="B669" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P669">
+        <v>0</v>
+      </c>
+      <c r="Q669">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="670" spans="1:17">
+      <c r="A670" t="s">
+        <v>125</v>
+      </c>
+      <c r="B670" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P670">
+        <v>0</v>
+      </c>
+      <c r="Q670">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="671" spans="1:17">
+      <c r="A671" t="s">
+        <v>18</v>
+      </c>
+      <c r="B671" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P671">
+        <v>0</v>
+      </c>
+      <c r="Q671">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="672" spans="1:17">
+      <c r="A672" t="s">
+        <v>124</v>
+      </c>
+      <c r="B672" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P672">
+        <v>2</v>
+      </c>
+      <c r="Q672">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="673" spans="1:17">
+      <c r="A673" t="s">
+        <v>73</v>
+      </c>
+      <c r="B673" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P673">
+        <v>2</v>
+      </c>
+      <c r="Q673">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="674" spans="1:17">
+      <c r="A674" t="s">
+        <v>204</v>
+      </c>
+      <c r="B674" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P674">
+        <v>0</v>
+      </c>
+      <c r="Q674">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="675" spans="1:17">
+      <c r="A675" t="s">
+        <v>271</v>
+      </c>
+      <c r="B675" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P675">
+        <v>0</v>
+      </c>
+      <c r="Q675">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="676" spans="1:17">
+      <c r="A676" t="s">
+        <v>258</v>
+      </c>
+      <c r="B676" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P676">
+        <v>0</v>
+      </c>
+      <c r="Q676">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="677" spans="1:17">
+      <c r="A677" t="s">
+        <v>178</v>
+      </c>
+      <c r="B677" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P677">
+        <v>0</v>
+      </c>
+      <c r="Q677">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="678" spans="1:17">
+      <c r="A678" t="s">
+        <v>74</v>
+      </c>
+      <c r="B678" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P678">
+        <v>0</v>
+      </c>
+      <c r="Q678">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="679" spans="1:17">
+      <c r="A679" t="s">
+        <v>98</v>
+      </c>
+      <c r="B679" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P679">
+        <v>0</v>
+      </c>
+      <c r="Q679">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="680" spans="1:17">
+      <c r="A680" t="s">
+        <v>232</v>
+      </c>
+      <c r="B680" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P680">
+        <v>1</v>
+      </c>
+      <c r="Q680">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="681" spans="1:17">
+      <c r="A681" t="s">
+        <v>392</v>
+      </c>
+      <c r="B681" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P681">
+        <v>1</v>
+      </c>
+      <c r="Q681">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="682" spans="1:17">
+      <c r="A682" t="s">
+        <v>163</v>
+      </c>
+      <c r="B682" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P682">
+        <v>0</v>
+      </c>
+      <c r="Q682">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="683" spans="1:17">
+      <c r="A683" t="s">
+        <v>294</v>
+      </c>
+      <c r="B683" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P683">
+        <v>0</v>
+      </c>
+      <c r="Q683">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="684" spans="1:17">
+      <c r="A684" t="s">
+        <v>295</v>
+      </c>
+      <c r="B684" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P684">
+        <v>0</v>
+      </c>
+      <c r="Q684">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="685" spans="1:17">
+      <c r="A685" t="s">
+        <v>391</v>
+      </c>
+      <c r="B685" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P685">
+        <v>0</v>
+      </c>
+      <c r="Q685">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="686" spans="1:17">
+      <c r="A686" t="s">
+        <v>321</v>
+      </c>
+      <c r="B686" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P686">
+        <v>0</v>
+      </c>
+      <c r="Q686">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="687" spans="1:17">
+      <c r="A687" t="s">
+        <v>348</v>
+      </c>
+      <c r="B687" s="1">
+        <v>42349</v>
+      </c>
+      <c r="P687">
+        <v>0</v>
+      </c>
+      <c r="Q687">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="688" spans="1:17">
+      <c r="A688" t="s">
+        <v>149</v>
+      </c>
+      <c r="B688" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P688">
+        <v>0</v>
+      </c>
+      <c r="Q688">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="689" spans="1:17">
+      <c r="A689" t="s">
+        <v>364</v>
+      </c>
+      <c r="B689" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P689">
+        <v>0</v>
+      </c>
+      <c r="Q689">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="690" spans="1:17">
+      <c r="A690" t="s">
+        <v>178</v>
+      </c>
+      <c r="B690" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P690">
+        <v>0</v>
+      </c>
+      <c r="Q690">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="691" spans="1:17">
+      <c r="A691" t="s">
+        <v>124</v>
+      </c>
+      <c r="B691" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P691">
+        <v>0</v>
+      </c>
+      <c r="Q691">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="692" spans="1:17">
+      <c r="A692" t="s">
+        <v>18</v>
+      </c>
+      <c r="B692" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P692">
+        <v>0</v>
+      </c>
+      <c r="Q692">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="693" spans="1:17">
+      <c r="A693" t="s">
+        <v>205</v>
+      </c>
+      <c r="B693" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P693">
+        <v>0</v>
+      </c>
+      <c r="Q693">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="694" spans="1:17">
+      <c r="A694" t="s">
+        <v>17</v>
+      </c>
+      <c r="B694" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P694">
+        <v>0</v>
+      </c>
+      <c r="Q694">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="695" spans="1:17">
+      <c r="A695" t="s">
+        <v>295</v>
+      </c>
+      <c r="B695" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P695">
+        <v>0</v>
+      </c>
+      <c r="Q695">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="696" spans="1:17">
+      <c r="A696" t="s">
+        <v>45</v>
+      </c>
+      <c r="B696" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P696">
+        <v>0</v>
+      </c>
+      <c r="Q696">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="697" spans="1:17">
+      <c r="A697" t="s">
+        <v>74</v>
+      </c>
+      <c r="B697" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P697">
+        <v>0</v>
+      </c>
+      <c r="Q697">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="698" spans="1:17">
+      <c r="A698" t="s">
+        <v>231</v>
+      </c>
+      <c r="B698" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P698">
+        <v>0</v>
+      </c>
+      <c r="Q698">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="699" spans="1:17">
+      <c r="A699" t="s">
+        <v>391</v>
+      </c>
+      <c r="B699" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P699">
+        <v>0</v>
+      </c>
+      <c r="Q699">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="700" spans="1:17">
+      <c r="A700" t="s">
+        <v>322</v>
+      </c>
+      <c r="B700" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P700">
+        <v>0</v>
+      </c>
+      <c r="Q700">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="701" spans="1:17">
+      <c r="A701" t="s">
+        <v>98</v>
+      </c>
+      <c r="B701" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P701">
+        <v>0</v>
+      </c>
+      <c r="Q701">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="702" spans="1:17">
+      <c r="A702" t="s">
+        <v>271</v>
+      </c>
+      <c r="B702" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P702">
+        <v>0</v>
+      </c>
+      <c r="Q702">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="703" spans="1:17">
+      <c r="A703" t="s">
+        <v>73</v>
+      </c>
+      <c r="B703" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P703">
+        <v>0</v>
+      </c>
+      <c r="Q703">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="704" spans="1:17">
+      <c r="A704" t="s">
+        <v>348</v>
+      </c>
+      <c r="B704" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P704">
+        <v>0</v>
+      </c>
+      <c r="Q704">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="705" spans="1:17">
+      <c r="A705" t="s">
+        <v>272</v>
+      </c>
+      <c r="B705" s="1">
+        <v>42350</v>
+      </c>
+      <c r="P705">
+        <v>0</v>
+      </c>
+      <c r="Q705">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="706" spans="1:17">
+      <c r="A706" t="s">
+        <v>321</v>
+      </c>
+      <c r="B706" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P706">
+        <v>0</v>
+      </c>
+      <c r="Q706">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="707" spans="1:17">
+      <c r="A707" t="s">
+        <v>392</v>
+      </c>
+      <c r="B707" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P707">
+        <v>0</v>
+      </c>
+      <c r="Q707">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="708" spans="1:17">
+      <c r="A708" t="s">
+        <v>177</v>
+      </c>
+      <c r="B708" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P708">
+        <v>0</v>
+      </c>
+      <c r="Q708">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="709" spans="1:17">
+      <c r="A709" t="s">
+        <v>258</v>
+      </c>
+      <c r="B709" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P709">
+        <v>0</v>
+      </c>
+      <c r="Q709">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="710" spans="1:17">
+      <c r="A710" t="s">
+        <v>204</v>
+      </c>
+      <c r="B710" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P710">
+        <v>0</v>
+      </c>
+      <c r="Q710">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="711" spans="1:17">
+      <c r="A711" t="s">
+        <v>125</v>
+      </c>
+      <c r="B711" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P711">
+        <v>0</v>
+      </c>
+      <c r="Q711">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="712" spans="1:17">
+      <c r="A712" t="s">
+        <v>294</v>
+      </c>
+      <c r="B712" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P712">
+        <v>1</v>
+      </c>
+      <c r="Q712">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="713" spans="1:17">
+      <c r="A713" t="s">
+        <v>163</v>
+      </c>
+      <c r="B713" s="1">
+        <v>42351</v>
+      </c>
+      <c r="P713">
+        <v>1</v>
+      </c>
+      <c r="Q713">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="714" spans="1:17">
+      <c r="A714" t="s">
+        <v>205</v>
+      </c>
+      <c r="B714" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P714">
+        <v>0</v>
+      </c>
+      <c r="Q714">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="715" spans="1:17">
+      <c r="A715" t="s">
+        <v>204</v>
+      </c>
+      <c r="B715" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P715">
+        <v>0</v>
+      </c>
+      <c r="Q715">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="716" spans="1:17">
+      <c r="A716" t="s">
+        <v>149</v>
+      </c>
+      <c r="B716" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P716">
+        <v>0</v>
+      </c>
+      <c r="Q716">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="717" spans="1:17">
+      <c r="A717" t="s">
+        <v>97</v>
+      </c>
+      <c r="B717" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P717">
+        <v>0</v>
+      </c>
+      <c r="Q717">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="718" spans="1:17">
+      <c r="A718" t="s">
+        <v>18</v>
+      </c>
+      <c r="B718" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P718">
+        <v>1</v>
+      </c>
+      <c r="Q718">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="719" spans="1:17">
+      <c r="A719" t="s">
+        <v>364</v>
+      </c>
+      <c r="B719" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P719">
+        <v>1</v>
+      </c>
+      <c r="Q719">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="720" spans="1:17">
+      <c r="A720" t="s">
+        <v>17</v>
+      </c>
+      <c r="B720" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P720">
+        <v>0</v>
+      </c>
+      <c r="Q720">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="721" spans="1:17">
+      <c r="A721" t="s">
+        <v>177</v>
+      </c>
+      <c r="B721" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P721">
+        <v>0</v>
+      </c>
+      <c r="Q721">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="722" spans="1:17">
+      <c r="A722" t="s">
+        <v>45</v>
+      </c>
+      <c r="B722" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P722">
+        <v>0</v>
+      </c>
+      <c r="Q722">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="723" spans="1:17">
+      <c r="A723" t="s">
+        <v>125</v>
+      </c>
+      <c r="B723" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P723">
+        <v>0</v>
+      </c>
+      <c r="Q723">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="724" spans="1:17">
+      <c r="A724" t="s">
+        <v>258</v>
+      </c>
+      <c r="B724" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P724">
+        <v>0</v>
+      </c>
+      <c r="Q724">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="725" spans="1:17">
+      <c r="A725" t="s">
+        <v>98</v>
+      </c>
+      <c r="B725" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P725">
+        <v>0</v>
+      </c>
+      <c r="Q725">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="726" spans="1:17">
+      <c r="A726" t="s">
+        <v>322</v>
+      </c>
+      <c r="B726" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P726">
+        <v>0</v>
+      </c>
+      <c r="Q726">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="727" spans="1:17">
+      <c r="A727" t="s">
+        <v>321</v>
+      </c>
+      <c r="B727" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P727">
+        <v>0</v>
+      </c>
+      <c r="Q727">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="728" spans="1:17">
+      <c r="A728" t="s">
+        <v>295</v>
+      </c>
+      <c r="B728" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P728">
+        <v>0</v>
+      </c>
+      <c r="Q728">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="729" spans="1:17">
+      <c r="A729" t="s">
+        <v>163</v>
+      </c>
+      <c r="B729" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P729">
+        <v>0</v>
+      </c>
+      <c r="Q729">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="730" spans="1:17">
+      <c r="A730" t="s">
+        <v>232</v>
+      </c>
+      <c r="B730" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P730">
+        <v>0</v>
+      </c>
+      <c r="Q730">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="731" spans="1:17">
+      <c r="A731" t="s">
+        <v>231</v>
+      </c>
+      <c r="B731" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P731">
+        <v>0</v>
+      </c>
+      <c r="Q731">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="732" spans="1:17">
+      <c r="A732" t="s">
+        <v>348</v>
+      </c>
+      <c r="B732" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P732">
+        <v>0</v>
+      </c>
+      <c r="Q732">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="733" spans="1:17">
+      <c r="A733" t="s">
+        <v>74</v>
+      </c>
+      <c r="B733" s="1">
+        <v>42352</v>
+      </c>
+      <c r="P733">
+        <v>0</v>
+      </c>
+      <c r="Q733">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="734" spans="1:17">
+      <c r="A734" t="s">
+        <v>124</v>
+      </c>
+      <c r="B734" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P734">
+        <v>0</v>
+      </c>
+      <c r="Q734">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="735" spans="1:17">
+      <c r="A735" t="s">
+        <v>46</v>
+      </c>
+      <c r="B735" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P735">
+        <v>0</v>
+      </c>
+      <c r="Q735">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="736" spans="1:17">
+      <c r="A736" t="s">
+        <v>392</v>
+      </c>
+      <c r="B736" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P736">
+        <v>0</v>
+      </c>
+      <c r="Q736">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="737" spans="1:17">
+      <c r="A737" t="s">
+        <v>232</v>
+      </c>
+      <c r="B737" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P737">
+        <v>0</v>
+      </c>
+      <c r="Q737">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="738" spans="1:17">
+      <c r="A738" t="s">
+        <v>363</v>
+      </c>
+      <c r="B738" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P738">
+        <v>0</v>
+      </c>
+      <c r="Q738">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="739" spans="1:17">
+      <c r="A739" t="s">
+        <v>231</v>
+      </c>
+      <c r="B739" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P739">
+        <v>0</v>
+      </c>
+      <c r="Q739">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="740" spans="1:17">
+      <c r="A740" t="s">
+        <v>391</v>
+      </c>
+      <c r="B740" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P740">
+        <v>0</v>
+      </c>
+      <c r="Q740">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="741" spans="1:17">
+      <c r="A741" t="s">
+        <v>271</v>
+      </c>
+      <c r="B741" s="1">
+        <v>42353</v>
+      </c>
+      <c r="P741">
+        <v>0</v>
+      </c>
+      <c r="Q741">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q247"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NBA-predict/test/data/data.xlsx
+++ b/NBA-predict/test/data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="468">
   <si>
     <t>Team</t>
   </si>
@@ -1758,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q741"/>
+  <dimension ref="A1:Q979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P733" sqref="P733:P741"/>
+    <sheetView tabSelected="1" topLeftCell="A967" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B979" sqref="B979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21521,6 +21521,3338 @@
         <v>95</v>
       </c>
     </row>
+    <row r="742" spans="1:17">
+      <c r="A742" t="s">
+        <v>205</v>
+      </c>
+      <c r="B742" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P742">
+        <v>0</v>
+      </c>
+      <c r="Q742">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="743" spans="1:17">
+      <c r="A743" t="s">
+        <v>322</v>
+      </c>
+      <c r="B743" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P743">
+        <v>0</v>
+      </c>
+      <c r="Q743">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="744" spans="1:17">
+      <c r="A744" t="s">
+        <v>97</v>
+      </c>
+      <c r="B744" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P744">
+        <v>0</v>
+      </c>
+      <c r="Q744">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="745" spans="1:17">
+      <c r="A745" t="s">
+        <v>178</v>
+      </c>
+      <c r="B745" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P745">
+        <v>0</v>
+      </c>
+      <c r="Q745">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="746" spans="1:17">
+      <c r="A746" t="s">
+        <v>149</v>
+      </c>
+      <c r="B746" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P746">
+        <v>0</v>
+      </c>
+      <c r="Q746">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="747" spans="1:17">
+      <c r="A747" t="s">
+        <v>177</v>
+      </c>
+      <c r="B747" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P747">
+        <v>0</v>
+      </c>
+      <c r="Q747">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="748" spans="1:17">
+      <c r="A748" t="s">
+        <v>18</v>
+      </c>
+      <c r="B748" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P748">
+        <v>0</v>
+      </c>
+      <c r="Q748">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="749" spans="1:17">
+      <c r="A749" t="s">
+        <v>124</v>
+      </c>
+      <c r="B749" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P749">
+        <v>0</v>
+      </c>
+      <c r="Q749">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="750" spans="1:17">
+      <c r="A750" t="s">
+        <v>272</v>
+      </c>
+      <c r="B750" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P750">
+        <v>0</v>
+      </c>
+      <c r="Q750">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="751" spans="1:17">
+      <c r="A751" t="s">
+        <v>392</v>
+      </c>
+      <c r="B751" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P751">
+        <v>0</v>
+      </c>
+      <c r="Q751">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="752" spans="1:17">
+      <c r="A752" t="s">
+        <v>17</v>
+      </c>
+      <c r="B752" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P752">
+        <v>0</v>
+      </c>
+      <c r="Q752">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="753" spans="1:17">
+      <c r="A753" t="s">
+        <v>125</v>
+      </c>
+      <c r="B753" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P753">
+        <v>0</v>
+      </c>
+      <c r="Q753">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="754" spans="1:17">
+      <c r="A754" t="s">
+        <v>45</v>
+      </c>
+      <c r="B754" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P754">
+        <v>0</v>
+      </c>
+      <c r="Q754">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="755" spans="1:17">
+      <c r="A755" t="s">
+        <v>258</v>
+      </c>
+      <c r="B755" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P755">
+        <v>0</v>
+      </c>
+      <c r="Q755">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="756" spans="1:17">
+      <c r="A756" t="s">
+        <v>294</v>
+      </c>
+      <c r="B756" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P756">
+        <v>0</v>
+      </c>
+      <c r="Q756">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="757" spans="1:17">
+      <c r="A757" t="s">
+        <v>348</v>
+      </c>
+      <c r="B757" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P757">
+        <v>0</v>
+      </c>
+      <c r="Q757">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="758" spans="1:17">
+      <c r="A758" t="s">
+        <v>295</v>
+      </c>
+      <c r="B758" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P758">
+        <v>0</v>
+      </c>
+      <c r="Q758">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="759" spans="1:17">
+      <c r="A759" t="s">
+        <v>98</v>
+      </c>
+      <c r="B759" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P759">
+        <v>0</v>
+      </c>
+      <c r="Q759">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="760" spans="1:17">
+      <c r="A760" t="s">
+        <v>163</v>
+      </c>
+      <c r="B760" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P760">
+        <v>0</v>
+      </c>
+      <c r="Q760">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="761" spans="1:17">
+      <c r="A761" t="s">
+        <v>74</v>
+      </c>
+      <c r="B761" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P761">
+        <v>0</v>
+      </c>
+      <c r="Q761">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="762" spans="1:17">
+      <c r="A762" t="s">
+        <v>73</v>
+      </c>
+      <c r="B762" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P762">
+        <v>0</v>
+      </c>
+      <c r="Q762">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="763" spans="1:17">
+      <c r="A763" t="s">
+        <v>321</v>
+      </c>
+      <c r="B763" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P763">
+        <v>0</v>
+      </c>
+      <c r="Q763">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="764" spans="1:17">
+      <c r="A764" t="s">
+        <v>364</v>
+      </c>
+      <c r="B764" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P764">
+        <v>0</v>
+      </c>
+      <c r="Q764">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="765" spans="1:17">
+      <c r="A765" t="s">
+        <v>271</v>
+      </c>
+      <c r="B765" s="1">
+        <v>42354</v>
+      </c>
+      <c r="P765">
+        <v>0</v>
+      </c>
+      <c r="Q765">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="766" spans="1:17">
+      <c r="A766" t="s">
+        <v>178</v>
+      </c>
+      <c r="B766" s="1">
+        <v>42355</v>
+      </c>
+      <c r="P766">
+        <v>1</v>
+      </c>
+      <c r="Q766">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="767" spans="1:17">
+      <c r="A767" t="s">
+        <v>204</v>
+      </c>
+      <c r="B767" s="1">
+        <v>42355</v>
+      </c>
+      <c r="P767">
+        <v>1</v>
+      </c>
+      <c r="Q767">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="768" spans="1:17">
+      <c r="A768" t="s">
+        <v>46</v>
+      </c>
+      <c r="B768" s="1">
+        <v>42355</v>
+      </c>
+      <c r="P768">
+        <v>0</v>
+      </c>
+      <c r="Q768">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="769" spans="1:17">
+      <c r="A769" t="s">
+        <v>294</v>
+      </c>
+      <c r="B769" s="1">
+        <v>42355</v>
+      </c>
+      <c r="P769">
+        <v>0</v>
+      </c>
+      <c r="Q769">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="770" spans="1:17">
+      <c r="A770" t="s">
+        <v>391</v>
+      </c>
+      <c r="B770" s="1">
+        <v>42355</v>
+      </c>
+      <c r="P770">
+        <v>0</v>
+      </c>
+      <c r="Q770">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="771" spans="1:17">
+      <c r="A771" t="s">
+        <v>231</v>
+      </c>
+      <c r="B771" s="1">
+        <v>42355</v>
+      </c>
+      <c r="P771">
+        <v>0</v>
+      </c>
+      <c r="Q771">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="772" spans="1:17">
+      <c r="A772" t="s">
+        <v>205</v>
+      </c>
+      <c r="B772" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P772">
+        <v>0</v>
+      </c>
+      <c r="Q772">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="773" spans="1:17">
+      <c r="A773" t="s">
+        <v>149</v>
+      </c>
+      <c r="B773" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P773">
+        <v>0</v>
+      </c>
+      <c r="Q773">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="774" spans="1:17">
+      <c r="A774" t="s">
+        <v>97</v>
+      </c>
+      <c r="B774" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P774">
+        <v>0</v>
+      </c>
+      <c r="Q774">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="775" spans="1:17">
+      <c r="A775" t="s">
+        <v>348</v>
+      </c>
+      <c r="B775" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P775">
+        <v>0</v>
+      </c>
+      <c r="Q775">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="776" spans="1:17">
+      <c r="A776" t="s">
+        <v>125</v>
+      </c>
+      <c r="B776" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P776">
+        <v>0</v>
+      </c>
+      <c r="Q776">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="777" spans="1:17">
+      <c r="A777" t="s">
+        <v>272</v>
+      </c>
+      <c r="B777" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P777">
+        <v>0</v>
+      </c>
+      <c r="Q777">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="778" spans="1:17">
+      <c r="A778" t="s">
+        <v>124</v>
+      </c>
+      <c r="B778" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P778">
+        <v>0</v>
+      </c>
+      <c r="Q778">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="779" spans="1:17">
+      <c r="A779" t="s">
+        <v>17</v>
+      </c>
+      <c r="B779" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P779">
+        <v>0</v>
+      </c>
+      <c r="Q779">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="780" spans="1:17">
+      <c r="A780" t="s">
+        <v>177</v>
+      </c>
+      <c r="B780" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P780">
+        <v>0</v>
+      </c>
+      <c r="Q780">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="781" spans="1:17">
+      <c r="A781" t="s">
+        <v>204</v>
+      </c>
+      <c r="B781" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P781">
+        <v>0</v>
+      </c>
+      <c r="Q781">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="782" spans="1:17">
+      <c r="A782" t="s">
+        <v>45</v>
+      </c>
+      <c r="B782" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P782">
+        <v>4</v>
+      </c>
+      <c r="Q782">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="783" spans="1:17">
+      <c r="A783" t="s">
+        <v>18</v>
+      </c>
+      <c r="B783" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P783">
+        <v>4</v>
+      </c>
+      <c r="Q783">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="784" spans="1:17">
+      <c r="A784" t="s">
+        <v>392</v>
+      </c>
+      <c r="B784" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P784">
+        <v>0</v>
+      </c>
+      <c r="Q784">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="785" spans="1:17">
+      <c r="A785" t="s">
+        <v>363</v>
+      </c>
+      <c r="B785" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P785">
+        <v>0</v>
+      </c>
+      <c r="Q785">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="786" spans="1:17">
+      <c r="A786" t="s">
+        <v>295</v>
+      </c>
+      <c r="B786" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P786">
+        <v>0</v>
+      </c>
+      <c r="Q786">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="787" spans="1:17">
+      <c r="A787" t="s">
+        <v>364</v>
+      </c>
+      <c r="B787" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P787">
+        <v>0</v>
+      </c>
+      <c r="Q787">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="788" spans="1:17">
+      <c r="A788" t="s">
+        <v>322</v>
+      </c>
+      <c r="B788" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P788">
+        <v>0</v>
+      </c>
+      <c r="Q788">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="789" spans="1:17">
+      <c r="A789" t="s">
+        <v>258</v>
+      </c>
+      <c r="B789" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P789">
+        <v>0</v>
+      </c>
+      <c r="Q789">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="790" spans="1:17">
+      <c r="A790" t="s">
+        <v>163</v>
+      </c>
+      <c r="B790" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P790">
+        <v>0</v>
+      </c>
+      <c r="Q790">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="791" spans="1:17">
+      <c r="A791" t="s">
+        <v>232</v>
+      </c>
+      <c r="B791" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P791">
+        <v>0</v>
+      </c>
+      <c r="Q791">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="792" spans="1:17">
+      <c r="A792" t="s">
+        <v>321</v>
+      </c>
+      <c r="B792" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P792">
+        <v>0</v>
+      </c>
+      <c r="Q792">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="793" spans="1:17">
+      <c r="A793" t="s">
+        <v>74</v>
+      </c>
+      <c r="B793" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P793">
+        <v>0</v>
+      </c>
+      <c r="Q793">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="794" spans="1:17">
+      <c r="A794" t="s">
+        <v>73</v>
+      </c>
+      <c r="B794" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P794">
+        <v>0</v>
+      </c>
+      <c r="Q794">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="795" spans="1:17">
+      <c r="A795" t="s">
+        <v>271</v>
+      </c>
+      <c r="B795" s="1">
+        <v>42356</v>
+      </c>
+      <c r="P795">
+        <v>0</v>
+      </c>
+      <c r="Q795">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="796" spans="1:17">
+      <c r="A796" t="s">
+        <v>294</v>
+      </c>
+      <c r="B796" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P796">
+        <v>0</v>
+      </c>
+      <c r="Q796">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="797" spans="1:17">
+      <c r="A797" t="s">
+        <v>391</v>
+      </c>
+      <c r="B797" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P797">
+        <v>0</v>
+      </c>
+      <c r="Q797">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="798" spans="1:17">
+      <c r="A798" t="s">
+        <v>98</v>
+      </c>
+      <c r="B798" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P798">
+        <v>0</v>
+      </c>
+      <c r="Q798">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="799" spans="1:17">
+      <c r="A799" t="s">
+        <v>178</v>
+      </c>
+      <c r="B799" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P799">
+        <v>0</v>
+      </c>
+      <c r="Q799">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="800" spans="1:17">
+      <c r="A800" t="s">
+        <v>272</v>
+      </c>
+      <c r="B800" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P800">
+        <v>0</v>
+      </c>
+      <c r="Q800">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="801" spans="1:17">
+      <c r="A801" t="s">
+        <v>45</v>
+      </c>
+      <c r="B801" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P801">
+        <v>0</v>
+      </c>
+      <c r="Q801">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="802" spans="1:17">
+      <c r="A802" t="s">
+        <v>231</v>
+      </c>
+      <c r="B802" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P802">
+        <v>0</v>
+      </c>
+      <c r="Q802">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="803" spans="1:17">
+      <c r="A803" t="s">
+        <v>364</v>
+      </c>
+      <c r="B803" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P803">
+        <v>0</v>
+      </c>
+      <c r="Q803">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="804" spans="1:17">
+      <c r="A804" t="s">
+        <v>258</v>
+      </c>
+      <c r="B804" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P804">
+        <v>0</v>
+      </c>
+      <c r="Q804">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="805" spans="1:17">
+      <c r="A805" t="s">
+        <v>205</v>
+      </c>
+      <c r="B805" s="1">
+        <v>42357</v>
+      </c>
+      <c r="P805">
+        <v>0</v>
+      </c>
+      <c r="Q805">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="806" spans="1:17">
+      <c r="A806" t="s">
+        <v>149</v>
+      </c>
+      <c r="B806" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P806">
+        <v>0</v>
+      </c>
+      <c r="Q806">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="807" spans="1:17">
+      <c r="A807" t="s">
+        <v>392</v>
+      </c>
+      <c r="B807" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P807">
+        <v>0</v>
+      </c>
+      <c r="Q807">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="808" spans="1:17">
+      <c r="A808" t="s">
+        <v>177</v>
+      </c>
+      <c r="B808" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P808">
+        <v>0</v>
+      </c>
+      <c r="Q808">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="809" spans="1:17">
+      <c r="A809" t="s">
+        <v>348</v>
+      </c>
+      <c r="B809" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P809">
+        <v>0</v>
+      </c>
+      <c r="Q809">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="810" spans="1:17">
+      <c r="A810" t="s">
+        <v>46</v>
+      </c>
+      <c r="B810" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P810">
+        <v>0</v>
+      </c>
+      <c r="Q810">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="811" spans="1:17">
+      <c r="A811" t="s">
+        <v>125</v>
+      </c>
+      <c r="B811" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P811">
+        <v>0</v>
+      </c>
+      <c r="Q811">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="812" spans="1:17">
+      <c r="A812" t="s">
+        <v>321</v>
+      </c>
+      <c r="B812" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P812">
+        <v>0</v>
+      </c>
+      <c r="Q812">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="813" spans="1:17">
+      <c r="A813" t="s">
+        <v>271</v>
+      </c>
+      <c r="B813" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P813">
+        <v>0</v>
+      </c>
+      <c r="Q813">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="814" spans="1:17">
+      <c r="A814" t="s">
+        <v>97</v>
+      </c>
+      <c r="B814" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P814">
+        <v>0</v>
+      </c>
+      <c r="Q814">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="815" spans="1:17">
+      <c r="A815" t="s">
+        <v>17</v>
+      </c>
+      <c r="B815" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P815">
+        <v>0</v>
+      </c>
+      <c r="Q815">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="816" spans="1:17">
+      <c r="A816" t="s">
+        <v>204</v>
+      </c>
+      <c r="B816" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P816">
+        <v>0</v>
+      </c>
+      <c r="Q816">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="817" spans="1:17">
+      <c r="A817" t="s">
+        <v>363</v>
+      </c>
+      <c r="B817" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P817">
+        <v>0</v>
+      </c>
+      <c r="Q817">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="818" spans="1:17">
+      <c r="A818" t="s">
+        <v>232</v>
+      </c>
+      <c r="B818" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P818">
+        <v>0</v>
+      </c>
+      <c r="Q818">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="819" spans="1:17">
+      <c r="A819" t="s">
+        <v>74</v>
+      </c>
+      <c r="B819" s="1">
+        <v>42358</v>
+      </c>
+      <c r="P819">
+        <v>0</v>
+      </c>
+      <c r="Q819">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="820" spans="1:17">
+      <c r="A820" t="s">
+        <v>98</v>
+      </c>
+      <c r="B820" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P820">
+        <v>0</v>
+      </c>
+      <c r="Q820">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="821" spans="1:17">
+      <c r="A821" t="s">
+        <v>363</v>
+      </c>
+      <c r="B821" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P821">
+        <v>0</v>
+      </c>
+      <c r="Q821">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="822" spans="1:17">
+      <c r="A822" t="s">
+        <v>124</v>
+      </c>
+      <c r="B822" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P822">
+        <v>0</v>
+      </c>
+      <c r="Q822">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="823" spans="1:17">
+      <c r="A823" t="s">
+        <v>392</v>
+      </c>
+      <c r="B823" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P823">
+        <v>0</v>
+      </c>
+      <c r="Q823">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="824" spans="1:17">
+      <c r="A824" t="s">
+        <v>272</v>
+      </c>
+      <c r="B824" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P824">
+        <v>0</v>
+      </c>
+      <c r="Q824">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="825" spans="1:17">
+      <c r="A825" t="s">
+        <v>97</v>
+      </c>
+      <c r="B825" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P825">
+        <v>0</v>
+      </c>
+      <c r="Q825">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="826" spans="1:17">
+      <c r="A826" t="s">
+        <v>17</v>
+      </c>
+      <c r="B826" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P826">
+        <v>0</v>
+      </c>
+      <c r="Q826">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="827" spans="1:17">
+      <c r="A827" t="s">
+        <v>348</v>
+      </c>
+      <c r="B827" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P827">
+        <v>0</v>
+      </c>
+      <c r="Q827">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="828" spans="1:17">
+      <c r="A828" t="s">
+        <v>45</v>
+      </c>
+      <c r="B828" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P828">
+        <v>0</v>
+      </c>
+      <c r="Q828">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="829" spans="1:17">
+      <c r="A829" t="s">
+        <v>149</v>
+      </c>
+      <c r="B829" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P829">
+        <v>0</v>
+      </c>
+      <c r="Q829">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="830" spans="1:17">
+      <c r="A830" t="s">
+        <v>231</v>
+      </c>
+      <c r="B830" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P830">
+        <v>0</v>
+      </c>
+      <c r="Q830">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="831" spans="1:17">
+      <c r="A831" t="s">
+        <v>178</v>
+      </c>
+      <c r="B831" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P831">
+        <v>0</v>
+      </c>
+      <c r="Q831">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="832" spans="1:17">
+      <c r="A832" t="s">
+        <v>295</v>
+      </c>
+      <c r="B832" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P832">
+        <v>0</v>
+      </c>
+      <c r="Q832">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="833" spans="1:17">
+      <c r="A833" t="s">
+        <v>205</v>
+      </c>
+      <c r="B833" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P833">
+        <v>0</v>
+      </c>
+      <c r="Q833">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="834" spans="1:17">
+      <c r="A834" t="s">
+        <v>163</v>
+      </c>
+      <c r="B834" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P834">
+        <v>0</v>
+      </c>
+      <c r="Q834">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="835" spans="1:17">
+      <c r="A835" t="s">
+        <v>321</v>
+      </c>
+      <c r="B835" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P835">
+        <v>0</v>
+      </c>
+      <c r="Q835">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="836" spans="1:17">
+      <c r="A836" t="s">
+        <v>364</v>
+      </c>
+      <c r="B836" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P836">
+        <v>0</v>
+      </c>
+      <c r="Q836">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="837" spans="1:17">
+      <c r="A837" t="s">
+        <v>294</v>
+      </c>
+      <c r="B837" s="1">
+        <v>42359</v>
+      </c>
+      <c r="P837">
+        <v>0</v>
+      </c>
+      <c r="Q837">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="838" spans="1:17">
+      <c r="A838" t="s">
+        <v>125</v>
+      </c>
+      <c r="B838" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P838">
+        <v>0</v>
+      </c>
+      <c r="Q838">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="839" spans="1:17">
+      <c r="A839" t="s">
+        <v>258</v>
+      </c>
+      <c r="B839" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P839">
+        <v>0</v>
+      </c>
+      <c r="Q839">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="840" spans="1:17">
+      <c r="A840" t="s">
+        <v>177</v>
+      </c>
+      <c r="B840" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P840">
+        <v>0</v>
+      </c>
+      <c r="Q840">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="841" spans="1:17">
+      <c r="A841" t="s">
+        <v>18</v>
+      </c>
+      <c r="B841" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P841">
+        <v>0</v>
+      </c>
+      <c r="Q841">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="842" spans="1:17">
+      <c r="A842" t="s">
+        <v>204</v>
+      </c>
+      <c r="B842" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P842">
+        <v>0</v>
+      </c>
+      <c r="Q842">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="843" spans="1:17">
+      <c r="A843" t="s">
+        <v>322</v>
+      </c>
+      <c r="B843" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P843">
+        <v>0</v>
+      </c>
+      <c r="Q843">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="844" spans="1:17">
+      <c r="A844" t="s">
+        <v>232</v>
+      </c>
+      <c r="B844" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P844">
+        <v>0</v>
+      </c>
+      <c r="Q844">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="845" spans="1:17">
+      <c r="A845" t="s">
+        <v>391</v>
+      </c>
+      <c r="B845" s="1">
+        <v>42360</v>
+      </c>
+      <c r="P845">
+        <v>0</v>
+      </c>
+      <c r="Q845">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="846" spans="1:17">
+      <c r="A846" t="s">
+        <v>178</v>
+      </c>
+      <c r="B846" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P846">
+        <v>0</v>
+      </c>
+      <c r="Q846">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="847" spans="1:17">
+      <c r="A847" t="s">
+        <v>124</v>
+      </c>
+      <c r="B847" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P847">
+        <v>0</v>
+      </c>
+      <c r="Q847">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="848" spans="1:17">
+      <c r="A848" t="s">
+        <v>46</v>
+      </c>
+      <c r="B848" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P848">
+        <v>0</v>
+      </c>
+      <c r="Q848">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="849" spans="1:17">
+      <c r="A849" t="s">
+        <v>272</v>
+      </c>
+      <c r="B849" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P849">
+        <v>0</v>
+      </c>
+      <c r="Q849">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="850" spans="1:17">
+      <c r="A850" t="s">
+        <v>205</v>
+      </c>
+      <c r="B850" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P850">
+        <v>0</v>
+      </c>
+      <c r="Q850">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="851" spans="1:17">
+      <c r="A851" t="s">
+        <v>295</v>
+      </c>
+      <c r="B851" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P851">
+        <v>0</v>
+      </c>
+      <c r="Q851">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="852" spans="1:17">
+      <c r="A852" t="s">
+        <v>97</v>
+      </c>
+      <c r="B852" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P852">
+        <v>0</v>
+      </c>
+      <c r="Q852">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="853" spans="1:17">
+      <c r="A853" t="s">
+        <v>231</v>
+      </c>
+      <c r="B853" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P853">
+        <v>0</v>
+      </c>
+      <c r="Q853">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="854" spans="1:17">
+      <c r="A854" t="s">
+        <v>98</v>
+      </c>
+      <c r="B854" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P854">
+        <v>0</v>
+      </c>
+      <c r="Q854">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="855" spans="1:17">
+      <c r="A855" t="s">
+        <v>258</v>
+      </c>
+      <c r="B855" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P855">
+        <v>0</v>
+      </c>
+      <c r="Q855">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="856" spans="1:17">
+      <c r="A856" t="s">
+        <v>149</v>
+      </c>
+      <c r="B856" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P856">
+        <v>1</v>
+      </c>
+      <c r="Q856">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="857" spans="1:17">
+      <c r="A857" t="s">
+        <v>322</v>
+      </c>
+      <c r="B857" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P857">
+        <v>1</v>
+      </c>
+      <c r="Q857">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="858" spans="1:17">
+      <c r="A858" t="s">
+        <v>17</v>
+      </c>
+      <c r="B858" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P858">
+        <v>0</v>
+      </c>
+      <c r="Q858">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="859" spans="1:17">
+      <c r="A859" t="s">
+        <v>18</v>
+      </c>
+      <c r="B859" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P859">
+        <v>0</v>
+      </c>
+      <c r="Q859">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="860" spans="1:17">
+      <c r="A860" t="s">
+        <v>271</v>
+      </c>
+      <c r="B860" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P860">
+        <v>0</v>
+      </c>
+      <c r="Q860">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="861" spans="1:17">
+      <c r="A861" t="s">
+        <v>125</v>
+      </c>
+      <c r="B861" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P861">
+        <v>0</v>
+      </c>
+      <c r="Q861">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="862" spans="1:17">
+      <c r="A862" t="s">
+        <v>392</v>
+      </c>
+      <c r="B862" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P862">
+        <v>0</v>
+      </c>
+      <c r="Q862">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="863" spans="1:17">
+      <c r="A863" t="s">
+        <v>295</v>
+      </c>
+      <c r="B863" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P863">
+        <v>0</v>
+      </c>
+      <c r="Q863">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="864" spans="1:17">
+      <c r="A864" t="s">
+        <v>74</v>
+      </c>
+      <c r="B864" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P864">
+        <v>0</v>
+      </c>
+      <c r="Q864">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="865" spans="1:17">
+      <c r="A865" t="s">
+        <v>348</v>
+      </c>
+      <c r="B865" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P865">
+        <v>0</v>
+      </c>
+      <c r="Q865">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="866" spans="1:17">
+      <c r="A866" t="s">
+        <v>321</v>
+      </c>
+      <c r="B866" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P866">
+        <v>0</v>
+      </c>
+      <c r="Q866">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="867" spans="1:17">
+      <c r="A867" t="s">
+        <v>232</v>
+      </c>
+      <c r="B867" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P867">
+        <v>0</v>
+      </c>
+      <c r="Q867">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="868" spans="1:17">
+      <c r="A868" t="s">
+        <v>73</v>
+      </c>
+      <c r="B868" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P868">
+        <v>0</v>
+      </c>
+      <c r="Q868">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="869" spans="1:17">
+      <c r="A869" t="s">
+        <v>163</v>
+      </c>
+      <c r="B869" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P869">
+        <v>0</v>
+      </c>
+      <c r="Q869">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="870" spans="1:17">
+      <c r="A870" t="s">
+        <v>391</v>
+      </c>
+      <c r="B870" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P870">
+        <v>0</v>
+      </c>
+      <c r="Q870">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="871" spans="1:17">
+      <c r="A871" t="s">
+        <v>294</v>
+      </c>
+      <c r="B871" s="1">
+        <v>42361</v>
+      </c>
+      <c r="P871">
+        <v>0</v>
+      </c>
+      <c r="Q871">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="872" spans="1:17">
+      <c r="A872" t="s">
+        <v>177</v>
+      </c>
+      <c r="B872" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P872">
+        <v>1</v>
+      </c>
+      <c r="Q872">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="873" spans="1:17">
+      <c r="A873" t="s">
+        <v>74</v>
+      </c>
+      <c r="B873" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P873">
+        <v>1</v>
+      </c>
+      <c r="Q873">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="874" spans="1:17">
+      <c r="A874" t="s">
+        <v>294</v>
+      </c>
+      <c r="B874" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P874">
+        <v>0</v>
+      </c>
+      <c r="Q874">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="875" spans="1:17">
+      <c r="A875" t="s">
+        <v>45</v>
+      </c>
+      <c r="B875" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P875">
+        <v>0</v>
+      </c>
+      <c r="Q875">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="876" spans="1:17">
+      <c r="A876" t="s">
+        <v>73</v>
+      </c>
+      <c r="B876" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P876">
+        <v>0</v>
+      </c>
+      <c r="Q876">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="877" spans="1:17">
+      <c r="A877" t="s">
+        <v>46</v>
+      </c>
+      <c r="B877" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P877">
+        <v>0</v>
+      </c>
+      <c r="Q877">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="878" spans="1:17">
+      <c r="A878" t="s">
+        <v>231</v>
+      </c>
+      <c r="B878" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P878">
+        <v>0</v>
+      </c>
+      <c r="Q878">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="879" spans="1:17">
+      <c r="A879" t="s">
+        <v>295</v>
+      </c>
+      <c r="B879" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P879">
+        <v>0</v>
+      </c>
+      <c r="Q879">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="880" spans="1:17">
+      <c r="A880" t="s">
+        <v>391</v>
+      </c>
+      <c r="B880" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P880">
+        <v>0</v>
+      </c>
+      <c r="Q880">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="881" spans="1:17">
+      <c r="A881" t="s">
+        <v>364</v>
+      </c>
+      <c r="B881" s="1">
+        <v>42363</v>
+      </c>
+      <c r="P881">
+        <v>0</v>
+      </c>
+      <c r="Q881">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="882" spans="1:17">
+      <c r="A882" t="s">
+        <v>149</v>
+      </c>
+      <c r="B882" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P882">
+        <v>0</v>
+      </c>
+      <c r="Q882">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="883" spans="1:17">
+      <c r="A883" t="s">
+        <v>98</v>
+      </c>
+      <c r="B883" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P883">
+        <v>0</v>
+      </c>
+      <c r="Q883">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="884" spans="1:17">
+      <c r="A884" t="s">
+        <v>271</v>
+      </c>
+      <c r="B884" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P884">
+        <v>0</v>
+      </c>
+      <c r="Q884">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="885" spans="1:17">
+      <c r="A885" t="s">
+        <v>204</v>
+      </c>
+      <c r="B885" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P885">
+        <v>0</v>
+      </c>
+      <c r="Q885">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="886" spans="1:17">
+      <c r="A886" t="s">
+        <v>178</v>
+      </c>
+      <c r="B886" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P886">
+        <v>0</v>
+      </c>
+      <c r="Q886">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="887" spans="1:17">
+      <c r="A887" t="s">
+        <v>258</v>
+      </c>
+      <c r="B887" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P887">
+        <v>0</v>
+      </c>
+      <c r="Q887">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="888" spans="1:17">
+      <c r="A888" t="s">
+        <v>97</v>
+      </c>
+      <c r="B888" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P888">
+        <v>0</v>
+      </c>
+      <c r="Q888">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="889" spans="1:17">
+      <c r="A889" t="s">
+        <v>177</v>
+      </c>
+      <c r="B889" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P889">
+        <v>0</v>
+      </c>
+      <c r="Q889">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="890" spans="1:17">
+      <c r="A890" t="s">
+        <v>74</v>
+      </c>
+      <c r="B890" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P890">
+        <v>0</v>
+      </c>
+      <c r="Q890">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="891" spans="1:17">
+      <c r="A891" t="s">
+        <v>231</v>
+      </c>
+      <c r="B891" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P891">
+        <v>0</v>
+      </c>
+      <c r="Q891">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="892" spans="1:17">
+      <c r="A892" t="s">
+        <v>17</v>
+      </c>
+      <c r="B892" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P892">
+        <v>0</v>
+      </c>
+      <c r="Q892">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="893" spans="1:17">
+      <c r="A893" t="s">
+        <v>272</v>
+      </c>
+      <c r="B893" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P893">
+        <v>0</v>
+      </c>
+      <c r="Q893">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="894" spans="1:17">
+      <c r="A894" t="s">
+        <v>18</v>
+      </c>
+      <c r="B894" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P894">
+        <v>0</v>
+      </c>
+      <c r="Q894">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="895" spans="1:17">
+      <c r="A895" t="s">
+        <v>124</v>
+      </c>
+      <c r="B895" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P895">
+        <v>0</v>
+      </c>
+      <c r="Q895">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="896" spans="1:17">
+      <c r="A896" t="s">
+        <v>392</v>
+      </c>
+      <c r="B896" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P896">
+        <v>0</v>
+      </c>
+      <c r="Q896">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="897" spans="1:17">
+      <c r="A897" t="s">
+        <v>205</v>
+      </c>
+      <c r="B897" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P897">
+        <v>0</v>
+      </c>
+      <c r="Q897">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="898" spans="1:17">
+      <c r="A898" t="s">
+        <v>322</v>
+      </c>
+      <c r="B898" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P898">
+        <v>0</v>
+      </c>
+      <c r="Q898">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="899" spans="1:17">
+      <c r="A899" t="s">
+        <v>178</v>
+      </c>
+      <c r="B899" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P899">
+        <v>0</v>
+      </c>
+      <c r="Q899">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="900" spans="1:17">
+      <c r="A900" t="s">
+        <v>295</v>
+      </c>
+      <c r="B900" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P900">
+        <v>0</v>
+      </c>
+      <c r="Q900">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="901" spans="1:17">
+      <c r="A901" t="s">
+        <v>232</v>
+      </c>
+      <c r="B901" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P901">
+        <v>0</v>
+      </c>
+      <c r="Q901">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="902" spans="1:17">
+      <c r="A902" t="s">
+        <v>321</v>
+      </c>
+      <c r="B902" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P902">
+        <v>0</v>
+      </c>
+      <c r="Q902">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="903" spans="1:17">
+      <c r="A903" t="s">
+        <v>125</v>
+      </c>
+      <c r="B903" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P903">
+        <v>0</v>
+      </c>
+      <c r="Q903">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="904" spans="1:17">
+      <c r="A904" t="s">
+        <v>163</v>
+      </c>
+      <c r="B904" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P904">
+        <v>0</v>
+      </c>
+      <c r="Q904">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="905" spans="1:17">
+      <c r="A905" t="s">
+        <v>364</v>
+      </c>
+      <c r="B905" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P905">
+        <v>0</v>
+      </c>
+      <c r="Q905">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="906" spans="1:17">
+      <c r="A906" t="s">
+        <v>348</v>
+      </c>
+      <c r="B906" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P906">
+        <v>0</v>
+      </c>
+      <c r="Q906">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="907" spans="1:17">
+      <c r="A907" t="s">
+        <v>46</v>
+      </c>
+      <c r="B907" s="1">
+        <v>42364</v>
+      </c>
+      <c r="P907">
+        <v>0</v>
+      </c>
+      <c r="Q907">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="908" spans="1:17">
+      <c r="A908" t="s">
+        <v>258</v>
+      </c>
+      <c r="B908" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P908">
+        <v>0</v>
+      </c>
+      <c r="Q908">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="909" spans="1:17">
+      <c r="A909" t="s">
+        <v>391</v>
+      </c>
+      <c r="B909" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P909">
+        <v>0</v>
+      </c>
+      <c r="Q909">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="910" spans="1:17">
+      <c r="A910" t="s">
+        <v>124</v>
+      </c>
+      <c r="B910" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P910">
+        <v>0</v>
+      </c>
+      <c r="Q910">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="911" spans="1:17">
+      <c r="A911" t="s">
+        <v>272</v>
+      </c>
+      <c r="B911" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P911">
+        <v>0</v>
+      </c>
+      <c r="Q911">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="912" spans="1:17">
+      <c r="A912" t="s">
+        <v>294</v>
+      </c>
+      <c r="B912" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P912">
+        <v>0</v>
+      </c>
+      <c r="Q912">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="913" spans="1:17">
+      <c r="A913" t="s">
+        <v>232</v>
+      </c>
+      <c r="B913" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P913">
+        <v>0</v>
+      </c>
+      <c r="Q913">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="914" spans="1:17">
+      <c r="A914" t="s">
+        <v>363</v>
+      </c>
+      <c r="B914" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P914">
+        <v>0</v>
+      </c>
+      <c r="Q914">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="915" spans="1:17">
+      <c r="A915" t="s">
+        <v>348</v>
+      </c>
+      <c r="B915" s="1">
+        <v>42365</v>
+      </c>
+      <c r="P915">
+        <v>0</v>
+      </c>
+      <c r="Q915">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="916" spans="1:17">
+      <c r="A916" t="s">
+        <v>178</v>
+      </c>
+      <c r="B916" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P916">
+        <v>0</v>
+      </c>
+      <c r="Q916">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="917" spans="1:17">
+      <c r="A917" t="s">
+        <v>391</v>
+      </c>
+      <c r="B917" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P917">
+        <v>0</v>
+      </c>
+      <c r="Q917">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="918" spans="1:17">
+      <c r="A918" t="s">
+        <v>205</v>
+      </c>
+      <c r="B918" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P918">
+        <v>0</v>
+      </c>
+      <c r="Q918">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="919" spans="1:17">
+      <c r="A919" t="s">
+        <v>17</v>
+      </c>
+      <c r="B919" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P919">
+        <v>0</v>
+      </c>
+      <c r="Q919">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="920" spans="1:17">
+      <c r="A920" t="s">
+        <v>97</v>
+      </c>
+      <c r="B920" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P920">
+        <v>0</v>
+      </c>
+      <c r="Q920">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="921" spans="1:17">
+      <c r="A921" t="s">
+        <v>74</v>
+      </c>
+      <c r="B921" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P921">
+        <v>0</v>
+      </c>
+      <c r="Q921">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="922" spans="1:17">
+      <c r="A922" t="s">
+        <v>98</v>
+      </c>
+      <c r="B922" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P922">
+        <v>0</v>
+      </c>
+      <c r="Q922">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="923" spans="1:17">
+      <c r="A923" t="s">
+        <v>364</v>
+      </c>
+      <c r="B923" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P923">
+        <v>0</v>
+      </c>
+      <c r="Q923">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="924" spans="1:17">
+      <c r="A924" t="s">
+        <v>177</v>
+      </c>
+      <c r="B924" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P924">
+        <v>0</v>
+      </c>
+      <c r="Q924">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="925" spans="1:17">
+      <c r="A925" t="s">
+        <v>149</v>
+      </c>
+      <c r="B925" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P925">
+        <v>0</v>
+      </c>
+      <c r="Q925">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="926" spans="1:17">
+      <c r="A926" t="s">
+        <v>45</v>
+      </c>
+      <c r="B926" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P926">
+        <v>0</v>
+      </c>
+      <c r="Q926">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="927" spans="1:17">
+      <c r="A927" t="s">
+        <v>204</v>
+      </c>
+      <c r="B927" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P927">
+        <v>0</v>
+      </c>
+      <c r="Q927">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="928" spans="1:17">
+      <c r="A928" t="s">
+        <v>322</v>
+      </c>
+      <c r="B928" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P928">
+        <v>0</v>
+      </c>
+      <c r="Q928">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="929" spans="1:17">
+      <c r="A929" t="s">
+        <v>271</v>
+      </c>
+      <c r="B929" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P929">
+        <v>0</v>
+      </c>
+      <c r="Q929">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="930" spans="1:17">
+      <c r="A930" t="s">
+        <v>295</v>
+      </c>
+      <c r="B930" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P930">
+        <v>0</v>
+      </c>
+      <c r="Q930">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="931" spans="1:17">
+      <c r="A931" t="s">
+        <v>392</v>
+      </c>
+      <c r="B931" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P931">
+        <v>0</v>
+      </c>
+      <c r="Q931">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="932" spans="1:17">
+      <c r="A932" t="s">
+        <v>321</v>
+      </c>
+      <c r="B932" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P932">
+        <v>0</v>
+      </c>
+      <c r="Q932">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="933" spans="1:17">
+      <c r="A933" t="s">
+        <v>46</v>
+      </c>
+      <c r="B933" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P933">
+        <v>0</v>
+      </c>
+      <c r="Q933">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="934" spans="1:17">
+      <c r="A934" t="s">
+        <v>163</v>
+      </c>
+      <c r="B934" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P934">
+        <v>0</v>
+      </c>
+      <c r="Q934">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="935" spans="1:17">
+      <c r="A935" t="s">
+        <v>125</v>
+      </c>
+      <c r="B935" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P935">
+        <v>0</v>
+      </c>
+      <c r="Q935">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="936" spans="1:17">
+      <c r="A936" t="s">
+        <v>73</v>
+      </c>
+      <c r="B936" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P936">
+        <v>0</v>
+      </c>
+      <c r="Q936">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="937" spans="1:17">
+      <c r="A937" t="s">
+        <v>363</v>
+      </c>
+      <c r="B937" s="1">
+        <v>42366</v>
+      </c>
+      <c r="P937">
+        <v>0</v>
+      </c>
+      <c r="Q937">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="938" spans="1:17">
+      <c r="A938" t="s">
+        <v>272</v>
+      </c>
+      <c r="B938" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P938">
+        <v>0</v>
+      </c>
+      <c r="Q938">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="939" spans="1:17">
+      <c r="A939" t="s">
+        <v>18</v>
+      </c>
+      <c r="B939" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P939">
+        <v>0</v>
+      </c>
+      <c r="Q939">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="940" spans="1:17">
+      <c r="A940" t="s">
+        <v>231</v>
+      </c>
+      <c r="B940" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P940">
+        <v>0</v>
+      </c>
+      <c r="Q940">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="941" spans="1:17">
+      <c r="A941" t="s">
+        <v>17</v>
+      </c>
+      <c r="B941" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P941">
+        <v>0</v>
+      </c>
+      <c r="Q941">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="942" spans="1:17">
+      <c r="A942" t="s">
+        <v>258</v>
+      </c>
+      <c r="B942" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P942">
+        <v>1</v>
+      </c>
+      <c r="Q942">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="943" spans="1:17">
+      <c r="A943" t="s">
+        <v>177</v>
+      </c>
+      <c r="B943" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P943">
+        <v>1</v>
+      </c>
+      <c r="Q943">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="944" spans="1:17">
+      <c r="A944" t="s">
+        <v>294</v>
+      </c>
+      <c r="B944" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P944">
+        <v>0</v>
+      </c>
+      <c r="Q944">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="945" spans="1:17">
+      <c r="A945" t="s">
+        <v>271</v>
+      </c>
+      <c r="B945" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P945">
+        <v>0</v>
+      </c>
+      <c r="Q945">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="946" spans="1:17">
+      <c r="A946" t="s">
+        <v>232</v>
+      </c>
+      <c r="B946" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P946">
+        <v>0</v>
+      </c>
+      <c r="Q946">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="947" spans="1:17">
+      <c r="A947" t="s">
+        <v>46</v>
+      </c>
+      <c r="B947" s="1">
+        <v>42367</v>
+      </c>
+      <c r="P947">
+        <v>0</v>
+      </c>
+      <c r="Q947">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="948" spans="1:17">
+      <c r="A948" t="s">
+        <v>178</v>
+      </c>
+      <c r="B948" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P948">
+        <v>0</v>
+      </c>
+      <c r="Q948">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="949" spans="1:17">
+      <c r="A949" t="s">
+        <v>364</v>
+      </c>
+      <c r="B949" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P949">
+        <v>0</v>
+      </c>
+      <c r="Q949">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="950" spans="1:17">
+      <c r="A950" t="s">
+        <v>97</v>
+      </c>
+      <c r="B950" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P950">
+        <v>0</v>
+      </c>
+      <c r="Q950">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="951" spans="1:17">
+      <c r="A951" t="s">
+        <v>149</v>
+      </c>
+      <c r="B951" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P951">
+        <v>0</v>
+      </c>
+      <c r="Q951">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="952" spans="1:17">
+      <c r="A952" t="s">
+        <v>124</v>
+      </c>
+      <c r="B952" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P952">
+        <v>0</v>
+      </c>
+      <c r="Q952">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="953" spans="1:17">
+      <c r="A953" t="s">
+        <v>391</v>
+      </c>
+      <c r="B953" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P953">
+        <v>0</v>
+      </c>
+      <c r="Q953">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="954" spans="1:17">
+      <c r="A954" t="s">
+        <v>204</v>
+      </c>
+      <c r="B954" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P954">
+        <v>0</v>
+      </c>
+      <c r="Q954">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="955" spans="1:17">
+      <c r="A955" t="s">
+        <v>98</v>
+      </c>
+      <c r="B955" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P955">
+        <v>0</v>
+      </c>
+      <c r="Q955">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="956" spans="1:17">
+      <c r="A956" t="s">
+        <v>45</v>
+      </c>
+      <c r="B956" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P956">
+        <v>1</v>
+      </c>
+      <c r="Q956">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="957" spans="1:17">
+      <c r="A957" t="s">
+        <v>205</v>
+      </c>
+      <c r="B957" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P957">
+        <v>1</v>
+      </c>
+      <c r="Q957">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="958" spans="1:17">
+      <c r="A958" t="s">
+        <v>392</v>
+      </c>
+      <c r="B958" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P958">
+        <v>0</v>
+      </c>
+      <c r="Q958">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="959" spans="1:17">
+      <c r="A959" t="s">
+        <v>163</v>
+      </c>
+      <c r="B959" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P959">
+        <v>0</v>
+      </c>
+      <c r="Q959">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="960" spans="1:17">
+      <c r="A960" t="s">
+        <v>322</v>
+      </c>
+      <c r="B960" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P960">
+        <v>0</v>
+      </c>
+      <c r="Q960">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="961" spans="1:17">
+      <c r="A961" t="s">
+        <v>73</v>
+      </c>
+      <c r="B961" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P961">
+        <v>0</v>
+      </c>
+      <c r="Q961">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="962" spans="1:17">
+      <c r="A962" t="s">
+        <v>295</v>
+      </c>
+      <c r="B962" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P962">
+        <v>0</v>
+      </c>
+      <c r="Q962">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="963" spans="1:17">
+      <c r="A963" t="s">
+        <v>321</v>
+      </c>
+      <c r="B963" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P963">
+        <v>0</v>
+      </c>
+      <c r="Q963">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="964" spans="1:17">
+      <c r="A964" t="s">
+        <v>348</v>
+      </c>
+      <c r="B964" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P964">
+        <v>0</v>
+      </c>
+      <c r="Q964">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="965" spans="1:17">
+      <c r="A965" t="s">
+        <v>232</v>
+      </c>
+      <c r="B965" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P965">
+        <v>0</v>
+      </c>
+      <c r="Q965">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="966" spans="1:17">
+      <c r="A966" t="s">
+        <v>363</v>
+      </c>
+      <c r="B966" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P966">
+        <v>0</v>
+      </c>
+      <c r="Q966">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="967" spans="1:17">
+      <c r="A967" t="s">
+        <v>125</v>
+      </c>
+      <c r="B967" s="1">
+        <v>42368</v>
+      </c>
+      <c r="P967">
+        <v>0</v>
+      </c>
+      <c r="Q967">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="968" spans="1:17">
+      <c r="A968" t="s">
+        <v>205</v>
+      </c>
+      <c r="B968" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P968">
+        <v>0</v>
+      </c>
+      <c r="Q968">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="969" spans="1:17">
+      <c r="A969" t="s">
+        <v>271</v>
+      </c>
+      <c r="B969" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P969">
+        <v>0</v>
+      </c>
+      <c r="Q969">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="970" spans="1:17">
+      <c r="A970" t="s">
+        <v>18</v>
+      </c>
+      <c r="B970" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P970">
+        <v>0</v>
+      </c>
+      <c r="Q970">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="971" spans="1:17">
+      <c r="A971" t="s">
+        <v>392</v>
+      </c>
+      <c r="B971" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P971">
+        <v>0</v>
+      </c>
+      <c r="Q971">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="972" spans="1:17">
+      <c r="A972" t="s">
+        <v>231</v>
+      </c>
+      <c r="B972" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P972">
+        <v>0</v>
+      </c>
+      <c r="Q972">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="973" spans="1:17">
+      <c r="A973" t="s">
+        <v>73</v>
+      </c>
+      <c r="B973" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P973">
+        <v>0</v>
+      </c>
+      <c r="Q973">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="974" spans="1:17">
+      <c r="A974" t="s">
+        <v>74</v>
+      </c>
+      <c r="B974" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P974">
+        <v>0</v>
+      </c>
+      <c r="Q974">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="975" spans="1:17">
+      <c r="A975" t="s">
+        <v>364</v>
+      </c>
+      <c r="B975" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P975">
+        <v>0</v>
+      </c>
+      <c r="Q975">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="976" spans="1:17">
+      <c r="A976" t="s">
+        <v>294</v>
+      </c>
+      <c r="B976" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P976">
+        <v>0</v>
+      </c>
+      <c r="Q976">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="977" spans="1:17">
+      <c r="A977" t="s">
+        <v>321</v>
+      </c>
+      <c r="B977" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P977">
+        <v>0</v>
+      </c>
+      <c r="Q977">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="978" spans="1:17">
+      <c r="A978" t="s">
+        <v>163</v>
+      </c>
+      <c r="B978" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P978">
+        <v>0</v>
+      </c>
+      <c r="Q978">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="979" spans="1:17">
+      <c r="A979" t="s">
+        <v>348</v>
+      </c>
+      <c r="B979" s="1">
+        <v>42369</v>
+      </c>
+      <c r="P979">
+        <v>0</v>
+      </c>
+      <c r="Q979">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q247"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NBA-predict/test/data/data.xlsx
+++ b/NBA-predict/test/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML-GYJ\NBA-predict\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I329397\ML-GYJ\NBA-predict\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="468">
   <si>
     <t>Team</t>
   </si>
@@ -1437,7 +1437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,7 +1480,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1758,18 +1758,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q979"/>
+  <dimension ref="A1:Q1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B979" sqref="B979"/>
+    <sheetView tabSelected="1" topLeftCell="A1033" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1050" sqref="B1050"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>204</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>232</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>271</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>295</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>321</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>322</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>348</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>363</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>364</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>391</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>392</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>258</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>364</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>294</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>271</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>295</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>392</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>363</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>391</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>321</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>348</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>205</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>348</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>321</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>363</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>124</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>295</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>271</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>294</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>232</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>391</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>271</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>231</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>294</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>392</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>348</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>73</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>364</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>321</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>45</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>205</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>322</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>363</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>258</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>391</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>232</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>295</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>46</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>231</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>97</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>271</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>294</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>204</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>321</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>363</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>163</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>348</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>364</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>392</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>177</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>322</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>232</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>348</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>258</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>97</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>124</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>98</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>391</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>125</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>271</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>74</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>321</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>73</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>363</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>231</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>392</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>125</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>97</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>98</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>322</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>74</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>149</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>295</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>163</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>258</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>73</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>364</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>231</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>46</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>391</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>177</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>294</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>321</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>348</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>97</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>125</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>45</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>392</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>232</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>348</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>363</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>295</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>73</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>18</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>364</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>258</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>163</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>98</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>294</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>177</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>391</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>204</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>271</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>124</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>392</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>178</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>74</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>322</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>178</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>272</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>97</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>391</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>125</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>204</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>124</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>205</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>74</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>322</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>364</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>231</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>149</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>258</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>73</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>232</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>271</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>363</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>18</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>348</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>295</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>177</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>163</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>392</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>73</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>321</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>364</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>205</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>392</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>97</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>163</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>124</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>204</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>74</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>45</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>178</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>258</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>348</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>294</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>125</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>322</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>391</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>232</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>363</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>149</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>364</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>18</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>98</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>97</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>231</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>322</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>271</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>46</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>295</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>125</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>321</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>232</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>73</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>149</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>272</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>74</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>392</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>258</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>178</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>348</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>163</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>294</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>124</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>363</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>204</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>391</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>18</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>125</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>322</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>45</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>205</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>231</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>124</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>258</v>
       </c>
@@ -15487,7 +15487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>294</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>295</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>348</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>321</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>391</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>98</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>271</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>149</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>17</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>18</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>46</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>177</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>392</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>272</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>178</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>74</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>232</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>73</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>204</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>178</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>149</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>97</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>392</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>125</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>205</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>124</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>322</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>363</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>231</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>348</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>294</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>74</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>295</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>232</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>163</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>204</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>321</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>45</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>177</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>363</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>46</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>271</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>364</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>73</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>178</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>125</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>124</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>149</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>258</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>231</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>392</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>18</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>74</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>295</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>294</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>272</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>322</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>163</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>232</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>321</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>348</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>364</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>73</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>45</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>391</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>204</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>97</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>363</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>205</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>271</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>46</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>18</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>98</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>177</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>125</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>231</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>272</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>295</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>258</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>364</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>204</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>149</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>124</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>74</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>321</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>294</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>322</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>232</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>73</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>391</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>348</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>178</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>363</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>46</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>97</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>177</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>272</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>271</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>18</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>392</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>125</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>295</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>321</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>163</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>294</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>98</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>205</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>17</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>124</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>258</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>322</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>232</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>364</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>348</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>45</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>73</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>391</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>178</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>98</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>97</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>272</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>124</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>125</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>18</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>177</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>204</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>46</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>231</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>258</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>271</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>363</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>392</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>17</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>294</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>149</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>295</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>322</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>321</v>
       </c>
@@ -17447,7 +17447,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>74</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>364</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>163</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>178</v>
       </c>
@@ -17503,7 +17503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>46</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>97</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>271</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>124</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>98</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>272</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>177</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>205</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>45</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>231</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>125</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>258</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>17</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>294</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>18</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>232</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>295</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>321</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>73</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>363</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>392</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>364</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>74</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>98</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>204</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>46</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>149</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>322</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>232</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>295</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>17</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>163</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>74</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>348</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>391</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>73</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>363</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>178</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>271</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>364</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>392</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>149</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="497" spans="1:17">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>18</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>97</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>124</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>204</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>321</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="502" spans="1:17">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>258</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>125</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>272</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="505" spans="1:17">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>231</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="506" spans="1:17">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>391</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="507" spans="1:17">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>205</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="508" spans="1:17">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>18</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="509" spans="1:17">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>231</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="510" spans="1:17">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>177</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="511" spans="1:17">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="512" spans="1:17">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>17</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="513" spans="1:17">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>294</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="514" spans="1:17">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>45</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="515" spans="1:17">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>295</v>
       </c>
@@ -18357,7 +18357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="516" spans="1:17">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>271</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="517" spans="1:17">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>232</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="518" spans="1:17">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>163</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="519" spans="1:17">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>73</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="520" spans="1:17">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>363</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="521" spans="1:17">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>322</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="522" spans="1:17">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>364</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="523" spans="1:17">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>348</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="524" spans="1:17">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>46</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="525" spans="1:17">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>98</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="526" spans="1:17">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>125</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="527" spans="1:17">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>391</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="528" spans="1:17">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>149</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>321</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>392</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>97</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>74</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>258</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>348</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>322</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>178</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>73</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>98</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>391</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>18</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>321</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>272</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>125</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>17</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="545" spans="1:17">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>204</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="546" spans="1:17">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>45</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="547" spans="1:17">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>232</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="548" spans="1:17">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>231</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="549" spans="1:17">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>74</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="550" spans="1:17">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>295</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="551" spans="1:17">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>271</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="552" spans="1:17">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>364</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="553" spans="1:17">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>205</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="554" spans="1:17">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>177</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="555" spans="1:17">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>294</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="556" spans="1:17">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>204</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="557" spans="1:17">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>232</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="558" spans="1:17">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>163</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="559" spans="1:17">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>97</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="560" spans="1:17">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>258</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>295</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>348</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>205</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="564" spans="1:17">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>363</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>124</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>272</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>149</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="568" spans="1:17">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>98</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>321</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>18</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>271</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>17</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>391</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>322</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>231</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>74</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="577" spans="1:17">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>46</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="578" spans="1:17">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>125</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="579" spans="1:17">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>232</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="580" spans="1:17">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>204</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="581" spans="1:17">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>73</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="582" spans="1:17">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>177</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="583" spans="1:17">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>46</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="584" spans="1:17">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>45</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="585" spans="1:17">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>178</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="586" spans="1:17">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>231</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="587" spans="1:17">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>363</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="588" spans="1:17">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>392</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="589" spans="1:17">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>348</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="590" spans="1:17">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>271</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="591" spans="1:17">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>272</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="592" spans="1:17">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>295</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="593" spans="1:17">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>124</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="594" spans="1:17">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>163</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="595" spans="1:17">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>205</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:17">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>364</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="597" spans="1:17">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>97</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="598" spans="1:17">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>258</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="599" spans="1:17">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>321</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="600" spans="1:17">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>149</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="601" spans="1:17">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>73</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="602" spans="1:17">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>18</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="603" spans="1:17">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>391</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="604" spans="1:17">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>98</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="605" spans="1:17">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>322</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="606" spans="1:17">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>294</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="607" spans="1:17">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>363</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="608" spans="1:17">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>178</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>18</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>125</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>295</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>177</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>98</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>272</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>322</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>204</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>391</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>45</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>321</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>271</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>348</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>392</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>364</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="624" spans="1:17">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>74</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>124</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="626" spans="1:17">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>46</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>348</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>205</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>73</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>149</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>231</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>258</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>294</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>232</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>97</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>363</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>163</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>124</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>45</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>178</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="641" spans="1:17">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>177</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="642" spans="1:17">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>98</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="643" spans="1:17">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>231</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="644" spans="1:17">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>18</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="645" spans="1:17">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>258</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="646" spans="1:17">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>204</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="647" spans="1:17">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>295</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="648" spans="1:17">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>271</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="649" spans="1:17">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>364</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="650" spans="1:17">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>392</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="651" spans="1:17">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>391</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="652" spans="1:17">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>321</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="653" spans="1:17">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>97</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="654" spans="1:17">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>163</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="655" spans="1:17">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>272</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="656" spans="1:17">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>322</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="657" spans="1:17">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>17</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="658" spans="1:17">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>149</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="659" spans="1:17">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>125</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="660" spans="1:17">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>45</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="661" spans="1:17">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>364</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="662" spans="1:17">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>294</v>
       </c>
@@ -20415,7 +20415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="663" spans="1:17">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>17</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="664" spans="1:17">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>363</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="665" spans="1:17">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>272</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="666" spans="1:17">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>205</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="667" spans="1:17">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>177</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="668" spans="1:17">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>97</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="669" spans="1:17">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>46</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="670" spans="1:17">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>125</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="671" spans="1:17">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>18</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="672" spans="1:17">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>124</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="673" spans="1:17">
+    <row r="673" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>73</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="674" spans="1:17">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>204</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="675" spans="1:17">
+    <row r="675" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>271</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="676" spans="1:17">
+    <row r="676" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>258</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="677" spans="1:17">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>178</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="678" spans="1:17">
+    <row r="678" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>74</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="679" spans="1:17">
+    <row r="679" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>98</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="680" spans="1:17">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>232</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="681" spans="1:17">
+    <row r="681" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>392</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="682" spans="1:17">
+    <row r="682" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>163</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="683" spans="1:17">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>294</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="684" spans="1:17">
+    <row r="684" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>295</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="685" spans="1:17">
+    <row r="685" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>391</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="686" spans="1:17">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>321</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="687" spans="1:17">
+    <row r="687" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>348</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="688" spans="1:17">
+    <row r="688" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>149</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="689" spans="1:17">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>364</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="690" spans="1:17">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>178</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="691" spans="1:17">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>124</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="692" spans="1:17">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>18</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="693" spans="1:17">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>205</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="694" spans="1:17">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>17</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="695" spans="1:17">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>295</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="696" spans="1:17">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>45</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="697" spans="1:17">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>74</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="698" spans="1:17">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>231</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="699" spans="1:17">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>391</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="700" spans="1:17">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>322</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="701" spans="1:17">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>98</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="702" spans="1:17">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>271</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="703" spans="1:17">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>73</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="704" spans="1:17">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>348</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="705" spans="1:17">
+    <row r="705" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>272</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="706" spans="1:17">
+    <row r="706" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>321</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="707" spans="1:17">
+    <row r="707" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>392</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="708" spans="1:17">
+    <row r="708" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>177</v>
       </c>
@@ -21059,7 +21059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="709" spans="1:17">
+    <row r="709" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>258</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="710" spans="1:17">
+    <row r="710" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>204</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="711" spans="1:17">
+    <row r="711" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>125</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="712" spans="1:17">
+    <row r="712" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>294</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="713" spans="1:17">
+    <row r="713" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>163</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="714" spans="1:17">
+    <row r="714" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>205</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="715" spans="1:17">
+    <row r="715" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>204</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="716" spans="1:17">
+    <row r="716" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>149</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="717" spans="1:17">
+    <row r="717" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>97</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="718" spans="1:17">
+    <row r="718" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>18</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="719" spans="1:17">
+    <row r="719" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>364</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="720" spans="1:17">
+    <row r="720" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>17</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="721" spans="1:17">
+    <row r="721" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>177</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="722" spans="1:17">
+    <row r="722" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>45</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="723" spans="1:17">
+    <row r="723" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>125</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="724" spans="1:17">
+    <row r="724" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>258</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="725" spans="1:17">
+    <row r="725" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>98</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="726" spans="1:17">
+    <row r="726" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>322</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="727" spans="1:17">
+    <row r="727" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>321</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="728" spans="1:17">
+    <row r="728" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>295</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="729" spans="1:17">
+    <row r="729" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>163</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="730" spans="1:17">
+    <row r="730" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>232</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="731" spans="1:17">
+    <row r="731" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>231</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="732" spans="1:17">
+    <row r="732" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>348</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="733" spans="1:17">
+    <row r="733" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>74</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="734" spans="1:17">
+    <row r="734" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>124</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="735" spans="1:17">
+    <row r="735" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>46</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="736" spans="1:17">
+    <row r="736" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>392</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="737" spans="1:17">
+    <row r="737" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>232</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="738" spans="1:17">
+    <row r="738" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>363</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="739" spans="1:17">
+    <row r="739" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>231</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="740" spans="1:17">
+    <row r="740" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>391</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="741" spans="1:17">
+    <row r="741" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>271</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="742" spans="1:17">
+    <row r="742" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>205</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="743" spans="1:17">
+    <row r="743" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>322</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="744" spans="1:17">
+    <row r="744" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>97</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="745" spans="1:17">
+    <row r="745" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>178</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="746" spans="1:17">
+    <row r="746" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>149</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="747" spans="1:17">
+    <row r="747" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>177</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="748" spans="1:17">
+    <row r="748" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>18</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="749" spans="1:17">
+    <row r="749" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>124</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="750" spans="1:17">
+    <row r="750" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>272</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="751" spans="1:17">
+    <row r="751" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>392</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="752" spans="1:17">
+    <row r="752" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>17</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="753" spans="1:17">
+    <row r="753" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>125</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="754" spans="1:17">
+    <row r="754" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>45</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="755" spans="1:17">
+    <row r="755" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>258</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="756" spans="1:17">
+    <row r="756" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>294</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="757" spans="1:17">
+    <row r="757" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>348</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="758" spans="1:17">
+    <row r="758" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>295</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="759" spans="1:17">
+    <row r="759" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>98</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="760" spans="1:17">
+    <row r="760" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>163</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="761" spans="1:17">
+    <row r="761" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>74</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="762" spans="1:17">
+    <row r="762" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>73</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="763" spans="1:17">
+    <row r="763" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>321</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="764" spans="1:17">
+    <row r="764" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>364</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="765" spans="1:17">
+    <row r="765" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>271</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="766" spans="1:17">
+    <row r="766" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>178</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="767" spans="1:17">
+    <row r="767" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>204</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="768" spans="1:17">
+    <row r="768" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>46</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="769" spans="1:17">
+    <row r="769" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>294</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="770" spans="1:17">
+    <row r="770" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>391</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="771" spans="1:17">
+    <row r="771" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>231</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="772" spans="1:17">
+    <row r="772" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>205</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="773" spans="1:17">
+    <row r="773" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>149</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="774" spans="1:17">
+    <row r="774" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>97</v>
       </c>
@@ -21983,7 +21983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="775" spans="1:17">
+    <row r="775" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>348</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="776" spans="1:17">
+    <row r="776" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>125</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="777" spans="1:17">
+    <row r="777" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>272</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="778" spans="1:17">
+    <row r="778" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>124</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="779" spans="1:17">
+    <row r="779" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>17</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="780" spans="1:17">
+    <row r="780" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>177</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="781" spans="1:17">
+    <row r="781" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>204</v>
       </c>
@@ -22081,7 +22081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="782" spans="1:17">
+    <row r="782" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>45</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="783" spans="1:17">
+    <row r="783" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>18</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="784" spans="1:17">
+    <row r="784" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>392</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>363</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>295</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>364</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>322</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>258</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="790" spans="1:17">
+    <row r="790" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>163</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="791" spans="1:17">
+    <row r="791" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>232</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="792" spans="1:17">
+    <row r="792" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>321</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="793" spans="1:17">
+    <row r="793" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>74</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="794" spans="1:17">
+    <row r="794" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="795" spans="1:17">
+    <row r="795" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>271</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="796" spans="1:17">
+    <row r="796" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>294</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="797" spans="1:17">
+    <row r="797" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>391</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="798" spans="1:17">
+    <row r="798" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>98</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="799" spans="1:17">
+    <row r="799" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>178</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="800" spans="1:17">
+    <row r="800" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>272</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="801" spans="1:17">
+    <row r="801" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>45</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="802" spans="1:17">
+    <row r="802" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>231</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="803" spans="1:17">
+    <row r="803" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>364</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="804" spans="1:17">
+    <row r="804" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>258</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="805" spans="1:17">
+    <row r="805" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>205</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="806" spans="1:17">
+    <row r="806" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>149</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="807" spans="1:17">
+    <row r="807" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>392</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="808" spans="1:17">
+    <row r="808" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>177</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="809" spans="1:17">
+    <row r="809" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>348</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="810" spans="1:17">
+    <row r="810" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>46</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="811" spans="1:17">
+    <row r="811" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>125</v>
       </c>
@@ -22501,7 +22501,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="812" spans="1:17">
+    <row r="812" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>321</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="813" spans="1:17">
+    <row r="813" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>271</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="814" spans="1:17">
+    <row r="814" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>97</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="815" spans="1:17">
+    <row r="815" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>17</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="816" spans="1:17">
+    <row r="816" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>204</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="817" spans="1:17">
+    <row r="817" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>363</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="818" spans="1:17">
+    <row r="818" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>232</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="819" spans="1:17">
+    <row r="819" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>74</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="820" spans="1:17">
+    <row r="820" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>98</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="821" spans="1:17">
+    <row r="821" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>363</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="822" spans="1:17">
+    <row r="822" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>124</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="823" spans="1:17">
+    <row r="823" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>392</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="824" spans="1:17">
+    <row r="824" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>272</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="825" spans="1:17">
+    <row r="825" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>97</v>
       </c>
@@ -22697,7 +22697,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="826" spans="1:17">
+    <row r="826" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>17</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="827" spans="1:17">
+    <row r="827" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>348</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="828" spans="1:17">
+    <row r="828" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>45</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="829" spans="1:17">
+    <row r="829" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>149</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="830" spans="1:17">
+    <row r="830" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>231</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="831" spans="1:17">
+    <row r="831" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>178</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="832" spans="1:17">
+    <row r="832" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>295</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="833" spans="1:17">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>205</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="834" spans="1:17">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>163</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="835" spans="1:17">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>321</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="836" spans="1:17">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>364</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="837" spans="1:17">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>294</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="838" spans="1:17">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>125</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="839" spans="1:17">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>258</v>
       </c>
@@ -22893,7 +22893,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="840" spans="1:17">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>177</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="841" spans="1:17">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>18</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="842" spans="1:17">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>204</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="843" spans="1:17">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>322</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="844" spans="1:17">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>232</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="845" spans="1:17">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>391</v>
       </c>
@@ -22977,7 +22977,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="846" spans="1:17">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>178</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="847" spans="1:17">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>124</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="848" spans="1:17">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>46</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="849" spans="1:17">
+    <row r="849" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>272</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="850" spans="1:17">
+    <row r="850" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>205</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="851" spans="1:17">
+    <row r="851" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>295</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="852" spans="1:17">
+    <row r="852" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>97</v>
       </c>
@@ -23075,7 +23075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="853" spans="1:17">
+    <row r="853" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>231</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="854" spans="1:17">
+    <row r="854" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>98</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="855" spans="1:17">
+    <row r="855" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>258</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="856" spans="1:17">
+    <row r="856" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>149</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="857" spans="1:17">
+    <row r="857" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>322</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="858" spans="1:17">
+    <row r="858" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>17</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="859" spans="1:17">
+    <row r="859" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>18</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="860" spans="1:17">
+    <row r="860" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>271</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="861" spans="1:17">
+    <row r="861" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>125</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="862" spans="1:17">
+    <row r="862" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>392</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="863" spans="1:17">
+    <row r="863" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>295</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="864" spans="1:17">
+    <row r="864" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>74</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="865" spans="1:17">
+    <row r="865" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>348</v>
       </c>
@@ -23257,7 +23257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="866" spans="1:17">
+    <row r="866" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>321</v>
       </c>
@@ -23271,7 +23271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="867" spans="1:17">
+    <row r="867" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>232</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="868" spans="1:17">
+    <row r="868" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>73</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="869" spans="1:17">
+    <row r="869" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>163</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="870" spans="1:17">
+    <row r="870" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>391</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="871" spans="1:17">
+    <row r="871" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>294</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="872" spans="1:17">
+    <row r="872" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>177</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="873" spans="1:17">
+    <row r="873" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>74</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="874" spans="1:17">
+    <row r="874" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>294</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="875" spans="1:17">
+    <row r="875" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>45</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="876" spans="1:17">
+    <row r="876" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>73</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="877" spans="1:17">
+    <row r="877" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>46</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="878" spans="1:17">
+    <row r="878" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>231</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="879" spans="1:17">
+    <row r="879" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>295</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="880" spans="1:17">
+    <row r="880" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>391</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="881" spans="1:17">
+    <row r="881" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>364</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="882" spans="1:17">
+    <row r="882" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>149</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="883" spans="1:17">
+    <row r="883" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>98</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="884" spans="1:17">
+    <row r="884" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>271</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="885" spans="1:17">
+    <row r="885" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>204</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="886" spans="1:17">
+    <row r="886" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>178</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="887" spans="1:17">
+    <row r="887" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>258</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="888" spans="1:17">
+    <row r="888" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>97</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="889" spans="1:17">
+    <row r="889" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>177</v>
       </c>
@@ -23593,7 +23593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="890" spans="1:17">
+    <row r="890" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>74</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="891" spans="1:17">
+    <row r="891" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>231</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="892" spans="1:17">
+    <row r="892" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>17</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="893" spans="1:17">
+    <row r="893" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>272</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="894" spans="1:17">
+    <row r="894" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>18</v>
       </c>
@@ -23663,7 +23663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="895" spans="1:17">
+    <row r="895" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>124</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="896" spans="1:17">
+    <row r="896" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>392</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="897" spans="1:17">
+    <row r="897" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>205</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="898" spans="1:17">
+    <row r="898" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>322</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="899" spans="1:17">
+    <row r="899" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>178</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="900" spans="1:17">
+    <row r="900" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>295</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="901" spans="1:17">
+    <row r="901" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>232</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="902" spans="1:17">
+    <row r="902" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>321</v>
       </c>
@@ -23775,7 +23775,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="903" spans="1:17">
+    <row r="903" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>125</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="904" spans="1:17">
+    <row r="904" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>163</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="905" spans="1:17">
+    <row r="905" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>364</v>
       </c>
@@ -23817,7 +23817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="906" spans="1:17">
+    <row r="906" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>348</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="907" spans="1:17">
+    <row r="907" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>46</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="908" spans="1:17">
+    <row r="908" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>258</v>
       </c>
@@ -23859,7 +23859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="909" spans="1:17">
+    <row r="909" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>391</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="910" spans="1:17">
+    <row r="910" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>124</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="911" spans="1:17">
+    <row r="911" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>272</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="912" spans="1:17">
+    <row r="912" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>294</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="913" spans="1:17">
+    <row r="913" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>232</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="914" spans="1:17">
+    <row r="914" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>363</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="915" spans="1:17">
+    <row r="915" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>348</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="916" spans="1:17">
+    <row r="916" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>178</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="917" spans="1:17">
+    <row r="917" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>391</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="918" spans="1:17">
+    <row r="918" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>205</v>
       </c>
@@ -23999,7 +23999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="919" spans="1:17">
+    <row r="919" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>17</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="920" spans="1:17">
+    <row r="920" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>97</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="921" spans="1:17">
+    <row r="921" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>74</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="922" spans="1:17">
+    <row r="922" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>98</v>
       </c>
@@ -24055,7 +24055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="923" spans="1:17">
+    <row r="923" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>364</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="924" spans="1:17">
+    <row r="924" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>177</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="925" spans="1:17">
+    <row r="925" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>149</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="926" spans="1:17">
+    <row r="926" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>45</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="927" spans="1:17">
+    <row r="927" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>204</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="928" spans="1:17">
+    <row r="928" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>322</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="929" spans="1:17">
+    <row r="929" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>271</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="930" spans="1:17">
+    <row r="930" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>295</v>
       </c>
@@ -24167,7 +24167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="931" spans="1:17">
+    <row r="931" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>392</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="932" spans="1:17">
+    <row r="932" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>321</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="933" spans="1:17">
+    <row r="933" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>46</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="934" spans="1:17">
+    <row r="934" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>163</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="935" spans="1:17">
+    <row r="935" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>125</v>
       </c>
@@ -24237,7 +24237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="936" spans="1:17">
+    <row r="936" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>73</v>
       </c>
@@ -24251,7 +24251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="937" spans="1:17">
+    <row r="937" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>363</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="938" spans="1:17">
+    <row r="938" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>272</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="939" spans="1:17">
+    <row r="939" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>18</v>
       </c>
@@ -24293,7 +24293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="940" spans="1:17">
+    <row r="940" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>231</v>
       </c>
@@ -24307,7 +24307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="941" spans="1:17">
+    <row r="941" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>17</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="942" spans="1:17">
+    <row r="942" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>258</v>
       </c>
@@ -24335,7 +24335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="943" spans="1:17">
+    <row r="943" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>177</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="944" spans="1:17">
+    <row r="944" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>294</v>
       </c>
@@ -24363,7 +24363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="945" spans="1:17">
+    <row r="945" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>271</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="946" spans="1:17">
+    <row r="946" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>232</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="947" spans="1:17">
+    <row r="947" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>46</v>
       </c>
@@ -24405,7 +24405,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="948" spans="1:17">
+    <row r="948" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>178</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="949" spans="1:17">
+    <row r="949" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>364</v>
       </c>
@@ -24433,7 +24433,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="950" spans="1:17">
+    <row r="950" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>97</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="951" spans="1:17">
+    <row r="951" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>149</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="952" spans="1:17">
+    <row r="952" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>124</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="953" spans="1:17">
+    <row r="953" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>391</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="954" spans="1:17">
+    <row r="954" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>204</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="955" spans="1:17">
+    <row r="955" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>98</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="956" spans="1:17">
+    <row r="956" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>45</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="957" spans="1:17">
+    <row r="957" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>205</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="958" spans="1:17">
+    <row r="958" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>392</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="959" spans="1:17">
+    <row r="959" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>163</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="960" spans="1:17">
+    <row r="960" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>322</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="961" spans="1:17">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>73</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="962" spans="1:17">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>295</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="963" spans="1:17">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>321</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="964" spans="1:17">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>348</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="965" spans="1:17">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>232</v>
       </c>
@@ -24657,7 +24657,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="966" spans="1:17">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>363</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="967" spans="1:17">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>125</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="968" spans="1:17">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>205</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="969" spans="1:17">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>271</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="970" spans="1:17">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>18</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="971" spans="1:17">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>392</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="972" spans="1:17">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>231</v>
       </c>
@@ -24755,7 +24755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="973" spans="1:17">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>73</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="974" spans="1:17">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>74</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="975" spans="1:17">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>364</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="976" spans="1:17">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>294</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="977" spans="1:17">
+    <row r="977" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>321</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="978" spans="1:17">
+    <row r="978" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>163</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="979" spans="1:17">
+    <row r="979" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>348</v>
       </c>
@@ -24851,6 +24851,986 @@
       </c>
       <c r="Q979">
         <v>96</v>
+      </c>
+    </row>
+    <row r="980" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>98</v>
+      </c>
+      <c r="B980" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P980">
+        <v>0</v>
+      </c>
+      <c r="Q980">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="981" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>97</v>
+      </c>
+      <c r="B981" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P981">
+        <v>0</v>
+      </c>
+      <c r="Q981">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="982" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>177</v>
+      </c>
+      <c r="B982" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P982">
+        <v>0</v>
+      </c>
+      <c r="Q982">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="983" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>322</v>
+      </c>
+      <c r="B983" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P983">
+        <v>0</v>
+      </c>
+      <c r="Q983">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="984" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>204</v>
+      </c>
+      <c r="B984" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P984">
+        <v>0</v>
+      </c>
+      <c r="Q984">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="985" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>178</v>
+      </c>
+      <c r="B985" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P985">
+        <v>0</v>
+      </c>
+      <c r="Q985">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="986" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>45</v>
+      </c>
+      <c r="B986" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P986">
+        <v>0</v>
+      </c>
+      <c r="Q986">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="987" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>272</v>
+      </c>
+      <c r="B987" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P987">
+        <v>0</v>
+      </c>
+      <c r="Q987">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="988" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>391</v>
+      </c>
+      <c r="B988" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P988">
+        <v>0</v>
+      </c>
+      <c r="Q988">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="989" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>125</v>
+      </c>
+      <c r="B989" s="1">
+        <v>42370</v>
+      </c>
+      <c r="P989">
+        <v>0</v>
+      </c>
+      <c r="Q989">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="990" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>124</v>
+      </c>
+      <c r="B990" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P990">
+        <v>0</v>
+      </c>
+      <c r="Q990">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="991" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>149</v>
+      </c>
+      <c r="B991" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P991">
+        <v>0</v>
+      </c>
+      <c r="Q991">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="992" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>363</v>
+      </c>
+      <c r="B992" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P992">
+        <v>0</v>
+      </c>
+      <c r="Q992">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="993" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>321</v>
+      </c>
+      <c r="B993" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P993">
+        <v>0</v>
+      </c>
+      <c r="Q993">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="994" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>178</v>
+      </c>
+      <c r="B994" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P994">
+        <v>0</v>
+      </c>
+      <c r="Q994">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="995" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>294</v>
+      </c>
+      <c r="B995" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P995">
+        <v>0</v>
+      </c>
+      <c r="Q995">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="996" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>205</v>
+      </c>
+      <c r="B996" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P996">
+        <v>0</v>
+      </c>
+      <c r="Q996">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="997" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>18</v>
+      </c>
+      <c r="B997" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P997">
+        <v>0</v>
+      </c>
+      <c r="Q997">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="998" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>46</v>
+      </c>
+      <c r="B998" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P998">
+        <v>0</v>
+      </c>
+      <c r="Q998">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="999" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>97</v>
+      </c>
+      <c r="B999" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P999">
+        <v>0</v>
+      </c>
+      <c r="Q999">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1000">
+        <v>0</v>
+      </c>
+      <c r="Q1000">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1001">
+        <v>0</v>
+      </c>
+      <c r="Q1001">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1002">
+        <v>0</v>
+      </c>
+      <c r="Q1002">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1003">
+        <v>0</v>
+      </c>
+      <c r="Q1003">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1004">
+        <v>0</v>
+      </c>
+      <c r="Q1004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1005">
+        <v>0</v>
+      </c>
+      <c r="Q1005">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1006">
+        <v>1</v>
+      </c>
+      <c r="Q1006">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1007">
+        <v>1</v>
+      </c>
+      <c r="Q1007">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1008">
+        <v>1</v>
+      </c>
+      <c r="Q1008">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1009">
+        <v>1</v>
+      </c>
+      <c r="Q1009">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1010">
+        <v>0</v>
+      </c>
+      <c r="Q1010">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>42371</v>
+      </c>
+      <c r="P1011">
+        <v>0</v>
+      </c>
+      <c r="Q1011">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1012">
+        <v>0</v>
+      </c>
+      <c r="Q1012">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1013">
+        <v>0</v>
+      </c>
+      <c r="Q1013">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1014">
+        <v>0</v>
+      </c>
+      <c r="Q1014">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1015">
+        <v>0</v>
+      </c>
+      <c r="Q1015">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1016">
+        <v>0</v>
+      </c>
+      <c r="Q1016">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1017">
+        <v>0</v>
+      </c>
+      <c r="Q1017">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1018">
+        <v>0</v>
+      </c>
+      <c r="Q1018">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1019">
+        <v>0</v>
+      </c>
+      <c r="Q1019">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1020">
+        <v>0</v>
+      </c>
+      <c r="Q1020">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>42372</v>
+      </c>
+      <c r="P1021">
+        <v>0</v>
+      </c>
+      <c r="Q1021">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1022">
+        <v>0</v>
+      </c>
+      <c r="Q1022">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1023">
+        <v>0</v>
+      </c>
+      <c r="Q1023">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1024">
+        <v>0</v>
+      </c>
+      <c r="Q1024">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1025">
+        <v>0</v>
+      </c>
+      <c r="Q1025">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1026">
+        <v>0</v>
+      </c>
+      <c r="Q1026">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1027">
+        <v>0</v>
+      </c>
+      <c r="Q1027">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1028">
+        <v>0</v>
+      </c>
+      <c r="Q1028">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1029">
+        <v>0</v>
+      </c>
+      <c r="Q1029">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1030">
+        <v>1</v>
+      </c>
+      <c r="Q1030">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1031">
+        <v>1</v>
+      </c>
+      <c r="Q1031">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1032">
+        <v>0</v>
+      </c>
+      <c r="Q1032">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1033">
+        <v>0</v>
+      </c>
+      <c r="Q1033">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1034">
+        <v>0</v>
+      </c>
+      <c r="Q1034">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1035">
+        <v>0</v>
+      </c>
+      <c r="Q1035">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1036">
+        <v>0</v>
+      </c>
+      <c r="Q1036">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1037">
+        <v>0</v>
+      </c>
+      <c r="Q1037">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1038">
+        <v>0</v>
+      </c>
+      <c r="Q1038">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1039">
+        <v>0</v>
+      </c>
+      <c r="Q1039">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1040">
+        <v>0</v>
+      </c>
+      <c r="Q1040">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>42373</v>
+      </c>
+      <c r="P1041">
+        <v>0</v>
+      </c>
+      <c r="Q1041">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1042">
+        <v>0</v>
+      </c>
+      <c r="Q1042">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1043">
+        <v>0</v>
+      </c>
+      <c r="Q1043">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1044">
+        <v>0</v>
+      </c>
+      <c r="Q1044">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1045">
+        <v>0</v>
+      </c>
+      <c r="Q1045">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1046">
+        <v>2</v>
+      </c>
+      <c r="Q1046">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1047">
+        <v>2</v>
+      </c>
+      <c r="Q1047">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1048">
+        <v>0</v>
+      </c>
+      <c r="Q1048">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>42374</v>
+      </c>
+      <c r="P1049">
+        <v>0</v>
+      </c>
+      <c r="Q1049">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
